--- a/src/cloud/backend/apollo.cloud/Graph.Apollo.Cloud.Assessment/Data/Digitale_Kompetenzen.xlsx
+++ b/src/cloud/backend/apollo.cloud/Graph.Apollo.Cloud.Assessment/Data/Digitale_Kompetenzen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IvanaBoscolo\source\repos\APOLLO\src\cloud\backend\apollo.cloud\Graph.Apollo.Cloud.Assessment\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42397423-A751-47AF-A6FD-9254A22FC0B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04E26946-3737-4414-A382-B898AD469C03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="31920" xr2:uid="{964963E8-EE09-4957-A004-AE51DD5268F6}"/>
+    <workbookView xWindow="3930" yWindow="5010" windowWidth="32235" windowHeight="21945" xr2:uid="{964963E8-EE09-4957-A004-AE51DD5268F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Booklet_FK Lagerlogistik" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="204">
   <si>
     <t>ItemID</t>
   </si>
@@ -643,6 +643,12 @@
   </si>
   <si>
     <t>Ich nutze, sofern verfügbar, öffentliche WLAN-Netzwerke.</t>
+  </si>
+  <si>
+    <t>Bitte klicke an.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -1290,7 +1296,7 @@
   <dimension ref="A1:BO56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AK52" sqref="A51:AK52"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1514,8 +1520,11 @@
       <c r="D2" t="s">
         <v>71</v>
       </c>
+      <c r="E2" t="s">
+        <v>84</v>
+      </c>
       <c r="J2" t="s">
-        <v>84</v>
+        <v>202</v>
       </c>
       <c r="L2">
         <v>6</v>
@@ -1575,8 +1584,11 @@
       <c r="D3" t="s">
         <v>72</v>
       </c>
+      <c r="E3" t="s">
+        <v>84</v>
+      </c>
       <c r="J3" t="s">
-        <v>84</v>
+        <v>203</v>
       </c>
       <c r="L3">
         <v>6</v>
@@ -1636,8 +1648,11 @@
       <c r="D4" t="s">
         <v>73</v>
       </c>
+      <c r="E4" t="s">
+        <v>84</v>
+      </c>
       <c r="J4" t="s">
-        <v>84</v>
+        <v>202</v>
       </c>
       <c r="L4">
         <v>6</v>
@@ -1697,8 +1712,11 @@
       <c r="D5" t="s">
         <v>74</v>
       </c>
+      <c r="E5" t="s">
+        <v>84</v>
+      </c>
       <c r="J5" t="s">
-        <v>84</v>
+        <v>202</v>
       </c>
       <c r="L5">
         <v>6</v>
@@ -1758,8 +1776,11 @@
       <c r="D6" t="s">
         <v>75</v>
       </c>
+      <c r="E6" t="s">
+        <v>84</v>
+      </c>
       <c r="J6" t="s">
-        <v>84</v>
+        <v>202</v>
       </c>
       <c r="L6">
         <v>6</v>
@@ -1819,8 +1840,11 @@
       <c r="D7" t="s">
         <v>76</v>
       </c>
+      <c r="E7" t="s">
+        <v>84</v>
+      </c>
       <c r="J7" t="s">
-        <v>84</v>
+        <v>202</v>
       </c>
       <c r="L7">
         <v>6</v>
@@ -1880,8 +1904,11 @@
       <c r="D8" t="s">
         <v>77</v>
       </c>
+      <c r="E8" t="s">
+        <v>84</v>
+      </c>
       <c r="J8" t="s">
-        <v>84</v>
+        <v>202</v>
       </c>
       <c r="L8">
         <v>6</v>
@@ -1941,8 +1968,11 @@
       <c r="D9" s="8" t="s">
         <v>92</v>
       </c>
+      <c r="E9" t="s">
+        <v>84</v>
+      </c>
       <c r="J9" t="s">
-        <v>84</v>
+        <v>202</v>
       </c>
       <c r="L9">
         <v>6</v>
@@ -2000,8 +2030,11 @@
       <c r="D10" t="s">
         <v>93</v>
       </c>
+      <c r="E10" t="s">
+        <v>84</v>
+      </c>
       <c r="J10" t="s">
-        <v>84</v>
+        <v>202</v>
       </c>
       <c r="L10">
         <v>6</v>
@@ -2059,8 +2092,11 @@
       <c r="D11" s="9" t="s">
         <v>94</v>
       </c>
+      <c r="E11" t="s">
+        <v>84</v>
+      </c>
       <c r="J11" t="s">
-        <v>84</v>
+        <v>202</v>
       </c>
       <c r="L11">
         <v>6</v>
@@ -2118,8 +2154,11 @@
       <c r="D12" s="9" t="s">
         <v>95</v>
       </c>
+      <c r="E12" t="s">
+        <v>84</v>
+      </c>
       <c r="J12" t="s">
-        <v>84</v>
+        <v>202</v>
       </c>
       <c r="L12">
         <v>6</v>
@@ -2177,8 +2216,11 @@
       <c r="D13" s="8" t="s">
         <v>96</v>
       </c>
+      <c r="E13" t="s">
+        <v>84</v>
+      </c>
       <c r="J13" t="s">
-        <v>84</v>
+        <v>202</v>
       </c>
       <c r="L13">
         <v>6</v>
@@ -2236,8 +2278,11 @@
       <c r="D14" s="8" t="s">
         <v>97</v>
       </c>
+      <c r="E14" t="s">
+        <v>84</v>
+      </c>
       <c r="J14" t="s">
-        <v>84</v>
+        <v>202</v>
       </c>
       <c r="L14">
         <v>6</v>
@@ -2295,8 +2340,11 @@
       <c r="D15" s="8" t="s">
         <v>146</v>
       </c>
+      <c r="E15" t="s">
+        <v>84</v>
+      </c>
       <c r="J15" t="s">
-        <v>84</v>
+        <v>202</v>
       </c>
       <c r="L15">
         <v>6</v>
@@ -2354,8 +2402,11 @@
       <c r="D16" s="8" t="s">
         <v>147</v>
       </c>
+      <c r="E16" t="s">
+        <v>84</v>
+      </c>
       <c r="J16" t="s">
-        <v>84</v>
+        <v>202</v>
       </c>
       <c r="L16">
         <v>6</v>
@@ -2413,8 +2464,11 @@
       <c r="D17" s="8" t="s">
         <v>148</v>
       </c>
+      <c r="E17" t="s">
+        <v>84</v>
+      </c>
       <c r="J17" t="s">
-        <v>84</v>
+        <v>202</v>
       </c>
       <c r="L17">
         <v>6</v>
@@ -2472,8 +2526,11 @@
       <c r="D18" s="10" t="s">
         <v>149</v>
       </c>
+      <c r="E18" t="s">
+        <v>84</v>
+      </c>
       <c r="J18" t="s">
-        <v>84</v>
+        <v>202</v>
       </c>
       <c r="L18">
         <v>6</v>
@@ -2531,8 +2588,11 @@
       <c r="D19" s="11" t="s">
         <v>150</v>
       </c>
+      <c r="E19" t="s">
+        <v>84</v>
+      </c>
       <c r="J19" t="s">
-        <v>84</v>
+        <v>202</v>
       </c>
       <c r="L19">
         <v>6</v>
@@ -2590,8 +2650,11 @@
       <c r="D20" s="8" t="s">
         <v>151</v>
       </c>
+      <c r="E20" t="s">
+        <v>84</v>
+      </c>
       <c r="J20" t="s">
-        <v>84</v>
+        <v>202</v>
       </c>
       <c r="L20">
         <v>6</v>
@@ -2649,8 +2712,11 @@
       <c r="D21" s="8" t="s">
         <v>152</v>
       </c>
+      <c r="E21" t="s">
+        <v>84</v>
+      </c>
       <c r="J21" t="s">
-        <v>84</v>
+        <v>202</v>
       </c>
       <c r="L21">
         <v>6</v>
@@ -2708,8 +2774,11 @@
       <c r="D22" s="11" t="s">
         <v>153</v>
       </c>
+      <c r="E22" t="s">
+        <v>84</v>
+      </c>
       <c r="J22" t="s">
-        <v>84</v>
+        <v>202</v>
       </c>
       <c r="L22">
         <v>6</v>
@@ -2767,8 +2836,11 @@
       <c r="D23" s="14" t="s">
         <v>168</v>
       </c>
+      <c r="E23" t="s">
+        <v>84</v>
+      </c>
       <c r="J23" t="s">
-        <v>84</v>
+        <v>202</v>
       </c>
       <c r="L23">
         <v>6</v>
@@ -2826,8 +2898,11 @@
       <c r="D24" s="14" t="s">
         <v>169</v>
       </c>
+      <c r="E24" t="s">
+        <v>84</v>
+      </c>
       <c r="J24" t="s">
-        <v>84</v>
+        <v>202</v>
       </c>
       <c r="L24">
         <v>6</v>
@@ -2885,8 +2960,11 @@
       <c r="D25" s="14" t="s">
         <v>170</v>
       </c>
+      <c r="E25" t="s">
+        <v>84</v>
+      </c>
       <c r="J25" t="s">
-        <v>84</v>
+        <v>202</v>
       </c>
       <c r="L25">
         <v>6</v>
@@ -2944,8 +3022,11 @@
       <c r="D26" s="14" t="s">
         <v>171</v>
       </c>
+      <c r="E26" t="s">
+        <v>84</v>
+      </c>
       <c r="J26" t="s">
-        <v>84</v>
+        <v>202</v>
       </c>
       <c r="L26">
         <v>6</v>
@@ -3003,8 +3084,11 @@
       <c r="D27" s="14" t="s">
         <v>172</v>
       </c>
+      <c r="E27" t="s">
+        <v>84</v>
+      </c>
       <c r="J27" t="s">
-        <v>84</v>
+        <v>202</v>
       </c>
       <c r="L27">
         <v>6</v>
@@ -3062,8 +3146,11 @@
       <c r="D28" s="14" t="s">
         <v>173</v>
       </c>
+      <c r="E28" t="s">
+        <v>84</v>
+      </c>
       <c r="J28" t="s">
-        <v>84</v>
+        <v>202</v>
       </c>
       <c r="L28">
         <v>6</v>
@@ -3121,8 +3208,11 @@
       <c r="D29" s="14" t="s">
         <v>174</v>
       </c>
+      <c r="E29" t="s">
+        <v>84</v>
+      </c>
       <c r="J29" t="s">
-        <v>84</v>
+        <v>202</v>
       </c>
       <c r="L29">
         <v>6</v>
@@ -3180,8 +3270,11 @@
       <c r="D30" s="15" t="s">
         <v>175</v>
       </c>
+      <c r="E30" t="s">
+        <v>84</v>
+      </c>
       <c r="J30" t="s">
-        <v>84</v>
+        <v>202</v>
       </c>
       <c r="L30">
         <v>6</v>
@@ -3239,8 +3332,11 @@
       <c r="D31" s="14" t="s">
         <v>176</v>
       </c>
+      <c r="E31" t="s">
+        <v>84</v>
+      </c>
       <c r="J31" t="s">
-        <v>84</v>
+        <v>202</v>
       </c>
       <c r="L31">
         <v>6</v>
@@ -3298,8 +3394,11 @@
       <c r="D32" s="14" t="s">
         <v>177</v>
       </c>
+      <c r="E32" t="s">
+        <v>84</v>
+      </c>
       <c r="J32" t="s">
-        <v>84</v>
+        <v>202</v>
       </c>
       <c r="L32">
         <v>6</v>
@@ -3357,8 +3456,11 @@
       <c r="D33" s="8" t="s">
         <v>178</v>
       </c>
+      <c r="E33" t="s">
+        <v>84</v>
+      </c>
       <c r="J33" t="s">
-        <v>84</v>
+        <v>202</v>
       </c>
       <c r="L33">
         <v>6</v>
@@ -3416,8 +3518,11 @@
       <c r="D34" s="11" t="s">
         <v>179</v>
       </c>
+      <c r="E34" t="s">
+        <v>84</v>
+      </c>
       <c r="J34" t="s">
-        <v>84</v>
+        <v>202</v>
       </c>
       <c r="L34">
         <v>6</v>
@@ -3475,8 +3580,11 @@
       <c r="D35" s="8" t="s">
         <v>180</v>
       </c>
+      <c r="E35" t="s">
+        <v>84</v>
+      </c>
       <c r="J35" t="s">
-        <v>84</v>
+        <v>202</v>
       </c>
       <c r="L35">
         <v>6</v>
@@ -3534,8 +3642,11 @@
       <c r="D36" s="8" t="s">
         <v>181</v>
       </c>
+      <c r="E36" t="s">
+        <v>84</v>
+      </c>
       <c r="J36" t="s">
-        <v>84</v>
+        <v>202</v>
       </c>
       <c r="L36">
         <v>6</v>
@@ -3593,8 +3704,11 @@
       <c r="D37" s="8" t="s">
         <v>182</v>
       </c>
+      <c r="E37" t="s">
+        <v>84</v>
+      </c>
       <c r="J37" t="s">
-        <v>84</v>
+        <v>202</v>
       </c>
       <c r="L37">
         <v>6</v>
@@ -3652,8 +3766,11 @@
       <c r="D38" s="8" t="s">
         <v>183</v>
       </c>
+      <c r="E38" t="s">
+        <v>84</v>
+      </c>
       <c r="J38" t="s">
-        <v>84</v>
+        <v>202</v>
       </c>
       <c r="L38">
         <v>6</v>
@@ -3711,8 +3828,11 @@
       <c r="D39" s="11" t="s">
         <v>184</v>
       </c>
+      <c r="E39" t="s">
+        <v>84</v>
+      </c>
       <c r="J39" t="s">
-        <v>84</v>
+        <v>202</v>
       </c>
       <c r="L39">
         <v>6</v>
@@ -3770,8 +3890,11 @@
       <c r="D40" s="16" t="s">
         <v>185</v>
       </c>
+      <c r="E40" t="s">
+        <v>84</v>
+      </c>
       <c r="J40" t="s">
-        <v>84</v>
+        <v>202</v>
       </c>
       <c r="L40">
         <v>6</v>
@@ -3829,8 +3952,11 @@
       <c r="D41" s="10" t="s">
         <v>186</v>
       </c>
+      <c r="E41" t="s">
+        <v>84</v>
+      </c>
       <c r="J41" t="s">
-        <v>84</v>
+        <v>202</v>
       </c>
       <c r="L41">
         <v>6</v>
@@ -3888,8 +4014,11 @@
       <c r="D42" s="8" t="s">
         <v>187</v>
       </c>
+      <c r="E42" t="s">
+        <v>84</v>
+      </c>
       <c r="J42" t="s">
-        <v>84</v>
+        <v>202</v>
       </c>
       <c r="L42">
         <v>6</v>
@@ -3947,8 +4076,11 @@
       <c r="D43" s="8" t="s">
         <v>188</v>
       </c>
+      <c r="E43" t="s">
+        <v>84</v>
+      </c>
       <c r="J43" t="s">
-        <v>84</v>
+        <v>202</v>
       </c>
       <c r="L43">
         <v>6</v>
@@ -4006,8 +4138,11 @@
       <c r="D44" s="8" t="s">
         <v>189</v>
       </c>
+      <c r="E44" t="s">
+        <v>84</v>
+      </c>
       <c r="J44" t="s">
-        <v>84</v>
+        <v>202</v>
       </c>
       <c r="L44">
         <v>6</v>
@@ -4065,8 +4200,11 @@
       <c r="D45" s="8" t="s">
         <v>190</v>
       </c>
+      <c r="E45" t="s">
+        <v>84</v>
+      </c>
       <c r="J45" t="s">
-        <v>84</v>
+        <v>202</v>
       </c>
       <c r="L45">
         <v>6</v>
@@ -4124,8 +4262,11 @@
       <c r="D46" s="8" t="s">
         <v>191</v>
       </c>
+      <c r="E46" t="s">
+        <v>84</v>
+      </c>
       <c r="J46" t="s">
-        <v>84</v>
+        <v>202</v>
       </c>
       <c r="L46">
         <v>6</v>
@@ -4183,8 +4324,11 @@
       <c r="D47" s="8" t="s">
         <v>192</v>
       </c>
+      <c r="E47" t="s">
+        <v>84</v>
+      </c>
       <c r="J47" t="s">
-        <v>84</v>
+        <v>202</v>
       </c>
       <c r="L47">
         <v>6</v>
@@ -4242,8 +4386,11 @@
       <c r="D48" s="8" t="s">
         <v>193</v>
       </c>
+      <c r="E48" t="s">
+        <v>84</v>
+      </c>
       <c r="J48" t="s">
-        <v>84</v>
+        <v>202</v>
       </c>
       <c r="L48">
         <v>6</v>
@@ -4301,8 +4448,11 @@
       <c r="D49" s="8" t="s">
         <v>199</v>
       </c>
+      <c r="E49" t="s">
+        <v>84</v>
+      </c>
       <c r="J49" t="s">
-        <v>84</v>
+        <v>202</v>
       </c>
       <c r="L49">
         <v>6</v>
@@ -4360,8 +4510,11 @@
       <c r="D50" s="8" t="s">
         <v>194</v>
       </c>
+      <c r="E50" t="s">
+        <v>84</v>
+      </c>
       <c r="J50" t="s">
-        <v>84</v>
+        <v>202</v>
       </c>
       <c r="L50">
         <v>6</v>
@@ -4419,8 +4572,11 @@
       <c r="D51" s="16" t="s">
         <v>200</v>
       </c>
+      <c r="E51" t="s">
+        <v>84</v>
+      </c>
       <c r="J51" t="s">
-        <v>84</v>
+        <v>202</v>
       </c>
       <c r="L51">
         <v>6</v>
@@ -4478,8 +4634,11 @@
       <c r="D52" s="8" t="s">
         <v>201</v>
       </c>
+      <c r="E52" t="s">
+        <v>84</v>
+      </c>
       <c r="J52" t="s">
-        <v>84</v>
+        <v>202</v>
       </c>
       <c r="L52">
         <v>6</v>
@@ -4537,8 +4696,11 @@
       <c r="D53" s="11" t="s">
         <v>195</v>
       </c>
+      <c r="E53" t="s">
+        <v>84</v>
+      </c>
       <c r="J53" t="s">
-        <v>84</v>
+        <v>202</v>
       </c>
       <c r="L53">
         <v>6</v>
@@ -4596,8 +4758,11 @@
       <c r="D54" s="8" t="s">
         <v>196</v>
       </c>
+      <c r="E54" t="s">
+        <v>84</v>
+      </c>
       <c r="J54" t="s">
-        <v>84</v>
+        <v>202</v>
       </c>
       <c r="L54">
         <v>6</v>
@@ -4655,8 +4820,11 @@
       <c r="D55" s="8" t="s">
         <v>197</v>
       </c>
+      <c r="E55" t="s">
+        <v>84</v>
+      </c>
       <c r="J55" t="s">
-        <v>84</v>
+        <v>202</v>
       </c>
       <c r="L55">
         <v>6</v>
@@ -4714,8 +4882,11 @@
       <c r="D56" s="8" t="s">
         <v>198</v>
       </c>
+      <c r="E56" t="s">
+        <v>84</v>
+      </c>
       <c r="J56" t="s">
-        <v>84</v>
+        <v>202</v>
       </c>
       <c r="L56">
         <v>6</v>
@@ -4831,17 +5002,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="c90f9e10-81f0-426e-b8bb-fc89022b3796" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="02625a54-df84-4a3b-b049-0bb7e92cde0d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100879B58D3C23DCA4AAEF47596CA4D8E48" ma:contentTypeVersion="13" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="ee8b9d8723b80ccc4cb578ffd4faacc7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="02625a54-df84-4a3b-b049-0bb7e92cde0d" xmlns:ns3="c90f9e10-81f0-426e-b8bb-fc89022b3796" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="64b8ed4db9a6e136c161da669116b9cc" ns2:_="" ns3:_="">
     <xsd:import namespace="02625a54-df84-4a3b-b049-0bb7e92cde0d"/>
@@ -5050,6 +5210,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="c90f9e10-81f0-426e-b8bb-fc89022b3796" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="02625a54-df84-4a3b-b049-0bb7e92cde0d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -5060,23 +5231,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3B3ABF6-4080-46CB-8A76-0A61A3F40BD1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="02625a54-df84-4a3b-b049-0bb7e92cde0d"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="c90f9e10-81f0-426e-b8bb-fc89022b3796"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A223085B-57B4-40DB-BC96-92703C914FDC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5095,6 +5249,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3B3ABF6-4080-46CB-8A76-0A61A3F40BD1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="02625a54-df84-4a3b-b049-0bb7e92cde0d"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="c90f9e10-81f0-426e-b8bb-fc89022b3796"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C63F3413-8325-4072-95D6-266A70C668BD}">
   <ds:schemaRefs>

--- a/src/cloud/backend/apollo.cloud/Graph.Apollo.Cloud.Assessment/Data/Digitale_Kompetenzen.xlsx
+++ b/src/cloud/backend/apollo.cloud/Graph.Apollo.Cloud.Assessment/Data/Digitale_Kompetenzen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IvanaBoscolo\source\repos\APOLLO\src\cloud\backend\apollo.cloud\Graph.Apollo.Cloud.Assessment\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04E26946-3737-4414-A382-B898AD469C03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB267BE1-05B9-43C5-B16E-B0B415363D09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3930" yWindow="5010" windowWidth="32235" windowHeight="21945" xr2:uid="{964963E8-EE09-4957-A004-AE51DD5268F6}"/>
+    <workbookView xWindow="3555" yWindow="6720" windowWidth="25695" windowHeight="15795" xr2:uid="{964963E8-EE09-4957-A004-AE51DD5268F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Booklet_FK Lagerlogistik" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="205">
   <si>
     <t>ItemID</t>
   </si>
@@ -648,7 +648,10 @@
     <t>Bitte klicke an.</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>Selbsttest – Digitale Kompetenzen</t>
+  </si>
+  <si>
+    <t>Bertelsmann Stiftung</t>
   </si>
 </sst>
 </file>
@@ -1295,8 +1298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C4694E0-AE11-4213-9084-7EF5B5E33E57}">
   <dimension ref="A1:BO56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="AV1" workbookViewId="0">
+      <selection activeCell="BI2" sqref="BI2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1549,6 +1552,9 @@
       <c r="AR2" t="s">
         <v>70</v>
       </c>
+      <c r="AT2" t="s">
+        <v>70</v>
+      </c>
       <c r="AW2" t="s">
         <v>69</v>
       </c>
@@ -1563,6 +1569,15 @@
       </c>
       <c r="BE2" t="s">
         <v>90</v>
+      </c>
+      <c r="BF2">
+        <v>20</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>204</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>203</v>
       </c>
       <c r="BM2">
         <v>0</v>
@@ -1588,7 +1603,7 @@
         <v>84</v>
       </c>
       <c r="J3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L3">
         <v>6</v>
@@ -1613,6 +1628,9 @@
       <c r="AR3" t="s">
         <v>70</v>
       </c>
+      <c r="AT3" t="s">
+        <v>70</v>
+      </c>
       <c r="AW3" t="s">
         <v>69</v>
       </c>
@@ -1677,6 +1695,9 @@
       <c r="AR4" t="s">
         <v>70</v>
       </c>
+      <c r="AT4" t="s">
+        <v>70</v>
+      </c>
       <c r="AW4" t="s">
         <v>69</v>
       </c>
@@ -1741,6 +1762,9 @@
       <c r="AR5" t="s">
         <v>70</v>
       </c>
+      <c r="AT5" t="s">
+        <v>70</v>
+      </c>
       <c r="AW5" t="s">
         <v>69</v>
       </c>
@@ -1805,6 +1829,9 @@
       <c r="AR6" t="s">
         <v>70</v>
       </c>
+      <c r="AT6" t="s">
+        <v>70</v>
+      </c>
       <c r="AW6" t="s">
         <v>69</v>
       </c>
@@ -1869,6 +1896,9 @@
       <c r="AR7" t="s">
         <v>70</v>
       </c>
+      <c r="AT7" t="s">
+        <v>70</v>
+      </c>
       <c r="AW7" t="s">
         <v>69</v>
       </c>
@@ -1933,6 +1963,9 @@
       <c r="AR8" t="s">
         <v>70</v>
       </c>
+      <c r="AT8" t="s">
+        <v>70</v>
+      </c>
       <c r="AW8" t="s">
         <v>69</v>
       </c>
@@ -1995,6 +2028,9 @@
       <c r="AR9" t="s">
         <v>103</v>
       </c>
+      <c r="AT9" t="s">
+        <v>103</v>
+      </c>
       <c r="AW9" t="s">
         <v>160</v>
       </c>
@@ -2057,6 +2093,9 @@
       <c r="AR10" t="s">
         <v>103</v>
       </c>
+      <c r="AT10" t="s">
+        <v>103</v>
+      </c>
       <c r="AW10" t="s">
         <v>160</v>
       </c>
@@ -2119,6 +2158,9 @@
       <c r="AR11" t="s">
         <v>103</v>
       </c>
+      <c r="AT11" t="s">
+        <v>103</v>
+      </c>
       <c r="AW11" t="s">
         <v>160</v>
       </c>
@@ -2181,6 +2223,9 @@
       <c r="AR12" t="s">
         <v>103</v>
       </c>
+      <c r="AT12" t="s">
+        <v>103</v>
+      </c>
       <c r="AW12" t="s">
         <v>160</v>
       </c>
@@ -2243,6 +2288,9 @@
       <c r="AR13" t="s">
         <v>103</v>
       </c>
+      <c r="AT13" t="s">
+        <v>103</v>
+      </c>
       <c r="AW13" t="s">
         <v>160</v>
       </c>
@@ -2305,6 +2353,9 @@
       <c r="AR14" t="s">
         <v>103</v>
       </c>
+      <c r="AT14" t="s">
+        <v>103</v>
+      </c>
       <c r="AW14" t="s">
         <v>160</v>
       </c>
@@ -2367,6 +2418,9 @@
       <c r="AR15" t="s">
         <v>154</v>
       </c>
+      <c r="AT15" t="s">
+        <v>154</v>
+      </c>
       <c r="AW15" t="s">
         <v>159</v>
       </c>
@@ -2429,6 +2483,9 @@
       <c r="AR16" t="s">
         <v>154</v>
       </c>
+      <c r="AT16" t="s">
+        <v>154</v>
+      </c>
       <c r="AW16" t="s">
         <v>159</v>
       </c>
@@ -2491,6 +2548,9 @@
       <c r="AR17" t="s">
         <v>154</v>
       </c>
+      <c r="AT17" t="s">
+        <v>154</v>
+      </c>
       <c r="AW17" t="s">
         <v>159</v>
       </c>
@@ -2553,6 +2613,9 @@
       <c r="AR18" t="s">
         <v>154</v>
       </c>
+      <c r="AT18" t="s">
+        <v>154</v>
+      </c>
       <c r="AW18" t="s">
         <v>159</v>
       </c>
@@ -2615,6 +2678,9 @@
       <c r="AR19" t="s">
         <v>154</v>
       </c>
+      <c r="AT19" t="s">
+        <v>154</v>
+      </c>
       <c r="AW19" t="s">
         <v>159</v>
       </c>
@@ -2677,6 +2743,9 @@
       <c r="AR20" t="s">
         <v>154</v>
       </c>
+      <c r="AT20" t="s">
+        <v>154</v>
+      </c>
       <c r="AW20" t="s">
         <v>159</v>
       </c>
@@ -2739,6 +2808,9 @@
       <c r="AR21" t="s">
         <v>154</v>
       </c>
+      <c r="AT21" t="s">
+        <v>154</v>
+      </c>
       <c r="AW21" t="s">
         <v>159</v>
       </c>
@@ -2801,6 +2873,9 @@
       <c r="AR22" t="s">
         <v>154</v>
       </c>
+      <c r="AT22" t="s">
+        <v>154</v>
+      </c>
       <c r="AW22" t="s">
         <v>159</v>
       </c>
@@ -2863,6 +2938,9 @@
       <c r="AR23" t="s">
         <v>155</v>
       </c>
+      <c r="AT23" t="s">
+        <v>155</v>
+      </c>
       <c r="AW23" t="s">
         <v>163</v>
       </c>
@@ -2925,6 +3003,9 @@
       <c r="AR24" t="s">
         <v>155</v>
       </c>
+      <c r="AT24" t="s">
+        <v>155</v>
+      </c>
       <c r="AW24" t="s">
         <v>163</v>
       </c>
@@ -2987,6 +3068,9 @@
       <c r="AR25" t="s">
         <v>155</v>
       </c>
+      <c r="AT25" t="s">
+        <v>155</v>
+      </c>
       <c r="AW25" t="s">
         <v>163</v>
       </c>
@@ -3049,6 +3133,9 @@
       <c r="AR26" t="s">
         <v>155</v>
       </c>
+      <c r="AT26" t="s">
+        <v>155</v>
+      </c>
       <c r="AW26" t="s">
         <v>163</v>
       </c>
@@ -3111,6 +3198,9 @@
       <c r="AR27" t="s">
         <v>155</v>
       </c>
+      <c r="AT27" t="s">
+        <v>155</v>
+      </c>
       <c r="AW27" t="s">
         <v>163</v>
       </c>
@@ -3173,6 +3263,9 @@
       <c r="AR28" t="s">
         <v>155</v>
       </c>
+      <c r="AT28" t="s">
+        <v>155</v>
+      </c>
       <c r="AW28" t="s">
         <v>163</v>
       </c>
@@ -3235,6 +3328,9 @@
       <c r="AR29" t="s">
         <v>155</v>
       </c>
+      <c r="AT29" t="s">
+        <v>155</v>
+      </c>
       <c r="AW29" t="s">
         <v>163</v>
       </c>
@@ -3297,6 +3393,9 @@
       <c r="AR30" t="s">
         <v>155</v>
       </c>
+      <c r="AT30" t="s">
+        <v>155</v>
+      </c>
       <c r="AW30" t="s">
         <v>163</v>
       </c>
@@ -3359,6 +3458,9 @@
       <c r="AR31" t="s">
         <v>155</v>
       </c>
+      <c r="AT31" t="s">
+        <v>155</v>
+      </c>
       <c r="AW31" t="s">
         <v>163</v>
       </c>
@@ -3421,6 +3523,9 @@
       <c r="AR32" t="s">
         <v>155</v>
       </c>
+      <c r="AT32" t="s">
+        <v>155</v>
+      </c>
       <c r="AW32" t="s">
         <v>163</v>
       </c>
@@ -3483,6 +3588,9 @@
       <c r="AR33" t="s">
         <v>157</v>
       </c>
+      <c r="AT33" t="s">
+        <v>157</v>
+      </c>
       <c r="AW33" t="s">
         <v>164</v>
       </c>
@@ -3545,6 +3653,9 @@
       <c r="AR34" t="s">
         <v>157</v>
       </c>
+      <c r="AT34" t="s">
+        <v>157</v>
+      </c>
       <c r="AW34" t="s">
         <v>164</v>
       </c>
@@ -3607,6 +3718,9 @@
       <c r="AR35" t="s">
         <v>157</v>
       </c>
+      <c r="AT35" t="s">
+        <v>157</v>
+      </c>
       <c r="AW35" t="s">
         <v>164</v>
       </c>
@@ -3669,6 +3783,9 @@
       <c r="AR36" t="s">
         <v>157</v>
       </c>
+      <c r="AT36" t="s">
+        <v>157</v>
+      </c>
       <c r="AW36" t="s">
         <v>164</v>
       </c>
@@ -3731,6 +3848,9 @@
       <c r="AR37" t="s">
         <v>157</v>
       </c>
+      <c r="AT37" t="s">
+        <v>157</v>
+      </c>
       <c r="AW37" t="s">
         <v>164</v>
       </c>
@@ -3793,6 +3913,9 @@
       <c r="AR38" t="s">
         <v>157</v>
       </c>
+      <c r="AT38" t="s">
+        <v>157</v>
+      </c>
       <c r="AW38" t="s">
         <v>164</v>
       </c>
@@ -3855,6 +3978,9 @@
       <c r="AR39" t="s">
         <v>157</v>
       </c>
+      <c r="AT39" t="s">
+        <v>157</v>
+      </c>
       <c r="AW39" t="s">
         <v>164</v>
       </c>
@@ -3917,6 +4043,9 @@
       <c r="AR40" t="s">
         <v>157</v>
       </c>
+      <c r="AT40" t="s">
+        <v>157</v>
+      </c>
       <c r="AW40" t="s">
         <v>164</v>
       </c>
@@ -3979,6 +4108,9 @@
       <c r="AR41" t="s">
         <v>157</v>
       </c>
+      <c r="AT41" t="s">
+        <v>157</v>
+      </c>
       <c r="AW41" t="s">
         <v>164</v>
       </c>
@@ -4041,6 +4173,9 @@
       <c r="AR42" t="s">
         <v>157</v>
       </c>
+      <c r="AT42" t="s">
+        <v>157</v>
+      </c>
       <c r="AW42" t="s">
         <v>164</v>
       </c>
@@ -4103,6 +4238,9 @@
       <c r="AR43" t="s">
         <v>156</v>
       </c>
+      <c r="AT43" t="s">
+        <v>156</v>
+      </c>
       <c r="AW43" t="s">
         <v>167</v>
       </c>
@@ -4165,6 +4303,9 @@
       <c r="AR44" t="s">
         <v>156</v>
       </c>
+      <c r="AT44" t="s">
+        <v>156</v>
+      </c>
       <c r="AW44" t="s">
         <v>167</v>
       </c>
@@ -4227,6 +4368,9 @@
       <c r="AR45" t="s">
         <v>156</v>
       </c>
+      <c r="AT45" t="s">
+        <v>156</v>
+      </c>
       <c r="AW45" t="s">
         <v>167</v>
       </c>
@@ -4289,6 +4433,9 @@
       <c r="AR46" t="s">
         <v>156</v>
       </c>
+      <c r="AT46" t="s">
+        <v>156</v>
+      </c>
       <c r="AW46" t="s">
         <v>167</v>
       </c>
@@ -4351,6 +4498,9 @@
       <c r="AR47" t="s">
         <v>156</v>
       </c>
+      <c r="AT47" t="s">
+        <v>156</v>
+      </c>
       <c r="AW47" t="s">
         <v>167</v>
       </c>
@@ -4413,6 +4563,9 @@
       <c r="AR48" t="s">
         <v>156</v>
       </c>
+      <c r="AT48" t="s">
+        <v>156</v>
+      </c>
       <c r="AW48" t="s">
         <v>167</v>
       </c>
@@ -4475,6 +4628,9 @@
       <c r="AR49" t="s">
         <v>156</v>
       </c>
+      <c r="AT49" t="s">
+        <v>156</v>
+      </c>
       <c r="AW49" t="s">
         <v>167</v>
       </c>
@@ -4537,6 +4693,9 @@
       <c r="AR50" t="s">
         <v>156</v>
       </c>
+      <c r="AT50" t="s">
+        <v>156</v>
+      </c>
       <c r="AW50" t="s">
         <v>167</v>
       </c>
@@ -4599,6 +4758,9 @@
       <c r="AR51" t="s">
         <v>156</v>
       </c>
+      <c r="AT51" t="s">
+        <v>156</v>
+      </c>
       <c r="AW51" t="s">
         <v>167</v>
       </c>
@@ -4661,6 +4823,9 @@
       <c r="AR52" t="s">
         <v>156</v>
       </c>
+      <c r="AT52" t="s">
+        <v>156</v>
+      </c>
       <c r="AW52" t="s">
         <v>167</v>
       </c>
@@ -4723,6 +4888,9 @@
       <c r="AR53" t="s">
         <v>156</v>
       </c>
+      <c r="AT53" t="s">
+        <v>156</v>
+      </c>
       <c r="AW53" t="s">
         <v>167</v>
       </c>
@@ -4785,6 +4953,9 @@
       <c r="AR54" t="s">
         <v>156</v>
       </c>
+      <c r="AT54" t="s">
+        <v>156</v>
+      </c>
       <c r="AW54" t="s">
         <v>167</v>
       </c>
@@ -4847,6 +5018,9 @@
       <c r="AR55" t="s">
         <v>156</v>
       </c>
+      <c r="AT55" t="s">
+        <v>156</v>
+      </c>
       <c r="AW55" t="s">
         <v>167</v>
       </c>
@@ -4907,6 +5081,9 @@
         <v>1</v>
       </c>
       <c r="AR56" t="s">
+        <v>156</v>
+      </c>
+      <c r="AT56" t="s">
         <v>156</v>
       </c>
       <c r="AW56" t="s">
@@ -5002,6 +5179,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="c90f9e10-81f0-426e-b8bb-fc89022b3796" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="02625a54-df84-4a3b-b049-0bb7e92cde0d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100879B58D3C23DCA4AAEF47596CA4D8E48" ma:contentTypeVersion="13" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="ee8b9d8723b80ccc4cb578ffd4faacc7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="02625a54-df84-4a3b-b049-0bb7e92cde0d" xmlns:ns3="c90f9e10-81f0-426e-b8bb-fc89022b3796" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="64b8ed4db9a6e136c161da669116b9cc" ns2:_="" ns3:_="">
     <xsd:import namespace="02625a54-df84-4a3b-b049-0bb7e92cde0d"/>
@@ -5210,41 +5407,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="c90f9e10-81f0-426e-b8bb-fc89022b3796" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="02625a54-df84-4a3b-b049-0bb7e92cde0d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A223085B-57B4-40DB-BC96-92703C914FDC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C63F3413-8325-4072-95D6-266A70C668BD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="02625a54-df84-4a3b-b049-0bb7e92cde0d"/>
-    <ds:schemaRef ds:uri="c90f9e10-81f0-426e-b8bb-fc89022b3796"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5267,9 +5433,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C63F3413-8325-4072-95D6-266A70C668BD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A223085B-57B4-40DB-BC96-92703C914FDC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="02625a54-df84-4a3b-b049-0bb7e92cde0d"/>
+    <ds:schemaRef ds:uri="c90f9e10-81f0-426e-b8bb-fc89022b3796"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/src/cloud/backend/apollo.cloud/Graph.Apollo.Cloud.Assessment/Data/Digitale_Kompetenzen.xlsx
+++ b/src/cloud/backend/apollo.cloud/Graph.Apollo.Cloud.Assessment/Data/Digitale_Kompetenzen.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IvanaBoscolo\source\repos\APOLLO\src\cloud\backend\apollo.cloud\Graph.Apollo.Cloud.Assessment\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PatricBoscolo\source\gh\APOLLO\src\cloud\backend\apollo.cloud\Graph.Apollo.Cloud.Assessment\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB267BE1-05B9-43C5-B16E-B0B415363D09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D68EEDF-B3E4-4F62-9A5A-12AF2F1C4420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3555" yWindow="6720" windowWidth="25695" windowHeight="15795" xr2:uid="{964963E8-EE09-4957-A004-AE51DD5268F6}"/>
+    <workbookView xWindow="4392" yWindow="3132" windowWidth="40428" windowHeight="22476" xr2:uid="{964963E8-EE09-4957-A004-AE51DD5268F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Booklet_FK Lagerlogistik" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="206">
   <si>
     <t>ItemID</t>
   </si>
@@ -652,13 +652,16 @@
   </si>
   <si>
     <t>Bertelsmann Stiftung</t>
+  </si>
+  <si>
+    <t>SOFTSKILL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -741,6 +744,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFC9A26D"/>
+      <name val="MesloLGM NF"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -810,7 +819,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -851,6 +860,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1298,19 +1310,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C4694E0-AE11-4213-9084-7EF5B5E33E57}">
   <dimension ref="A1:BO56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AV1" workbookViewId="0">
-      <selection activeCell="BI2" sqref="BI2"/>
+    <sheetView tabSelected="1" topLeftCell="AM1" workbookViewId="0">
+      <selection activeCell="BD60" sqref="BD60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="114.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.42578125" customWidth="1"/>
-    <col min="46" max="46" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="114.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.44140625" customWidth="1"/>
+    <col min="46" max="46" width="38.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:67" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:67" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1513,7 +1525,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>67</v>
       </c>
@@ -1561,8 +1573,8 @@
       <c r="AX2" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="BC2">
-        <v>1</v>
+      <c r="BC2" s="17" t="s">
+        <v>205</v>
       </c>
       <c r="BD2" s="7" t="s">
         <v>89</v>
@@ -1589,7 +1601,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>78</v>
       </c>
@@ -1637,8 +1649,8 @@
       <c r="AX3" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="BC3">
-        <v>1</v>
+      <c r="BC3" s="17" t="s">
+        <v>205</v>
       </c>
       <c r="BD3" s="7" t="s">
         <v>89</v>
@@ -1656,7 +1668,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>79</v>
       </c>
@@ -1704,8 +1716,8 @@
       <c r="AX4" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="BC4">
-        <v>1</v>
+      <c r="BC4" s="17" t="s">
+        <v>205</v>
       </c>
       <c r="BD4" s="7" t="s">
         <v>89</v>
@@ -1723,7 +1735,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>80</v>
       </c>
@@ -1771,8 +1783,8 @@
       <c r="AX5" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="BC5">
-        <v>1</v>
+      <c r="BC5" s="17" t="s">
+        <v>205</v>
       </c>
       <c r="BD5" s="7" t="s">
         <v>89</v>
@@ -1790,7 +1802,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>81</v>
       </c>
@@ -1838,8 +1850,8 @@
       <c r="AX6" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="BC6">
-        <v>1</v>
+      <c r="BC6" s="17" t="s">
+        <v>205</v>
       </c>
       <c r="BD6" s="7" t="s">
         <v>89</v>
@@ -1857,7 +1869,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>82</v>
       </c>
@@ -1905,8 +1917,8 @@
       <c r="AX7" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="BC7">
-        <v>1</v>
+      <c r="BC7" s="17" t="s">
+        <v>205</v>
       </c>
       <c r="BD7" s="7" t="s">
         <v>89</v>
@@ -1924,7 +1936,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>83</v>
       </c>
@@ -1972,8 +1984,8 @@
       <c r="AX8" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="BC8">
-        <v>1</v>
+      <c r="BC8" s="17" t="s">
+        <v>205</v>
       </c>
       <c r="BD8" s="7" t="s">
         <v>89</v>
@@ -1991,7 +2003,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>91</v>
       </c>
@@ -2037,8 +2049,8 @@
       <c r="AX9" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="BC9">
-        <v>1</v>
+      <c r="BC9" s="17" t="s">
+        <v>205</v>
       </c>
       <c r="BD9" s="7" t="s">
         <v>89</v>
@@ -2056,7 +2068,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>98</v>
       </c>
@@ -2102,8 +2114,8 @@
       <c r="AX10" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="BC10">
-        <v>1</v>
+      <c r="BC10" s="17" t="s">
+        <v>205</v>
       </c>
       <c r="BD10" s="7" t="s">
         <v>89</v>
@@ -2121,7 +2133,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>99</v>
       </c>
@@ -2167,8 +2179,8 @@
       <c r="AX11" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="BC11">
-        <v>1</v>
+      <c r="BC11" s="17" t="s">
+        <v>205</v>
       </c>
       <c r="BD11" s="7" t="s">
         <v>89</v>
@@ -2186,7 +2198,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>100</v>
       </c>
@@ -2232,8 +2244,8 @@
       <c r="AX12" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="BC12">
-        <v>1</v>
+      <c r="BC12" s="17" t="s">
+        <v>205</v>
       </c>
       <c r="BD12" s="7" t="s">
         <v>89</v>
@@ -2251,7 +2263,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>101</v>
       </c>
@@ -2297,8 +2309,8 @@
       <c r="AX13" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="BC13">
-        <v>1</v>
+      <c r="BC13" s="17" t="s">
+        <v>205</v>
       </c>
       <c r="BD13" s="7" t="s">
         <v>89</v>
@@ -2316,7 +2328,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>102</v>
       </c>
@@ -2362,8 +2374,8 @@
       <c r="AX14" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="BC14">
-        <v>1</v>
+      <c r="BC14" s="17" t="s">
+        <v>205</v>
       </c>
       <c r="BD14" s="7" t="s">
         <v>89</v>
@@ -2381,7 +2393,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>104</v>
       </c>
@@ -2427,8 +2439,8 @@
       <c r="AX15" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="BC15">
-        <v>1</v>
+      <c r="BC15" s="17" t="s">
+        <v>205</v>
       </c>
       <c r="BD15" s="7" t="s">
         <v>89</v>
@@ -2446,7 +2458,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>105</v>
       </c>
@@ -2492,8 +2504,8 @@
       <c r="AX16" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="BC16">
-        <v>1</v>
+      <c r="BC16" s="17" t="s">
+        <v>205</v>
       </c>
       <c r="BD16" s="7" t="s">
         <v>89</v>
@@ -2511,7 +2523,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>106</v>
       </c>
@@ -2557,8 +2569,8 @@
       <c r="AX17" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="BC17">
-        <v>1</v>
+      <c r="BC17" s="17" t="s">
+        <v>205</v>
       </c>
       <c r="BD17" s="7" t="s">
         <v>89</v>
@@ -2576,7 +2588,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>107</v>
       </c>
@@ -2622,8 +2634,8 @@
       <c r="AX18" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="BC18">
-        <v>1</v>
+      <c r="BC18" s="17" t="s">
+        <v>205</v>
       </c>
       <c r="BD18" s="7" t="s">
         <v>89</v>
@@ -2641,7 +2653,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>108</v>
       </c>
@@ -2687,8 +2699,8 @@
       <c r="AX19" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="BC19">
-        <v>1</v>
+      <c r="BC19" s="17" t="s">
+        <v>205</v>
       </c>
       <c r="BD19" s="7" t="s">
         <v>89</v>
@@ -2706,7 +2718,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>109</v>
       </c>
@@ -2752,8 +2764,8 @@
       <c r="AX20" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="BC20">
-        <v>1</v>
+      <c r="BC20" s="17" t="s">
+        <v>205</v>
       </c>
       <c r="BD20" s="7" t="s">
         <v>89</v>
@@ -2771,7 +2783,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>110</v>
       </c>
@@ -2817,8 +2829,8 @@
       <c r="AX21" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="BC21">
-        <v>1</v>
+      <c r="BC21" s="17" t="s">
+        <v>205</v>
       </c>
       <c r="BD21" s="7" t="s">
         <v>89</v>
@@ -2836,7 +2848,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>111</v>
       </c>
@@ -2882,8 +2894,8 @@
       <c r="AX22" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="BC22">
-        <v>1</v>
+      <c r="BC22" s="17" t="s">
+        <v>205</v>
       </c>
       <c r="BD22" s="7" t="s">
         <v>89</v>
@@ -2901,7 +2913,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>112</v>
       </c>
@@ -2947,8 +2959,8 @@
       <c r="AX23" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="BC23">
-        <v>1</v>
+      <c r="BC23" s="17" t="s">
+        <v>205</v>
       </c>
       <c r="BD23" s="7" t="s">
         <v>89</v>
@@ -2966,7 +2978,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>113</v>
       </c>
@@ -3012,8 +3024,8 @@
       <c r="AX24" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="BC24">
-        <v>1</v>
+      <c r="BC24" s="17" t="s">
+        <v>205</v>
       </c>
       <c r="BD24" s="7" t="s">
         <v>89</v>
@@ -3031,7 +3043,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>114</v>
       </c>
@@ -3077,8 +3089,8 @@
       <c r="AX25" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="BC25">
-        <v>1</v>
+      <c r="BC25" s="17" t="s">
+        <v>205</v>
       </c>
       <c r="BD25" s="7" t="s">
         <v>89</v>
@@ -3096,7 +3108,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>115</v>
       </c>
@@ -3142,8 +3154,8 @@
       <c r="AX26" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="BC26">
-        <v>1</v>
+      <c r="BC26" s="17" t="s">
+        <v>205</v>
       </c>
       <c r="BD26" s="7" t="s">
         <v>89</v>
@@ -3161,7 +3173,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>116</v>
       </c>
@@ -3207,8 +3219,8 @@
       <c r="AX27" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="BC27">
-        <v>1</v>
+      <c r="BC27" s="17" t="s">
+        <v>205</v>
       </c>
       <c r="BD27" s="7" t="s">
         <v>89</v>
@@ -3226,7 +3238,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>117</v>
       </c>
@@ -3272,8 +3284,8 @@
       <c r="AX28" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="BC28">
-        <v>1</v>
+      <c r="BC28" s="17" t="s">
+        <v>205</v>
       </c>
       <c r="BD28" s="7" t="s">
         <v>89</v>
@@ -3291,7 +3303,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>118</v>
       </c>
@@ -3337,8 +3349,8 @@
       <c r="AX29" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="BC29">
-        <v>1</v>
+      <c r="BC29" s="17" t="s">
+        <v>205</v>
       </c>
       <c r="BD29" s="7" t="s">
         <v>89</v>
@@ -3356,7 +3368,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>119</v>
       </c>
@@ -3402,8 +3414,8 @@
       <c r="AX30" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="BC30">
-        <v>1</v>
+      <c r="BC30" s="17" t="s">
+        <v>205</v>
       </c>
       <c r="BD30" s="7" t="s">
         <v>89</v>
@@ -3421,7 +3433,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>120</v>
       </c>
@@ -3467,8 +3479,8 @@
       <c r="AX31" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="BC31">
-        <v>1</v>
+      <c r="BC31" s="17" t="s">
+        <v>205</v>
       </c>
       <c r="BD31" s="7" t="s">
         <v>89</v>
@@ -3486,7 +3498,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>121</v>
       </c>
@@ -3532,8 +3544,8 @@
       <c r="AX32" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="BC32">
-        <v>1</v>
+      <c r="BC32" s="17" t="s">
+        <v>205</v>
       </c>
       <c r="BD32" s="7" t="s">
         <v>89</v>
@@ -3551,7 +3563,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>122</v>
       </c>
@@ -3597,8 +3609,8 @@
       <c r="AX33" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="BC33">
-        <v>1</v>
+      <c r="BC33" s="17" t="s">
+        <v>205</v>
       </c>
       <c r="BD33" s="7" t="s">
         <v>89</v>
@@ -3616,7 +3628,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>123</v>
       </c>
@@ -3662,8 +3674,8 @@
       <c r="AX34" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="BC34">
-        <v>1</v>
+      <c r="BC34" s="17" t="s">
+        <v>205</v>
       </c>
       <c r="BD34" s="7" t="s">
         <v>89</v>
@@ -3681,7 +3693,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>124</v>
       </c>
@@ -3727,8 +3739,8 @@
       <c r="AX35" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="BC35">
-        <v>1</v>
+      <c r="BC35" s="17" t="s">
+        <v>205</v>
       </c>
       <c r="BD35" s="7" t="s">
         <v>89</v>
@@ -3746,7 +3758,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>125</v>
       </c>
@@ -3792,8 +3804,8 @@
       <c r="AX36" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="BC36">
-        <v>1</v>
+      <c r="BC36" s="17" t="s">
+        <v>205</v>
       </c>
       <c r="BD36" s="7" t="s">
         <v>89</v>
@@ -3811,7 +3823,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>126</v>
       </c>
@@ -3857,8 +3869,8 @@
       <c r="AX37" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="BC37">
-        <v>1</v>
+      <c r="BC37" s="17" t="s">
+        <v>205</v>
       </c>
       <c r="BD37" s="7" t="s">
         <v>89</v>
@@ -3876,7 +3888,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>127</v>
       </c>
@@ -3922,8 +3934,8 @@
       <c r="AX38" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="BC38">
-        <v>1</v>
+      <c r="BC38" s="17" t="s">
+        <v>205</v>
       </c>
       <c r="BD38" s="7" t="s">
         <v>89</v>
@@ -3941,7 +3953,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>128</v>
       </c>
@@ -3987,8 +3999,8 @@
       <c r="AX39" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="BC39">
-        <v>1</v>
+      <c r="BC39" s="17" t="s">
+        <v>205</v>
       </c>
       <c r="BD39" s="7" t="s">
         <v>89</v>
@@ -4006,7 +4018,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>129</v>
       </c>
@@ -4052,8 +4064,8 @@
       <c r="AX40" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="BC40">
-        <v>1</v>
+      <c r="BC40" s="17" t="s">
+        <v>205</v>
       </c>
       <c r="BD40" s="7" t="s">
         <v>89</v>
@@ -4071,7 +4083,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>130</v>
       </c>
@@ -4117,8 +4129,8 @@
       <c r="AX41" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="BC41">
-        <v>1</v>
+      <c r="BC41" s="17" t="s">
+        <v>205</v>
       </c>
       <c r="BD41" s="7" t="s">
         <v>89</v>
@@ -4136,7 +4148,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>131</v>
       </c>
@@ -4182,8 +4194,8 @@
       <c r="AX42" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="BC42">
-        <v>1</v>
+      <c r="BC42" s="17" t="s">
+        <v>205</v>
       </c>
       <c r="BD42" s="7" t="s">
         <v>89</v>
@@ -4201,7 +4213,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>133</v>
       </c>
@@ -4247,8 +4259,8 @@
       <c r="AX43" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="BC43">
-        <v>1</v>
+      <c r="BC43" s="17" t="s">
+        <v>205</v>
       </c>
       <c r="BD43" s="7" t="s">
         <v>89</v>
@@ -4266,7 +4278,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>134</v>
       </c>
@@ -4312,8 +4324,8 @@
       <c r="AX44" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="BC44">
-        <v>1</v>
+      <c r="BC44" s="17" t="s">
+        <v>205</v>
       </c>
       <c r="BD44" s="7" t="s">
         <v>89</v>
@@ -4331,7 +4343,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>135</v>
       </c>
@@ -4377,8 +4389,8 @@
       <c r="AX45" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="BC45">
-        <v>1</v>
+      <c r="BC45" s="17" t="s">
+        <v>205</v>
       </c>
       <c r="BD45" s="7" t="s">
         <v>89</v>
@@ -4396,7 +4408,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>136</v>
       </c>
@@ -4442,8 +4454,8 @@
       <c r="AX46" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="BC46">
-        <v>1</v>
+      <c r="BC46" s="17" t="s">
+        <v>205</v>
       </c>
       <c r="BD46" s="7" t="s">
         <v>89</v>
@@ -4461,7 +4473,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>137</v>
       </c>
@@ -4507,8 +4519,8 @@
       <c r="AX47" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="BC47">
-        <v>1</v>
+      <c r="BC47" s="17" t="s">
+        <v>205</v>
       </c>
       <c r="BD47" s="7" t="s">
         <v>89</v>
@@ -4526,7 +4538,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>138</v>
       </c>
@@ -4572,8 +4584,8 @@
       <c r="AX48" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="BC48">
-        <v>1</v>
+      <c r="BC48" s="17" t="s">
+        <v>205</v>
       </c>
       <c r="BD48" s="7" t="s">
         <v>89</v>
@@ -4591,7 +4603,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>139</v>
       </c>
@@ -4637,8 +4649,8 @@
       <c r="AX49" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="BC49">
-        <v>1</v>
+      <c r="BC49" s="17" t="s">
+        <v>205</v>
       </c>
       <c r="BD49" s="7" t="s">
         <v>89</v>
@@ -4656,7 +4668,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>140</v>
       </c>
@@ -4702,8 +4714,8 @@
       <c r="AX50" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="BC50">
-        <v>1</v>
+      <c r="BC50" s="17" t="s">
+        <v>205</v>
       </c>
       <c r="BD50" s="7" t="s">
         <v>89</v>
@@ -4721,7 +4733,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>141</v>
       </c>
@@ -4767,8 +4779,8 @@
       <c r="AX51" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="BC51">
-        <v>1</v>
+      <c r="BC51" s="17" t="s">
+        <v>205</v>
       </c>
       <c r="BD51" s="7" t="s">
         <v>89</v>
@@ -4786,7 +4798,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>142</v>
       </c>
@@ -4832,8 +4844,8 @@
       <c r="AX52" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="BC52">
-        <v>1</v>
+      <c r="BC52" s="17" t="s">
+        <v>205</v>
       </c>
       <c r="BD52" s="7" t="s">
         <v>89</v>
@@ -4851,7 +4863,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>132</v>
       </c>
@@ -4897,8 +4909,8 @@
       <c r="AX53" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="BC53">
-        <v>1</v>
+      <c r="BC53" s="17" t="s">
+        <v>205</v>
       </c>
       <c r="BD53" s="7" t="s">
         <v>89</v>
@@ -4916,7 +4928,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>143</v>
       </c>
@@ -4962,8 +4974,8 @@
       <c r="AX54" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="BC54">
-        <v>1</v>
+      <c r="BC54" s="17" t="s">
+        <v>205</v>
       </c>
       <c r="BD54" s="7" t="s">
         <v>89</v>
@@ -4981,7 +4993,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>144</v>
       </c>
@@ -5027,8 +5039,8 @@
       <c r="AX55" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="BC55">
-        <v>1</v>
+      <c r="BC55" s="17" t="s">
+        <v>205</v>
       </c>
       <c r="BD55" s="7" t="s">
         <v>89</v>
@@ -5046,7 +5058,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>145</v>
       </c>
@@ -5092,8 +5104,8 @@
       <c r="AX56" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="BC56">
-        <v>1</v>
+      <c r="BC56" s="17" t="s">
+        <v>205</v>
       </c>
       <c r="BD56" s="7" t="s">
         <v>89</v>

--- a/src/cloud/backend/apollo.cloud/Graph.Apollo.Cloud.Assessment/Data/Digitale_Kompetenzen.xlsx
+++ b/src/cloud/backend/apollo.cloud/Graph.Apollo.Cloud.Assessment/Data/Digitale_Kompetenzen.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PatricBoscolo\source\gh\APOLLO\src\cloud\backend\apollo.cloud\Graph.Apollo.Cloud.Assessment\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IvanaBoscolo\source\repos\APOLLO\src\cloud\backend\apollo.cloud\Graph.Apollo.Cloud.Assessment\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D68EEDF-B3E4-4F62-9A5A-12AF2F1C4420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82885B51-D80C-40AE-8D29-9ECF4C53DB37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4392" yWindow="3132" windowWidth="40428" windowHeight="22476" xr2:uid="{964963E8-EE09-4957-A004-AE51DD5268F6}"/>
+    <workbookView xWindow="22920" yWindow="9885" windowWidth="23820" windowHeight="19830" xr2:uid="{964963E8-EE09-4957-A004-AE51DD5268F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Booklet_FK Lagerlogistik" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="207">
   <si>
     <t>ItemID</t>
   </si>
@@ -655,6 +655,9 @@
   </si>
   <si>
     <t>SOFTSKILL</t>
+  </si>
+  <si>
+    <t>UseCaseId</t>
   </si>
 </sst>
 </file>
@@ -936,9 +939,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{96A82516-1A7E-498A-AF83-1E1CB83B81EF}" name="Tabelle5" displayName="Tabelle5" ref="A1:BO56" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1">
-  <autoFilter ref="A1:BO56" xr:uid="{96A82516-1A7E-498A-AF83-1E1CB83B81EF}"/>
-  <tableColumns count="67">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{96A82516-1A7E-498A-AF83-1E1CB83B81EF}" name="Tabelle5" displayName="Tabelle5" ref="A1:BP56" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1">
+  <autoFilter ref="A1:BP56" xr:uid="{96A82516-1A7E-498A-AF83-1E1CB83B81EF}"/>
+  <tableColumns count="68">
     <tableColumn id="1" xr3:uid="{5027A3BA-AE24-48AB-84F1-2B75CE07B771}" name="ItemID"/>
     <tableColumn id="67" xr3:uid="{CBBAA5D6-4174-439A-84DE-FDF2F323CBA9}" name="ReliantOn"/>
     <tableColumn id="3" xr3:uid="{F25AA728-9937-4EC2-9415-03B9BFCFFD36}" name="ItemTyp"/>
@@ -1006,6 +1009,7 @@
     <tableColumn id="45" xr3:uid="{75FC8F54-CC63-4DA4-889F-ACD788549AEC}" name="QuestionHasPicture"/>
     <tableColumn id="46" xr3:uid="{1C807CB8-6254-47D5-AE14-42097F7410E0}" name="AnswerHasPicture"/>
     <tableColumn id="51" xr3:uid="{C8723145-CFAE-43B6-A144-0DC21813B4CD}" name="AmountAnswers" dataDxfId="0"/>
+    <tableColumn id="52" xr3:uid="{E075B1C9-0D96-4C0B-BEE5-C7914FDEEB6C}" name="UseCaseId"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1308,21 +1312,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C4694E0-AE11-4213-9084-7EF5B5E33E57}">
-  <dimension ref="A1:BO56"/>
+  <dimension ref="A1:BP56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AM1" workbookViewId="0">
-      <selection activeCell="BD60" sqref="BD60"/>
+    <sheetView tabSelected="1" topLeftCell="AZ1" workbookViewId="0">
+      <selection activeCell="BP1" sqref="BP1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="114.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.44140625" customWidth="1"/>
-    <col min="46" max="46" width="38.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="114.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.42578125" customWidth="1"/>
+    <col min="46" max="46" width="38.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:67" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:68" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1524,8 +1528,11 @@
       <c r="BO1" s="2" t="s">
         <v>66</v>
       </c>
+      <c r="BP1" s="2" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="2" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:68" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>67</v>
       </c>
@@ -1600,8 +1607,11 @@
       <c r="BO2">
         <v>6</v>
       </c>
+      <c r="BP2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:68" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>78</v>
       </c>
@@ -1667,8 +1677,11 @@
       <c r="BO3">
         <v>6</v>
       </c>
+      <c r="BP3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:68" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>79</v>
       </c>
@@ -1734,8 +1747,11 @@
       <c r="BO4">
         <v>6</v>
       </c>
+      <c r="BP4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:68" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>80</v>
       </c>
@@ -1801,8 +1817,11 @@
       <c r="BO5">
         <v>6</v>
       </c>
+      <c r="BP5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:68" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>81</v>
       </c>
@@ -1868,8 +1887,11 @@
       <c r="BO6">
         <v>6</v>
       </c>
+      <c r="BP6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:68" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>82</v>
       </c>
@@ -1935,8 +1957,11 @@
       <c r="BO7">
         <v>6</v>
       </c>
+      <c r="BP7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:68" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>83</v>
       </c>
@@ -2002,8 +2027,11 @@
       <c r="BO8">
         <v>6</v>
       </c>
+      <c r="BP8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:68" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>91</v>
       </c>
@@ -2067,8 +2095,11 @@
       <c r="BO9">
         <v>6</v>
       </c>
+      <c r="BP9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:68" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>98</v>
       </c>
@@ -2132,8 +2163,11 @@
       <c r="BO10">
         <v>6</v>
       </c>
+      <c r="BP10">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:68" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>99</v>
       </c>
@@ -2197,8 +2231,11 @@
       <c r="BO11">
         <v>6</v>
       </c>
+      <c r="BP11">
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:68" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>100</v>
       </c>
@@ -2262,8 +2299,11 @@
       <c r="BO12">
         <v>6</v>
       </c>
+      <c r="BP12">
+        <v>1</v>
+      </c>
     </row>
-    <row r="13" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:68" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>101</v>
       </c>
@@ -2327,8 +2367,11 @@
       <c r="BO13">
         <v>6</v>
       </c>
+      <c r="BP13">
+        <v>1</v>
+      </c>
     </row>
-    <row r="14" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:68" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>102</v>
       </c>
@@ -2392,8 +2435,11 @@
       <c r="BO14">
         <v>6</v>
       </c>
+      <c r="BP14">
+        <v>1</v>
+      </c>
     </row>
-    <row r="15" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:68" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>104</v>
       </c>
@@ -2457,8 +2503,11 @@
       <c r="BO15">
         <v>6</v>
       </c>
+      <c r="BP15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="16" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:68" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>105</v>
       </c>
@@ -2522,8 +2571,11 @@
       <c r="BO16">
         <v>6</v>
       </c>
+      <c r="BP16">
+        <v>1</v>
+      </c>
     </row>
-    <row r="17" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:68" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>106</v>
       </c>
@@ -2587,8 +2639,11 @@
       <c r="BO17">
         <v>6</v>
       </c>
+      <c r="BP17">
+        <v>1</v>
+      </c>
     </row>
-    <row r="18" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:68" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>107</v>
       </c>
@@ -2652,8 +2707,11 @@
       <c r="BO18">
         <v>6</v>
       </c>
+      <c r="BP18">
+        <v>1</v>
+      </c>
     </row>
-    <row r="19" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:68" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>108</v>
       </c>
@@ -2717,8 +2775,11 @@
       <c r="BO19">
         <v>6</v>
       </c>
+      <c r="BP19">
+        <v>1</v>
+      </c>
     </row>
-    <row r="20" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:68" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>109</v>
       </c>
@@ -2782,8 +2843,11 @@
       <c r="BO20">
         <v>6</v>
       </c>
+      <c r="BP20">
+        <v>1</v>
+      </c>
     </row>
-    <row r="21" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:68" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>110</v>
       </c>
@@ -2847,8 +2911,11 @@
       <c r="BO21">
         <v>6</v>
       </c>
+      <c r="BP21">
+        <v>1</v>
+      </c>
     </row>
-    <row r="22" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:68" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>111</v>
       </c>
@@ -2912,8 +2979,11 @@
       <c r="BO22">
         <v>6</v>
       </c>
+      <c r="BP22">
+        <v>1</v>
+      </c>
     </row>
-    <row r="23" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:68" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>112</v>
       </c>
@@ -2977,8 +3047,11 @@
       <c r="BO23">
         <v>6</v>
       </c>
+      <c r="BP23">
+        <v>1</v>
+      </c>
     </row>
-    <row r="24" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:68" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>113</v>
       </c>
@@ -3042,8 +3115,11 @@
       <c r="BO24">
         <v>6</v>
       </c>
+      <c r="BP24">
+        <v>1</v>
+      </c>
     </row>
-    <row r="25" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:68" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>114</v>
       </c>
@@ -3107,8 +3183,11 @@
       <c r="BO25">
         <v>6</v>
       </c>
+      <c r="BP25">
+        <v>1</v>
+      </c>
     </row>
-    <row r="26" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:68" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>115</v>
       </c>
@@ -3172,8 +3251,11 @@
       <c r="BO26">
         <v>6</v>
       </c>
+      <c r="BP26">
+        <v>1</v>
+      </c>
     </row>
-    <row r="27" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:68" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>116</v>
       </c>
@@ -3237,8 +3319,11 @@
       <c r="BO27">
         <v>6</v>
       </c>
+      <c r="BP27">
+        <v>1</v>
+      </c>
     </row>
-    <row r="28" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:68" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>117</v>
       </c>
@@ -3302,8 +3387,11 @@
       <c r="BO28">
         <v>6</v>
       </c>
+      <c r="BP28">
+        <v>1</v>
+      </c>
     </row>
-    <row r="29" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:68" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>118</v>
       </c>
@@ -3367,8 +3455,11 @@
       <c r="BO29">
         <v>6</v>
       </c>
+      <c r="BP29">
+        <v>1</v>
+      </c>
     </row>
-    <row r="30" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:68" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>119</v>
       </c>
@@ -3432,8 +3523,11 @@
       <c r="BO30">
         <v>6</v>
       </c>
+      <c r="BP30">
+        <v>1</v>
+      </c>
     </row>
-    <row r="31" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:68" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>120</v>
       </c>
@@ -3497,8 +3591,11 @@
       <c r="BO31">
         <v>6</v>
       </c>
+      <c r="BP31">
+        <v>1</v>
+      </c>
     </row>
-    <row r="32" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:68" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>121</v>
       </c>
@@ -3562,8 +3659,11 @@
       <c r="BO32">
         <v>6</v>
       </c>
+      <c r="BP32">
+        <v>1</v>
+      </c>
     </row>
-    <row r="33" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:68" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>122</v>
       </c>
@@ -3627,8 +3727,11 @@
       <c r="BO33">
         <v>6</v>
       </c>
+      <c r="BP33">
+        <v>1</v>
+      </c>
     </row>
-    <row r="34" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:68" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>123</v>
       </c>
@@ -3692,8 +3795,11 @@
       <c r="BO34">
         <v>6</v>
       </c>
+      <c r="BP34">
+        <v>1</v>
+      </c>
     </row>
-    <row r="35" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:68" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>124</v>
       </c>
@@ -3757,8 +3863,11 @@
       <c r="BO35">
         <v>6</v>
       </c>
+      <c r="BP35">
+        <v>1</v>
+      </c>
     </row>
-    <row r="36" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:68" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>125</v>
       </c>
@@ -3822,8 +3931,11 @@
       <c r="BO36">
         <v>6</v>
       </c>
+      <c r="BP36">
+        <v>1</v>
+      </c>
     </row>
-    <row r="37" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:68" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>126</v>
       </c>
@@ -3887,8 +3999,11 @@
       <c r="BO37">
         <v>6</v>
       </c>
+      <c r="BP37">
+        <v>1</v>
+      </c>
     </row>
-    <row r="38" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:68" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>127</v>
       </c>
@@ -3952,8 +4067,11 @@
       <c r="BO38">
         <v>6</v>
       </c>
+      <c r="BP38">
+        <v>1</v>
+      </c>
     </row>
-    <row r="39" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:68" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>128</v>
       </c>
@@ -4017,8 +4135,11 @@
       <c r="BO39">
         <v>6</v>
       </c>
+      <c r="BP39">
+        <v>1</v>
+      </c>
     </row>
-    <row r="40" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:68" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>129</v>
       </c>
@@ -4082,8 +4203,11 @@
       <c r="BO40">
         <v>6</v>
       </c>
+      <c r="BP40">
+        <v>1</v>
+      </c>
     </row>
-    <row r="41" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:68" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>130</v>
       </c>
@@ -4147,8 +4271,11 @@
       <c r="BO41">
         <v>6</v>
       </c>
+      <c r="BP41">
+        <v>1</v>
+      </c>
     </row>
-    <row r="42" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:68" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>131</v>
       </c>
@@ -4212,8 +4339,11 @@
       <c r="BO42">
         <v>6</v>
       </c>
+      <c r="BP42">
+        <v>1</v>
+      </c>
     </row>
-    <row r="43" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:68" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>133</v>
       </c>
@@ -4277,8 +4407,11 @@
       <c r="BO43">
         <v>6</v>
       </c>
+      <c r="BP43">
+        <v>1</v>
+      </c>
     </row>
-    <row r="44" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:68" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>134</v>
       </c>
@@ -4342,8 +4475,11 @@
       <c r="BO44">
         <v>6</v>
       </c>
+      <c r="BP44">
+        <v>1</v>
+      </c>
     </row>
-    <row r="45" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:68" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>135</v>
       </c>
@@ -4407,8 +4543,11 @@
       <c r="BO45">
         <v>6</v>
       </c>
+      <c r="BP45">
+        <v>1</v>
+      </c>
     </row>
-    <row r="46" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:68" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>136</v>
       </c>
@@ -4472,8 +4611,11 @@
       <c r="BO46">
         <v>6</v>
       </c>
+      <c r="BP46">
+        <v>1</v>
+      </c>
     </row>
-    <row r="47" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:68" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>137</v>
       </c>
@@ -4537,8 +4679,11 @@
       <c r="BO47">
         <v>6</v>
       </c>
+      <c r="BP47">
+        <v>1</v>
+      </c>
     </row>
-    <row r="48" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:68" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>138</v>
       </c>
@@ -4602,8 +4747,11 @@
       <c r="BO48">
         <v>6</v>
       </c>
+      <c r="BP48">
+        <v>1</v>
+      </c>
     </row>
-    <row r="49" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:68" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>139</v>
       </c>
@@ -4667,8 +4815,11 @@
       <c r="BO49">
         <v>6</v>
       </c>
+      <c r="BP49">
+        <v>1</v>
+      </c>
     </row>
-    <row r="50" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:68" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>140</v>
       </c>
@@ -4732,8 +4883,11 @@
       <c r="BO50">
         <v>6</v>
       </c>
+      <c r="BP50">
+        <v>1</v>
+      </c>
     </row>
-    <row r="51" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:68" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>141</v>
       </c>
@@ -4797,8 +4951,11 @@
       <c r="BO51">
         <v>6</v>
       </c>
+      <c r="BP51">
+        <v>1</v>
+      </c>
     </row>
-    <row r="52" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:68" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>142</v>
       </c>
@@ -4862,8 +5019,11 @@
       <c r="BO52">
         <v>6</v>
       </c>
+      <c r="BP52">
+        <v>1</v>
+      </c>
     </row>
-    <row r="53" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:68" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>132</v>
       </c>
@@ -4927,8 +5087,11 @@
       <c r="BO53">
         <v>6</v>
       </c>
+      <c r="BP53">
+        <v>1</v>
+      </c>
     </row>
-    <row r="54" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:68" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>143</v>
       </c>
@@ -4992,8 +5155,11 @@
       <c r="BO54">
         <v>6</v>
       </c>
+      <c r="BP54">
+        <v>1</v>
+      </c>
     </row>
-    <row r="55" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:68" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>144</v>
       </c>
@@ -5057,8 +5223,11 @@
       <c r="BO55">
         <v>6</v>
       </c>
+      <c r="BP55">
+        <v>1</v>
+      </c>
     </row>
-    <row r="56" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:68" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>145</v>
       </c>
@@ -5121,6 +5290,9 @@
       </c>
       <c r="BO56">
         <v>6</v>
+      </c>
+      <c r="BP56">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5191,26 +5363,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="c90f9e10-81f0-426e-b8bb-fc89022b3796" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="02625a54-df84-4a3b-b049-0bb7e92cde0d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100879B58D3C23DCA4AAEF47596CA4D8E48" ma:contentTypeVersion="13" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="ee8b9d8723b80ccc4cb578ffd4faacc7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="02625a54-df84-4a3b-b049-0bb7e92cde0d" xmlns:ns3="c90f9e10-81f0-426e-b8bb-fc89022b3796" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="64b8ed4db9a6e136c161da669116b9cc" ns2:_="" ns3:_="">
     <xsd:import namespace="02625a54-df84-4a3b-b049-0bb7e92cde0d"/>
@@ -5419,32 +5571,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C63F3413-8325-4072-95D6-266A70C668BD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3B3ABF6-4080-46CB-8A76-0A61A3F40BD1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="02625a54-df84-4a3b-b049-0bb7e92cde0d"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="c90f9e10-81f0-426e-b8bb-fc89022b3796"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="c90f9e10-81f0-426e-b8bb-fc89022b3796" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="02625a54-df84-4a3b-b049-0bb7e92cde0d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A223085B-57B4-40DB-BC96-92703C914FDC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5461,4 +5608,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C63F3413-8325-4072-95D6-266A70C668BD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3B3ABF6-4080-46CB-8A76-0A61A3F40BD1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="02625a54-df84-4a3b-b049-0bb7e92cde0d"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="c90f9e10-81f0-426e-b8bb-fc89022b3796"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/src/cloud/backend/apollo.cloud/Graph.Apollo.Cloud.Assessment/Data/Digitale_Kompetenzen.xlsx
+++ b/src/cloud/backend/apollo.cloud/Graph.Apollo.Cloud.Assessment/Data/Digitale_Kompetenzen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IvanaBoscolo\source\repos\APOLLO\src\cloud\backend\apollo.cloud\Graph.Apollo.Cloud.Assessment\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDDA2C19-5369-470B-85FC-BC0ECDAA2441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6867C87C-8B24-448E-9F08-C5463FF33A1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="31920" xr2:uid="{964963E8-EE09-4957-A004-AE51DD5268F6}"/>
+    <workbookView xWindow="9300" yWindow="1875" windowWidth="23820" windowHeight="19830" xr2:uid="{964963E8-EE09-4957-A004-AE51DD5268F6}"/>
   </bookViews>
   <sheets>
     <sheet name="SOK Digitale Kompetenzen M5" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1739" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1955" uniqueCount="268">
   <si>
     <t>ItemID</t>
   </si>
@@ -492,9 +492,6 @@
     <t>UseCaseId</t>
   </si>
   <si>
-    <t>APOLLO APP</t>
-  </si>
-  <si>
     <t>SOU1DKM5A01</t>
   </si>
   <si>
@@ -841,6 +838,9 @@
   </si>
   <si>
     <t>Selbsttest – Soziale &amp; Kommunikative Kompetenzen</t>
+  </si>
+  <si>
+    <t>Apollo App</t>
   </si>
 </sst>
 </file>
@@ -937,7 +937,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -953,6 +953,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1005,7 +1011,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1050,7 +1056,16 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1498,8 +1513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C4694E0-AE11-4213-9084-7EF5B5E33E57}">
   <dimension ref="A1:BP112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D108" sqref="D108"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="BH3" sqref="BH3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" customHeight="1"/>
@@ -1508,6 +1523,8 @@
     <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="21.42578125" customWidth="1"/>
     <col min="46" max="46" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="63.28515625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:68" ht="12.75" customHeight="1" thickBot="1">
@@ -1716,88 +1733,88 @@
         <v>150</v>
       </c>
     </row>
-    <row r="2" spans="1:68" ht="12.75" customHeight="1">
-      <c r="A2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2" t="s">
+    <row r="2" spans="1:68" s="18" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A2" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="E2" t="s">
-        <v>77</v>
-      </c>
-      <c r="J2" t="s">
-        <v>147</v>
-      </c>
-      <c r="L2">
-        <v>6</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="T2" t="s">
-        <v>79</v>
-      </c>
-      <c r="U2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AK2">
-        <v>1</v>
-      </c>
-      <c r="AR2" t="s">
+      <c r="E2" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="L2" s="18">
+        <v>6</v>
+      </c>
+      <c r="N2" s="18">
+        <v>1</v>
+      </c>
+      <c r="O2" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="T2" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="U2" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK2" s="18">
+        <v>1</v>
+      </c>
+      <c r="AR2" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AT2" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="AW2" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="AX2" s="5" t="s">
+      <c r="AX2" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="BC2" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="BD2" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BF2">
+      <c r="BC2" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="BD2" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="BE2" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="BF2" s="18">
         <v>20</v>
       </c>
-      <c r="BI2" t="s">
-        <v>151</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>148</v>
-      </c>
-      <c r="BM2">
-        <v>0</v>
-      </c>
-      <c r="BN2">
-        <v>0</v>
-      </c>
-      <c r="BO2">
-        <v>6</v>
-      </c>
-      <c r="BP2">
+      <c r="BI2" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="BJ2" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="BM2" s="18">
+        <v>0</v>
+      </c>
+      <c r="BN2" s="18">
+        <v>0</v>
+      </c>
+      <c r="BO2" s="18">
+        <v>6</v>
+      </c>
+      <c r="BP2" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:68" ht="12.75" customHeight="1">
       <c r="A3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C3" t="s">
         <v>67</v>
@@ -1852,6 +1869,12 @@
       <c r="BE3" t="s">
         <v>83</v>
       </c>
+      <c r="BI3" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="BJ3" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="BM3">
         <v>0</v>
       </c>
@@ -1867,7 +1890,7 @@
     </row>
     <row r="4" spans="1:68" ht="12.75" customHeight="1">
       <c r="A4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C4" t="s">
         <v>67</v>
@@ -1922,6 +1945,12 @@
       <c r="BE4" t="s">
         <v>83</v>
       </c>
+      <c r="BI4" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="BJ4" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="BM4">
         <v>0</v>
       </c>
@@ -1937,7 +1966,7 @@
     </row>
     <row r="5" spans="1:68" ht="12.75" customHeight="1">
       <c r="A5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C5" t="s">
         <v>67</v>
@@ -1992,6 +2021,12 @@
       <c r="BE5" t="s">
         <v>83</v>
       </c>
+      <c r="BI5" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="BJ5" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="BM5">
         <v>0</v>
       </c>
@@ -2007,7 +2042,7 @@
     </row>
     <row r="6" spans="1:68" ht="12.75" customHeight="1">
       <c r="A6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C6" t="s">
         <v>67</v>
@@ -2062,6 +2097,12 @@
       <c r="BE6" t="s">
         <v>83</v>
       </c>
+      <c r="BI6" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="BJ6" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="BM6">
         <v>0</v>
       </c>
@@ -2077,7 +2118,7 @@
     </row>
     <row r="7" spans="1:68" ht="12.75" customHeight="1">
       <c r="A7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C7" t="s">
         <v>67</v>
@@ -2132,6 +2173,12 @@
       <c r="BE7" t="s">
         <v>83</v>
       </c>
+      <c r="BI7" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="BJ7" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="BM7">
         <v>0</v>
       </c>
@@ -2147,7 +2194,7 @@
     </row>
     <row r="8" spans="1:68" ht="12.75" customHeight="1">
       <c r="A8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C8" t="s">
         <v>67</v>
@@ -2202,6 +2249,12 @@
       <c r="BE8" t="s">
         <v>83</v>
       </c>
+      <c r="BI8" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="BJ8" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="BM8">
         <v>0</v>
       </c>
@@ -2217,7 +2270,7 @@
     </row>
     <row r="9" spans="1:68" ht="12.75" customHeight="1">
       <c r="A9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C9" t="s">
         <v>67</v>
@@ -2270,6 +2323,12 @@
       <c r="BE9" t="s">
         <v>83</v>
       </c>
+      <c r="BI9" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="BJ9" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="BM9">
         <v>0</v>
       </c>
@@ -2285,7 +2344,7 @@
     </row>
     <row r="10" spans="1:68" ht="12.75" customHeight="1">
       <c r="A10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C10" t="s">
         <v>67</v>
@@ -2338,6 +2397,12 @@
       <c r="BE10" t="s">
         <v>83</v>
       </c>
+      <c r="BI10" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="BJ10" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="BM10">
         <v>0</v>
       </c>
@@ -2353,7 +2418,7 @@
     </row>
     <row r="11" spans="1:68" ht="12.75" customHeight="1">
       <c r="A11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C11" t="s">
         <v>67</v>
@@ -2406,6 +2471,12 @@
       <c r="BE11" t="s">
         <v>83</v>
       </c>
+      <c r="BI11" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="BJ11" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="BM11">
         <v>0</v>
       </c>
@@ -2421,7 +2492,7 @@
     </row>
     <row r="12" spans="1:68" ht="12.75" customHeight="1">
       <c r="A12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C12" t="s">
         <v>67</v>
@@ -2474,6 +2545,12 @@
       <c r="BE12" t="s">
         <v>83</v>
       </c>
+      <c r="BI12" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="BJ12" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="BM12">
         <v>0</v>
       </c>
@@ -2489,7 +2566,7 @@
     </row>
     <row r="13" spans="1:68" ht="12.75" customHeight="1">
       <c r="A13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C13" t="s">
         <v>67</v>
@@ -2542,6 +2619,12 @@
       <c r="BE13" t="s">
         <v>83</v>
       </c>
+      <c r="BI13" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="BJ13" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="BM13">
         <v>0</v>
       </c>
@@ -2557,7 +2640,7 @@
     </row>
     <row r="14" spans="1:68" ht="12.75" customHeight="1">
       <c r="A14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C14" t="s">
         <v>67</v>
@@ -2610,6 +2693,12 @@
       <c r="BE14" t="s">
         <v>83</v>
       </c>
+      <c r="BI14" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="BJ14" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="BM14">
         <v>0</v>
       </c>
@@ -2625,7 +2714,7 @@
     </row>
     <row r="15" spans="1:68" ht="12.75" customHeight="1">
       <c r="A15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C15" t="s">
         <v>67</v>
@@ -2678,6 +2767,12 @@
       <c r="BE15" t="s">
         <v>83</v>
       </c>
+      <c r="BI15" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="BJ15" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="BM15">
         <v>0</v>
       </c>
@@ -2693,7 +2788,7 @@
     </row>
     <row r="16" spans="1:68" ht="12.75" customHeight="1">
       <c r="A16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C16" t="s">
         <v>67</v>
@@ -2746,6 +2841,12 @@
       <c r="BE16" t="s">
         <v>83</v>
       </c>
+      <c r="BI16" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="BJ16" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="BM16">
         <v>0</v>
       </c>
@@ -2761,7 +2862,7 @@
     </row>
     <row r="17" spans="1:68" ht="12.75" customHeight="1">
       <c r="A17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C17" t="s">
         <v>67</v>
@@ -2814,6 +2915,12 @@
       <c r="BE17" t="s">
         <v>83</v>
       </c>
+      <c r="BI17" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="BJ17" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="BM17">
         <v>0</v>
       </c>
@@ -2829,7 +2936,7 @@
     </row>
     <row r="18" spans="1:68" ht="12.75" customHeight="1">
       <c r="A18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C18" t="s">
         <v>67</v>
@@ -2882,6 +2989,12 @@
       <c r="BE18" t="s">
         <v>83</v>
       </c>
+      <c r="BI18" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="BJ18" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="BM18">
         <v>0</v>
       </c>
@@ -2897,7 +3010,7 @@
     </row>
     <row r="19" spans="1:68" ht="12.75" customHeight="1">
       <c r="A19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C19" t="s">
         <v>67</v>
@@ -2950,6 +3063,12 @@
       <c r="BE19" t="s">
         <v>83</v>
       </c>
+      <c r="BI19" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="BJ19" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="BM19">
         <v>0</v>
       </c>
@@ -2965,7 +3084,7 @@
     </row>
     <row r="20" spans="1:68" ht="12.75" customHeight="1">
       <c r="A20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C20" t="s">
         <v>67</v>
@@ -3018,6 +3137,12 @@
       <c r="BE20" t="s">
         <v>83</v>
       </c>
+      <c r="BI20" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="BJ20" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="BM20">
         <v>0</v>
       </c>
@@ -3033,7 +3158,7 @@
     </row>
     <row r="21" spans="1:68" ht="12.75" customHeight="1">
       <c r="A21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C21" t="s">
         <v>67</v>
@@ -3086,6 +3211,12 @@
       <c r="BE21" t="s">
         <v>83</v>
       </c>
+      <c r="BI21" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="BJ21" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="BM21">
         <v>0</v>
       </c>
@@ -3101,7 +3232,7 @@
     </row>
     <row r="22" spans="1:68" ht="12.75" customHeight="1">
       <c r="A22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C22" t="s">
         <v>67</v>
@@ -3154,6 +3285,12 @@
       <c r="BE22" t="s">
         <v>83</v>
       </c>
+      <c r="BI22" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="BJ22" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="BM22">
         <v>0</v>
       </c>
@@ -3169,7 +3306,7 @@
     </row>
     <row r="23" spans="1:68" ht="12.75" customHeight="1">
       <c r="A23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C23" t="s">
         <v>67</v>
@@ -3222,6 +3359,12 @@
       <c r="BE23" t="s">
         <v>83</v>
       </c>
+      <c r="BI23" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="BJ23" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="BM23">
         <v>0</v>
       </c>
@@ -3237,7 +3380,7 @@
     </row>
     <row r="24" spans="1:68" ht="12.75" customHeight="1">
       <c r="A24" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C24" t="s">
         <v>67</v>
@@ -3290,6 +3433,12 @@
       <c r="BE24" t="s">
         <v>83</v>
       </c>
+      <c r="BI24" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="BJ24" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="BM24">
         <v>0</v>
       </c>
@@ -3305,7 +3454,7 @@
     </row>
     <row r="25" spans="1:68" ht="12.75" customHeight="1">
       <c r="A25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C25" t="s">
         <v>67</v>
@@ -3358,6 +3507,12 @@
       <c r="BE25" t="s">
         <v>83</v>
       </c>
+      <c r="BI25" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="BJ25" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="BM25">
         <v>0</v>
       </c>
@@ -3373,7 +3528,7 @@
     </row>
     <row r="26" spans="1:68" ht="12.75" customHeight="1">
       <c r="A26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C26" t="s">
         <v>67</v>
@@ -3426,6 +3581,12 @@
       <c r="BE26" t="s">
         <v>83</v>
       </c>
+      <c r="BI26" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="BJ26" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="BM26">
         <v>0</v>
       </c>
@@ -3441,7 +3602,7 @@
     </row>
     <row r="27" spans="1:68" ht="12.75" customHeight="1">
       <c r="A27" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C27" t="s">
         <v>67</v>
@@ -3494,6 +3655,12 @@
       <c r="BE27" t="s">
         <v>83</v>
       </c>
+      <c r="BI27" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="BJ27" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="BM27">
         <v>0</v>
       </c>
@@ -3509,7 +3676,7 @@
     </row>
     <row r="28" spans="1:68" ht="12.75" customHeight="1">
       <c r="A28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C28" t="s">
         <v>67</v>
@@ -3562,6 +3729,12 @@
       <c r="BE28" t="s">
         <v>83</v>
       </c>
+      <c r="BI28" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="BJ28" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="BM28">
         <v>0</v>
       </c>
@@ -3577,7 +3750,7 @@
     </row>
     <row r="29" spans="1:68" ht="12.75" customHeight="1">
       <c r="A29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C29" t="s">
         <v>67</v>
@@ -3630,6 +3803,12 @@
       <c r="BE29" t="s">
         <v>83</v>
       </c>
+      <c r="BI29" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="BJ29" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="BM29">
         <v>0</v>
       </c>
@@ -3645,7 +3824,7 @@
     </row>
     <row r="30" spans="1:68" ht="12.75" customHeight="1">
       <c r="A30" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C30" t="s">
         <v>67</v>
@@ -3698,6 +3877,12 @@
       <c r="BE30" t="s">
         <v>83</v>
       </c>
+      <c r="BI30" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="BJ30" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="BM30">
         <v>0</v>
       </c>
@@ -3713,7 +3898,7 @@
     </row>
     <row r="31" spans="1:68" ht="12.75" customHeight="1">
       <c r="A31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C31" t="s">
         <v>67</v>
@@ -3766,6 +3951,12 @@
       <c r="BE31" t="s">
         <v>83</v>
       </c>
+      <c r="BI31" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="BJ31" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="BM31">
         <v>0</v>
       </c>
@@ -3781,7 +3972,7 @@
     </row>
     <row r="32" spans="1:68" ht="12.75" customHeight="1">
       <c r="A32" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C32" t="s">
         <v>67</v>
@@ -3834,6 +4025,12 @@
       <c r="BE32" t="s">
         <v>83</v>
       </c>
+      <c r="BI32" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="BJ32" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="BM32">
         <v>0</v>
       </c>
@@ -3849,7 +4046,7 @@
     </row>
     <row r="33" spans="1:68" ht="12.75" customHeight="1">
       <c r="A33" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C33" t="s">
         <v>67</v>
@@ -3902,6 +4099,12 @@
       <c r="BE33" t="s">
         <v>83</v>
       </c>
+      <c r="BI33" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="BJ33" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="BM33">
         <v>0</v>
       </c>
@@ -3917,7 +4120,7 @@
     </row>
     <row r="34" spans="1:68" ht="12.75" customHeight="1">
       <c r="A34" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C34" t="s">
         <v>67</v>
@@ -3970,6 +4173,12 @@
       <c r="BE34" t="s">
         <v>83</v>
       </c>
+      <c r="BI34" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="BJ34" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="BM34">
         <v>0</v>
       </c>
@@ -3985,7 +4194,7 @@
     </row>
     <row r="35" spans="1:68" ht="12.75" customHeight="1">
       <c r="A35" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C35" t="s">
         <v>67</v>
@@ -4038,6 +4247,12 @@
       <c r="BE35" t="s">
         <v>83</v>
       </c>
+      <c r="BI35" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="BJ35" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="BM35">
         <v>0</v>
       </c>
@@ -4053,7 +4268,7 @@
     </row>
     <row r="36" spans="1:68" ht="12.75" customHeight="1">
       <c r="A36" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C36" t="s">
         <v>67</v>
@@ -4106,6 +4321,12 @@
       <c r="BE36" t="s">
         <v>83</v>
       </c>
+      <c r="BI36" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="BJ36" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="BM36">
         <v>0</v>
       </c>
@@ -4121,7 +4342,7 @@
     </row>
     <row r="37" spans="1:68" ht="12.75" customHeight="1">
       <c r="A37" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C37" t="s">
         <v>67</v>
@@ -4174,6 +4395,12 @@
       <c r="BE37" t="s">
         <v>83</v>
       </c>
+      <c r="BI37" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="BJ37" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="BM37">
         <v>0</v>
       </c>
@@ -4189,7 +4416,7 @@
     </row>
     <row r="38" spans="1:68" ht="12.75" customHeight="1">
       <c r="A38" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C38" t="s">
         <v>67</v>
@@ -4242,6 +4469,12 @@
       <c r="BE38" t="s">
         <v>83</v>
       </c>
+      <c r="BI38" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="BJ38" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="BM38">
         <v>0</v>
       </c>
@@ -4257,7 +4490,7 @@
     </row>
     <row r="39" spans="1:68" ht="12.75" customHeight="1">
       <c r="A39" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C39" t="s">
         <v>67</v>
@@ -4310,6 +4543,12 @@
       <c r="BE39" t="s">
         <v>83</v>
       </c>
+      <c r="BI39" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="BJ39" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="BM39">
         <v>0</v>
       </c>
@@ -4325,7 +4564,7 @@
     </row>
     <row r="40" spans="1:68" ht="12.75" customHeight="1">
       <c r="A40" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C40" t="s">
         <v>67</v>
@@ -4378,6 +4617,12 @@
       <c r="BE40" t="s">
         <v>83</v>
       </c>
+      <c r="BI40" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="BJ40" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="BM40">
         <v>0</v>
       </c>
@@ -4393,7 +4638,7 @@
     </row>
     <row r="41" spans="1:68" ht="12.75" customHeight="1">
       <c r="A41" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C41" t="s">
         <v>67</v>
@@ -4446,6 +4691,12 @@
       <c r="BE41" t="s">
         <v>83</v>
       </c>
+      <c r="BI41" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="BJ41" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="BM41">
         <v>0</v>
       </c>
@@ -4461,7 +4712,7 @@
     </row>
     <row r="42" spans="1:68" ht="12.75" customHeight="1">
       <c r="A42" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C42" t="s">
         <v>67</v>
@@ -4514,6 +4765,12 @@
       <c r="BE42" t="s">
         <v>83</v>
       </c>
+      <c r="BI42" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="BJ42" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="BM42">
         <v>0</v>
       </c>
@@ -4529,7 +4786,7 @@
     </row>
     <row r="43" spans="1:68" ht="12.75" customHeight="1">
       <c r="A43" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C43" t="s">
         <v>67</v>
@@ -4582,6 +4839,12 @@
       <c r="BE43" t="s">
         <v>83</v>
       </c>
+      <c r="BI43" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="BJ43" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="BM43">
         <v>0</v>
       </c>
@@ -4597,7 +4860,7 @@
     </row>
     <row r="44" spans="1:68" ht="12.75" customHeight="1">
       <c r="A44" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C44" t="s">
         <v>67</v>
@@ -4650,6 +4913,12 @@
       <c r="BE44" t="s">
         <v>83</v>
       </c>
+      <c r="BI44" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="BJ44" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="BM44">
         <v>0</v>
       </c>
@@ -4665,7 +4934,7 @@
     </row>
     <row r="45" spans="1:68" ht="12.75" customHeight="1">
       <c r="A45" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C45" t="s">
         <v>67</v>
@@ -4718,6 +4987,12 @@
       <c r="BE45" t="s">
         <v>83</v>
       </c>
+      <c r="BI45" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="BJ45" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="BM45">
         <v>0</v>
       </c>
@@ -4733,7 +5008,7 @@
     </row>
     <row r="46" spans="1:68" ht="12.75" customHeight="1">
       <c r="A46" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C46" t="s">
         <v>67</v>
@@ -4786,6 +5061,12 @@
       <c r="BE46" t="s">
         <v>83</v>
       </c>
+      <c r="BI46" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="BJ46" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="BM46">
         <v>0</v>
       </c>
@@ -4801,7 +5082,7 @@
     </row>
     <row r="47" spans="1:68" ht="12.75" customHeight="1">
       <c r="A47" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C47" t="s">
         <v>67</v>
@@ -4854,6 +5135,12 @@
       <c r="BE47" t="s">
         <v>83</v>
       </c>
+      <c r="BI47" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="BJ47" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="BM47">
         <v>0</v>
       </c>
@@ -4869,7 +5156,7 @@
     </row>
     <row r="48" spans="1:68" ht="12.75" customHeight="1">
       <c r="A48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C48" t="s">
         <v>67</v>
@@ -4922,6 +5209,12 @@
       <c r="BE48" t="s">
         <v>83</v>
       </c>
+      <c r="BI48" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="BJ48" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="BM48">
         <v>0</v>
       </c>
@@ -4937,7 +5230,7 @@
     </row>
     <row r="49" spans="1:68" ht="12.75" customHeight="1">
       <c r="A49" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C49" t="s">
         <v>67</v>
@@ -4990,6 +5283,12 @@
       <c r="BE49" t="s">
         <v>83</v>
       </c>
+      <c r="BI49" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="BJ49" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="BM49">
         <v>0</v>
       </c>
@@ -5005,7 +5304,7 @@
     </row>
     <row r="50" spans="1:68" ht="12.75" customHeight="1">
       <c r="A50" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C50" t="s">
         <v>67</v>
@@ -5058,6 +5357,12 @@
       <c r="BE50" t="s">
         <v>83</v>
       </c>
+      <c r="BI50" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="BJ50" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="BM50">
         <v>0</v>
       </c>
@@ -5073,7 +5378,7 @@
     </row>
     <row r="51" spans="1:68" ht="12.75" customHeight="1">
       <c r="A51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C51" t="s">
         <v>67</v>
@@ -5126,6 +5431,12 @@
       <c r="BE51" t="s">
         <v>83</v>
       </c>
+      <c r="BI51" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="BJ51" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="BM51">
         <v>0</v>
       </c>
@@ -5141,7 +5452,7 @@
     </row>
     <row r="52" spans="1:68" ht="12.75" customHeight="1">
       <c r="A52" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C52" t="s">
         <v>67</v>
@@ -5194,6 +5505,12 @@
       <c r="BE52" t="s">
         <v>83</v>
       </c>
+      <c r="BI52" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="BJ52" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="BM52">
         <v>0</v>
       </c>
@@ -5209,7 +5526,7 @@
     </row>
     <row r="53" spans="1:68" ht="12.75" customHeight="1">
       <c r="A53" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C53" t="s">
         <v>67</v>
@@ -5262,6 +5579,12 @@
       <c r="BE53" t="s">
         <v>83</v>
       </c>
+      <c r="BI53" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="BJ53" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="BM53">
         <v>0</v>
       </c>
@@ -5277,7 +5600,7 @@
     </row>
     <row r="54" spans="1:68" ht="12.75" customHeight="1">
       <c r="A54" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C54" t="s">
         <v>67</v>
@@ -5330,6 +5653,12 @@
       <c r="BE54" t="s">
         <v>83</v>
       </c>
+      <c r="BI54" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="BJ54" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="BM54">
         <v>0</v>
       </c>
@@ -5345,7 +5674,7 @@
     </row>
     <row r="55" spans="1:68" ht="12.75" customHeight="1">
       <c r="A55" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C55" t="s">
         <v>67</v>
@@ -5398,6 +5727,12 @@
       <c r="BE55" t="s">
         <v>83</v>
       </c>
+      <c r="BI55" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="BJ55" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="BM55">
         <v>0</v>
       </c>
@@ -5413,7 +5748,7 @@
     </row>
     <row r="56" spans="1:68" ht="12.75" customHeight="1">
       <c r="A56" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C56" t="s">
         <v>67</v>
@@ -5466,6 +5801,12 @@
       <c r="BE56" t="s">
         <v>83</v>
       </c>
+      <c r="BI56" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="BJ56" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="BM56">
         <v>0</v>
       </c>
@@ -5479,88 +5820,88 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:68" ht="12.75" customHeight="1">
-      <c r="A57" t="s">
-        <v>261</v>
-      </c>
-      <c r="C57" t="s">
-        <v>67</v>
-      </c>
-      <c r="D57" t="s">
+    <row r="57" spans="1:68" s="18" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A57" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="C57" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D57" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="E57" t="s">
-        <v>77</v>
-      </c>
-      <c r="J57" t="s">
-        <v>147</v>
-      </c>
-      <c r="L57">
-        <v>6</v>
-      </c>
-      <c r="N57">
-        <v>1</v>
-      </c>
-      <c r="O57" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q57" s="6"/>
-      <c r="R57" s="6"/>
-      <c r="T57" t="s">
-        <v>79</v>
-      </c>
-      <c r="U57" t="s">
-        <v>80</v>
-      </c>
-      <c r="AK57">
-        <v>1</v>
-      </c>
-      <c r="AR57" t="s">
+      <c r="E57" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="J57" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="L57" s="18">
+        <v>6</v>
+      </c>
+      <c r="N57" s="18">
+        <v>1</v>
+      </c>
+      <c r="O57" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q57" s="19"/>
+      <c r="R57" s="19"/>
+      <c r="T57" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="U57" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK57" s="18">
+        <v>1</v>
+      </c>
+      <c r="AR57" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="AT57" t="s">
+      <c r="AT57" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="AW57" t="s">
+      <c r="AW57" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="AX57" s="5" t="s">
+      <c r="AX57" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="BC57" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="BD57" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="BE57" t="s">
-        <v>83</v>
-      </c>
-      <c r="BF57">
+      <c r="BC57" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="BD57" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="BE57" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="BF57" s="18">
         <v>20</v>
       </c>
-      <c r="BI57" t="s">
-        <v>151</v>
-      </c>
-      <c r="BJ57" t="s">
-        <v>148</v>
-      </c>
-      <c r="BM57">
-        <v>0</v>
-      </c>
-      <c r="BN57">
+      <c r="BI57" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="BJ57" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="BM57" s="18">
+        <v>0</v>
+      </c>
+      <c r="BN57" s="18">
         <v>0</v>
       </c>
       <c r="BO57" s="18">
         <v>6</v>
       </c>
-      <c r="BP57">
+      <c r="BP57" s="18">
         <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:68" ht="12.75" customHeight="1">
       <c r="A58" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C58" t="s">
         <v>67</v>
@@ -5615,13 +5956,19 @@
       <c r="BE58" t="s">
         <v>83</v>
       </c>
+      <c r="BI58" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="BJ58" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="BM58">
         <v>0</v>
       </c>
       <c r="BN58">
         <v>0</v>
       </c>
-      <c r="BO58" s="18">
+      <c r="BO58">
         <v>6</v>
       </c>
       <c r="BP58">
@@ -5630,7 +5977,7 @@
     </row>
     <row r="59" spans="1:68" ht="12.75" customHeight="1">
       <c r="A59" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C59" t="s">
         <v>67</v>
@@ -5685,13 +6032,19 @@
       <c r="BE59" t="s">
         <v>83</v>
       </c>
+      <c r="BI59" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="BJ59" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="BM59">
         <v>0</v>
       </c>
       <c r="BN59">
         <v>0</v>
       </c>
-      <c r="BO59" s="18">
+      <c r="BO59">
         <v>6</v>
       </c>
       <c r="BP59">
@@ -5700,7 +6053,7 @@
     </row>
     <row r="60" spans="1:68" ht="12.75" customHeight="1">
       <c r="A60" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -5755,13 +6108,19 @@
       <c r="BE60" t="s">
         <v>83</v>
       </c>
+      <c r="BI60" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="BJ60" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="BM60">
         <v>0</v>
       </c>
       <c r="BN60">
         <v>0</v>
       </c>
-      <c r="BO60" s="18">
+      <c r="BO60">
         <v>6</v>
       </c>
       <c r="BP60">
@@ -5770,7 +6129,7 @@
     </row>
     <row r="61" spans="1:68" ht="12.75" customHeight="1">
       <c r="A61" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C61" t="s">
         <v>67</v>
@@ -5825,13 +6184,19 @@
       <c r="BE61" t="s">
         <v>83</v>
       </c>
+      <c r="BI61" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="BJ61" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="BM61">
         <v>0</v>
       </c>
       <c r="BN61">
         <v>0</v>
       </c>
-      <c r="BO61" s="18">
+      <c r="BO61">
         <v>6</v>
       </c>
       <c r="BP61">
@@ -5840,7 +6205,7 @@
     </row>
     <row r="62" spans="1:68" ht="12.75" customHeight="1">
       <c r="A62" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C62" t="s">
         <v>67</v>
@@ -5895,13 +6260,19 @@
       <c r="BE62" t="s">
         <v>83</v>
       </c>
+      <c r="BI62" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="BJ62" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="BM62">
         <v>0</v>
       </c>
       <c r="BN62">
         <v>0</v>
       </c>
-      <c r="BO62" s="18">
+      <c r="BO62">
         <v>6</v>
       </c>
       <c r="BP62">
@@ -5910,7 +6281,7 @@
     </row>
     <row r="63" spans="1:68" ht="12.75" customHeight="1">
       <c r="A63" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C63" t="s">
         <v>67</v>
@@ -5965,13 +6336,19 @@
       <c r="BE63" t="s">
         <v>83</v>
       </c>
+      <c r="BI63" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="BJ63" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="BM63">
         <v>0</v>
       </c>
       <c r="BN63">
         <v>0</v>
       </c>
-      <c r="BO63" s="18">
+      <c r="BO63">
         <v>6</v>
       </c>
       <c r="BP63">
@@ -5980,7 +6357,7 @@
     </row>
     <row r="64" spans="1:68" ht="12.75" customHeight="1">
       <c r="A64" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C64" t="s">
         <v>67</v>
@@ -6033,13 +6410,19 @@
       <c r="BE64" t="s">
         <v>83</v>
       </c>
+      <c r="BI64" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="BJ64" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="BM64">
         <v>0</v>
       </c>
       <c r="BN64">
         <v>0</v>
       </c>
-      <c r="BO64" s="18">
+      <c r="BO64">
         <v>6</v>
       </c>
       <c r="BP64">
@@ -6048,7 +6431,7 @@
     </row>
     <row r="65" spans="1:68" ht="12.75" customHeight="1">
       <c r="A65" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C65" t="s">
         <v>67</v>
@@ -6101,13 +6484,19 @@
       <c r="BE65" t="s">
         <v>83</v>
       </c>
+      <c r="BI65" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="BJ65" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="BM65">
         <v>0</v>
       </c>
       <c r="BN65">
         <v>0</v>
       </c>
-      <c r="BO65" s="18">
+      <c r="BO65">
         <v>6</v>
       </c>
       <c r="BP65">
@@ -6116,7 +6505,7 @@
     </row>
     <row r="66" spans="1:68" ht="12.75" customHeight="1">
       <c r="A66" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C66" t="s">
         <v>67</v>
@@ -6169,13 +6558,19 @@
       <c r="BE66" t="s">
         <v>83</v>
       </c>
+      <c r="BI66" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="BJ66" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="BM66">
         <v>0</v>
       </c>
       <c r="BN66">
         <v>0</v>
       </c>
-      <c r="BO66" s="18">
+      <c r="BO66">
         <v>6</v>
       </c>
       <c r="BP66">
@@ -6184,7 +6579,7 @@
     </row>
     <row r="67" spans="1:68" ht="12.75" customHeight="1">
       <c r="A67" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C67" t="s">
         <v>67</v>
@@ -6237,13 +6632,19 @@
       <c r="BE67" t="s">
         <v>83</v>
       </c>
+      <c r="BI67" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="BJ67" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="BM67">
         <v>0</v>
       </c>
       <c r="BN67">
         <v>0</v>
       </c>
-      <c r="BO67" s="18">
+      <c r="BO67">
         <v>6</v>
       </c>
       <c r="BP67">
@@ -6252,7 +6653,7 @@
     </row>
     <row r="68" spans="1:68" ht="12.75" customHeight="1">
       <c r="A68" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C68" t="s">
         <v>67</v>
@@ -6305,13 +6706,19 @@
       <c r="BE68" t="s">
         <v>83</v>
       </c>
+      <c r="BI68" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="BJ68" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="BM68">
         <v>0</v>
       </c>
       <c r="BN68">
         <v>0</v>
       </c>
-      <c r="BO68" s="18">
+      <c r="BO68">
         <v>6</v>
       </c>
       <c r="BP68">
@@ -6320,7 +6727,7 @@
     </row>
     <row r="69" spans="1:68" ht="12.75" customHeight="1">
       <c r="A69" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C69" t="s">
         <v>67</v>
@@ -6373,13 +6780,19 @@
       <c r="BE69" t="s">
         <v>83</v>
       </c>
+      <c r="BI69" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="BJ69" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="BM69">
         <v>0</v>
       </c>
       <c r="BN69">
         <v>0</v>
       </c>
-      <c r="BO69" s="18">
+      <c r="BO69">
         <v>6</v>
       </c>
       <c r="BP69">
@@ -6388,7 +6801,7 @@
     </row>
     <row r="70" spans="1:68" ht="12.75" customHeight="1">
       <c r="A70" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C70" t="s">
         <v>67</v>
@@ -6441,13 +6854,19 @@
       <c r="BE70" t="s">
         <v>83</v>
       </c>
+      <c r="BI70" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="BJ70" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="BM70">
         <v>0</v>
       </c>
       <c r="BN70">
         <v>0</v>
       </c>
-      <c r="BO70" s="18">
+      <c r="BO70">
         <v>6</v>
       </c>
       <c r="BP70">
@@ -6456,7 +6875,7 @@
     </row>
     <row r="71" spans="1:68" ht="12.75" customHeight="1">
       <c r="A71" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C71" t="s">
         <v>67</v>
@@ -6509,13 +6928,19 @@
       <c r="BE71" t="s">
         <v>83</v>
       </c>
+      <c r="BI71" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="BJ71" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="BM71">
         <v>0</v>
       </c>
       <c r="BN71">
         <v>0</v>
       </c>
-      <c r="BO71" s="18">
+      <c r="BO71">
         <v>6</v>
       </c>
       <c r="BP71">
@@ -6524,7 +6949,7 @@
     </row>
     <row r="72" spans="1:68" ht="12.75" customHeight="1">
       <c r="A72" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C72" t="s">
         <v>67</v>
@@ -6577,13 +7002,19 @@
       <c r="BE72" t="s">
         <v>83</v>
       </c>
+      <c r="BI72" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="BJ72" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="BM72">
         <v>0</v>
       </c>
       <c r="BN72">
         <v>0</v>
       </c>
-      <c r="BO72" s="18">
+      <c r="BO72">
         <v>6</v>
       </c>
       <c r="BP72">
@@ -6592,7 +7023,7 @@
     </row>
     <row r="73" spans="1:68" ht="12.75" customHeight="1">
       <c r="A73" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C73" t="s">
         <v>67</v>
@@ -6645,13 +7076,19 @@
       <c r="BE73" t="s">
         <v>83</v>
       </c>
+      <c r="BI73" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="BJ73" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="BM73">
         <v>0</v>
       </c>
       <c r="BN73">
         <v>0</v>
       </c>
-      <c r="BO73" s="18">
+      <c r="BO73">
         <v>6</v>
       </c>
       <c r="BP73">
@@ -6660,7 +7097,7 @@
     </row>
     <row r="74" spans="1:68" ht="12.75" customHeight="1">
       <c r="A74" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C74" t="s">
         <v>67</v>
@@ -6713,13 +7150,19 @@
       <c r="BE74" t="s">
         <v>83</v>
       </c>
+      <c r="BI74" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="BJ74" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="BM74">
         <v>0</v>
       </c>
       <c r="BN74">
         <v>0</v>
       </c>
-      <c r="BO74" s="18">
+      <c r="BO74">
         <v>6</v>
       </c>
       <c r="BP74">
@@ -6728,7 +7171,7 @@
     </row>
     <row r="75" spans="1:68" ht="12.75" customHeight="1">
       <c r="A75" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C75" t="s">
         <v>67</v>
@@ -6781,13 +7224,19 @@
       <c r="BE75" t="s">
         <v>83</v>
       </c>
+      <c r="BI75" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="BJ75" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="BM75">
         <v>0</v>
       </c>
       <c r="BN75">
         <v>0</v>
       </c>
-      <c r="BO75" s="18">
+      <c r="BO75">
         <v>6</v>
       </c>
       <c r="BP75">
@@ -6796,7 +7245,7 @@
     </row>
     <row r="76" spans="1:68" ht="12.75" customHeight="1">
       <c r="A76" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C76" t="s">
         <v>67</v>
@@ -6849,13 +7298,19 @@
       <c r="BE76" t="s">
         <v>83</v>
       </c>
+      <c r="BI76" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="BJ76" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="BM76">
         <v>0</v>
       </c>
       <c r="BN76">
         <v>0</v>
       </c>
-      <c r="BO76" s="18">
+      <c r="BO76">
         <v>6</v>
       </c>
       <c r="BP76">
@@ -6864,7 +7319,7 @@
     </row>
     <row r="77" spans="1:68" ht="12.75" customHeight="1">
       <c r="A77" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C77" t="s">
         <v>67</v>
@@ -6917,13 +7372,19 @@
       <c r="BE77" t="s">
         <v>83</v>
       </c>
+      <c r="BI77" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="BJ77" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="BM77">
         <v>0</v>
       </c>
       <c r="BN77">
         <v>0</v>
       </c>
-      <c r="BO77" s="18">
+      <c r="BO77">
         <v>6</v>
       </c>
       <c r="BP77">
@@ -6932,7 +7393,7 @@
     </row>
     <row r="78" spans="1:68" ht="12.75" customHeight="1">
       <c r="A78" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C78" t="s">
         <v>67</v>
@@ -6985,13 +7446,19 @@
       <c r="BE78" t="s">
         <v>83</v>
       </c>
+      <c r="BI78" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="BJ78" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="BM78">
         <v>0</v>
       </c>
       <c r="BN78">
         <v>0</v>
       </c>
-      <c r="BO78" s="18">
+      <c r="BO78">
         <v>6</v>
       </c>
       <c r="BP78">
@@ -7000,7 +7467,7 @@
     </row>
     <row r="79" spans="1:68" ht="12.75" customHeight="1">
       <c r="A79" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C79" t="s">
         <v>67</v>
@@ -7053,13 +7520,19 @@
       <c r="BE79" t="s">
         <v>83</v>
       </c>
+      <c r="BI79" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="BJ79" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="BM79">
         <v>0</v>
       </c>
       <c r="BN79">
         <v>0</v>
       </c>
-      <c r="BO79" s="18">
+      <c r="BO79">
         <v>6</v>
       </c>
       <c r="BP79">
@@ -7068,7 +7541,7 @@
     </row>
     <row r="80" spans="1:68" ht="12.75" customHeight="1">
       <c r="A80" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C80" t="s">
         <v>67</v>
@@ -7121,13 +7594,19 @@
       <c r="BE80" t="s">
         <v>83</v>
       </c>
+      <c r="BI80" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="BJ80" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="BM80">
         <v>0</v>
       </c>
       <c r="BN80">
         <v>0</v>
       </c>
-      <c r="BO80" s="18">
+      <c r="BO80">
         <v>6</v>
       </c>
       <c r="BP80">
@@ -7136,7 +7615,7 @@
     </row>
     <row r="81" spans="1:68" ht="12.75" customHeight="1">
       <c r="A81" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C81" t="s">
         <v>67</v>
@@ -7189,13 +7668,19 @@
       <c r="BE81" t="s">
         <v>83</v>
       </c>
+      <c r="BI81" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="BJ81" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="BM81">
         <v>0</v>
       </c>
       <c r="BN81">
         <v>0</v>
       </c>
-      <c r="BO81" s="18">
+      <c r="BO81">
         <v>6</v>
       </c>
       <c r="BP81">
@@ -7204,7 +7689,7 @@
     </row>
     <row r="82" spans="1:68" ht="12.75" customHeight="1">
       <c r="A82" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C82" t="s">
         <v>67</v>
@@ -7257,13 +7742,19 @@
       <c r="BE82" t="s">
         <v>83</v>
       </c>
+      <c r="BI82" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="BJ82" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="BM82">
         <v>0</v>
       </c>
       <c r="BN82">
         <v>0</v>
       </c>
-      <c r="BO82" s="18">
+      <c r="BO82">
         <v>6</v>
       </c>
       <c r="BP82">
@@ -7272,7 +7763,7 @@
     </row>
     <row r="83" spans="1:68" ht="12.75" customHeight="1">
       <c r="A83" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C83" t="s">
         <v>67</v>
@@ -7325,13 +7816,19 @@
       <c r="BE83" t="s">
         <v>83</v>
       </c>
+      <c r="BI83" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="BJ83" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="BM83">
         <v>0</v>
       </c>
       <c r="BN83">
         <v>0</v>
       </c>
-      <c r="BO83" s="18">
+      <c r="BO83">
         <v>6</v>
       </c>
       <c r="BP83">
@@ -7340,7 +7837,7 @@
     </row>
     <row r="84" spans="1:68" ht="12.75" customHeight="1">
       <c r="A84" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C84" t="s">
         <v>67</v>
@@ -7393,13 +7890,19 @@
       <c r="BE84" t="s">
         <v>83</v>
       </c>
+      <c r="BI84" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="BJ84" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="BM84">
         <v>0</v>
       </c>
       <c r="BN84">
         <v>0</v>
       </c>
-      <c r="BO84" s="18">
+      <c r="BO84">
         <v>6</v>
       </c>
       <c r="BP84">
@@ -7408,7 +7911,7 @@
     </row>
     <row r="85" spans="1:68" ht="12.75" customHeight="1">
       <c r="A85" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C85" t="s">
         <v>67</v>
@@ -7461,13 +7964,19 @@
       <c r="BE85" t="s">
         <v>83</v>
       </c>
+      <c r="BI85" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="BJ85" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="BM85">
         <v>0</v>
       </c>
       <c r="BN85">
         <v>0</v>
       </c>
-      <c r="BO85" s="18">
+      <c r="BO85">
         <v>6</v>
       </c>
       <c r="BP85">
@@ -7476,7 +7985,7 @@
     </row>
     <row r="86" spans="1:68" ht="12.75" customHeight="1">
       <c r="A86" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C86" t="s">
         <v>67</v>
@@ -7529,13 +8038,19 @@
       <c r="BE86" t="s">
         <v>83</v>
       </c>
+      <c r="BI86" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="BJ86" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="BM86">
         <v>0</v>
       </c>
       <c r="BN86">
         <v>0</v>
       </c>
-      <c r="BO86" s="18">
+      <c r="BO86">
         <v>6</v>
       </c>
       <c r="BP86">
@@ -7544,7 +8059,7 @@
     </row>
     <row r="87" spans="1:68" ht="12.75" customHeight="1">
       <c r="A87" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C87" t="s">
         <v>67</v>
@@ -7597,13 +8112,19 @@
       <c r="BE87" t="s">
         <v>83</v>
       </c>
+      <c r="BI87" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="BJ87" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="BM87">
         <v>0</v>
       </c>
       <c r="BN87">
         <v>0</v>
       </c>
-      <c r="BO87" s="18">
+      <c r="BO87">
         <v>6</v>
       </c>
       <c r="BP87">
@@ -7612,7 +8133,7 @@
     </row>
     <row r="88" spans="1:68" ht="12.75" customHeight="1">
       <c r="A88" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C88" t="s">
         <v>67</v>
@@ -7665,13 +8186,19 @@
       <c r="BE88" t="s">
         <v>83</v>
       </c>
+      <c r="BI88" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="BJ88" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="BM88">
         <v>0</v>
       </c>
       <c r="BN88">
         <v>0</v>
       </c>
-      <c r="BO88" s="18">
+      <c r="BO88">
         <v>6</v>
       </c>
       <c r="BP88">
@@ -7680,7 +8207,7 @@
     </row>
     <row r="89" spans="1:68" ht="12.75" customHeight="1">
       <c r="A89" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C89" t="s">
         <v>67</v>
@@ -7733,13 +8260,19 @@
       <c r="BE89" t="s">
         <v>83</v>
       </c>
+      <c r="BI89" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="BJ89" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="BM89">
         <v>0</v>
       </c>
       <c r="BN89">
         <v>0</v>
       </c>
-      <c r="BO89" s="18">
+      <c r="BO89">
         <v>6</v>
       </c>
       <c r="BP89">
@@ -7748,7 +8281,7 @@
     </row>
     <row r="90" spans="1:68" ht="12.75" customHeight="1">
       <c r="A90" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C90" t="s">
         <v>67</v>
@@ -7801,13 +8334,19 @@
       <c r="BE90" t="s">
         <v>83</v>
       </c>
+      <c r="BI90" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="BJ90" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="BM90">
         <v>0</v>
       </c>
       <c r="BN90">
         <v>0</v>
       </c>
-      <c r="BO90" s="18">
+      <c r="BO90">
         <v>6</v>
       </c>
       <c r="BP90">
@@ -7816,7 +8355,7 @@
     </row>
     <row r="91" spans="1:68" ht="12.75" customHeight="1">
       <c r="A91" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C91" t="s">
         <v>67</v>
@@ -7869,13 +8408,19 @@
       <c r="BE91" t="s">
         <v>83</v>
       </c>
+      <c r="BI91" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="BJ91" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="BM91">
         <v>0</v>
       </c>
       <c r="BN91">
         <v>0</v>
       </c>
-      <c r="BO91" s="18">
+      <c r="BO91">
         <v>6</v>
       </c>
       <c r="BP91">
@@ -7884,7 +8429,7 @@
     </row>
     <row r="92" spans="1:68" ht="12.75" customHeight="1">
       <c r="A92" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C92" t="s">
         <v>67</v>
@@ -7937,13 +8482,19 @@
       <c r="BE92" t="s">
         <v>83</v>
       </c>
+      <c r="BI92" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="BJ92" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="BM92">
         <v>0</v>
       </c>
       <c r="BN92">
         <v>0</v>
       </c>
-      <c r="BO92" s="18">
+      <c r="BO92">
         <v>6</v>
       </c>
       <c r="BP92">
@@ -7952,7 +8503,7 @@
     </row>
     <row r="93" spans="1:68" ht="12.75" customHeight="1">
       <c r="A93" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C93" t="s">
         <v>67</v>
@@ -8005,13 +8556,19 @@
       <c r="BE93" t="s">
         <v>83</v>
       </c>
+      <c r="BI93" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="BJ93" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="BM93">
         <v>0</v>
       </c>
       <c r="BN93">
         <v>0</v>
       </c>
-      <c r="BO93" s="18">
+      <c r="BO93">
         <v>6</v>
       </c>
       <c r="BP93">
@@ -8020,7 +8577,7 @@
     </row>
     <row r="94" spans="1:68" ht="12.75" customHeight="1">
       <c r="A94" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C94" t="s">
         <v>67</v>
@@ -8073,13 +8630,19 @@
       <c r="BE94" t="s">
         <v>83</v>
       </c>
+      <c r="BI94" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="BJ94" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="BM94">
         <v>0</v>
       </c>
       <c r="BN94">
         <v>0</v>
       </c>
-      <c r="BO94" s="18">
+      <c r="BO94">
         <v>6</v>
       </c>
       <c r="BP94">
@@ -8088,7 +8651,7 @@
     </row>
     <row r="95" spans="1:68" ht="12.75" customHeight="1">
       <c r="A95" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C95" t="s">
         <v>67</v>
@@ -8141,13 +8704,19 @@
       <c r="BE95" t="s">
         <v>83</v>
       </c>
+      <c r="BI95" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="BJ95" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="BM95">
         <v>0</v>
       </c>
       <c r="BN95">
         <v>0</v>
       </c>
-      <c r="BO95" s="18">
+      <c r="BO95">
         <v>6</v>
       </c>
       <c r="BP95">
@@ -8156,7 +8725,7 @@
     </row>
     <row r="96" spans="1:68" ht="12.75" customHeight="1">
       <c r="A96" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C96" t="s">
         <v>67</v>
@@ -8209,13 +8778,19 @@
       <c r="BE96" t="s">
         <v>83</v>
       </c>
+      <c r="BI96" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="BJ96" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="BM96">
         <v>0</v>
       </c>
       <c r="BN96">
         <v>0</v>
       </c>
-      <c r="BO96" s="18">
+      <c r="BO96">
         <v>6</v>
       </c>
       <c r="BP96">
@@ -8224,7 +8799,7 @@
     </row>
     <row r="97" spans="1:68" ht="12.75" customHeight="1">
       <c r="A97" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C97" t="s">
         <v>67</v>
@@ -8277,13 +8852,19 @@
       <c r="BE97" t="s">
         <v>83</v>
       </c>
+      <c r="BI97" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="BJ97" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="BM97">
         <v>0</v>
       </c>
       <c r="BN97">
         <v>0</v>
       </c>
-      <c r="BO97" s="18">
+      <c r="BO97">
         <v>6</v>
       </c>
       <c r="BP97">
@@ -8292,7 +8873,7 @@
     </row>
     <row r="98" spans="1:68" ht="12.75" customHeight="1">
       <c r="A98" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C98" t="s">
         <v>67</v>
@@ -8345,13 +8926,19 @@
       <c r="BE98" t="s">
         <v>83</v>
       </c>
+      <c r="BI98" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="BJ98" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="BM98">
         <v>0</v>
       </c>
       <c r="BN98">
         <v>0</v>
       </c>
-      <c r="BO98" s="18">
+      <c r="BO98">
         <v>6</v>
       </c>
       <c r="BP98">
@@ -8360,7 +8947,7 @@
     </row>
     <row r="99" spans="1:68" ht="12.75" customHeight="1">
       <c r="A99" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C99" t="s">
         <v>67</v>
@@ -8413,13 +9000,19 @@
       <c r="BE99" t="s">
         <v>83</v>
       </c>
+      <c r="BI99" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="BJ99" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="BM99">
         <v>0</v>
       </c>
       <c r="BN99">
         <v>0</v>
       </c>
-      <c r="BO99" s="18">
+      <c r="BO99">
         <v>6</v>
       </c>
       <c r="BP99">
@@ -8428,7 +9021,7 @@
     </row>
     <row r="100" spans="1:68" ht="12.75" customHeight="1">
       <c r="A100" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C100" t="s">
         <v>67</v>
@@ -8481,13 +9074,19 @@
       <c r="BE100" t="s">
         <v>83</v>
       </c>
+      <c r="BI100" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="BJ100" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="BM100">
         <v>0</v>
       </c>
       <c r="BN100">
         <v>0</v>
       </c>
-      <c r="BO100" s="18">
+      <c r="BO100">
         <v>6</v>
       </c>
       <c r="BP100">
@@ -8496,7 +9095,7 @@
     </row>
     <row r="101" spans="1:68" ht="12.75" customHeight="1">
       <c r="A101" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C101" t="s">
         <v>67</v>
@@ -8549,13 +9148,19 @@
       <c r="BE101" t="s">
         <v>83</v>
       </c>
+      <c r="BI101" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="BJ101" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="BM101">
         <v>0</v>
       </c>
       <c r="BN101">
         <v>0</v>
       </c>
-      <c r="BO101" s="18">
+      <c r="BO101">
         <v>6</v>
       </c>
       <c r="BP101">
@@ -8564,7 +9169,7 @@
     </row>
     <row r="102" spans="1:68" ht="12.75" customHeight="1">
       <c r="A102" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C102" t="s">
         <v>67</v>
@@ -8617,13 +9222,19 @@
       <c r="BE102" t="s">
         <v>83</v>
       </c>
+      <c r="BI102" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="BJ102" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="BM102">
         <v>0</v>
       </c>
       <c r="BN102">
         <v>0</v>
       </c>
-      <c r="BO102" s="18">
+      <c r="BO102">
         <v>6</v>
       </c>
       <c r="BP102">
@@ -8632,7 +9243,7 @@
     </row>
     <row r="103" spans="1:68" ht="12.75" customHeight="1">
       <c r="A103" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C103" t="s">
         <v>67</v>
@@ -8685,13 +9296,19 @@
       <c r="BE103" t="s">
         <v>83</v>
       </c>
+      <c r="BI103" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="BJ103" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="BM103">
         <v>0</v>
       </c>
       <c r="BN103">
         <v>0</v>
       </c>
-      <c r="BO103" s="18">
+      <c r="BO103">
         <v>6</v>
       </c>
       <c r="BP103">
@@ -8700,7 +9317,7 @@
     </row>
     <row r="104" spans="1:68" ht="12.75" customHeight="1">
       <c r="A104" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C104" t="s">
         <v>67</v>
@@ -8753,13 +9370,19 @@
       <c r="BE104" t="s">
         <v>83</v>
       </c>
+      <c r="BI104" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="BJ104" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="BM104">
         <v>0</v>
       </c>
       <c r="BN104">
         <v>0</v>
       </c>
-      <c r="BO104" s="18">
+      <c r="BO104">
         <v>6</v>
       </c>
       <c r="BP104">
@@ -8768,7 +9391,7 @@
     </row>
     <row r="105" spans="1:68" ht="12.75" customHeight="1">
       <c r="A105" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C105" t="s">
         <v>67</v>
@@ -8821,13 +9444,19 @@
       <c r="BE105" t="s">
         <v>83</v>
       </c>
+      <c r="BI105" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="BJ105" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="BM105">
         <v>0</v>
       </c>
       <c r="BN105">
         <v>0</v>
       </c>
-      <c r="BO105" s="18">
+      <c r="BO105">
         <v>6</v>
       </c>
       <c r="BP105">
@@ -8836,7 +9465,7 @@
     </row>
     <row r="106" spans="1:68" ht="12.75" customHeight="1">
       <c r="A106" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C106" t="s">
         <v>67</v>
@@ -8889,13 +9518,19 @@
       <c r="BE106" t="s">
         <v>83</v>
       </c>
+      <c r="BI106" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="BJ106" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="BM106">
         <v>0</v>
       </c>
       <c r="BN106">
         <v>0</v>
       </c>
-      <c r="BO106" s="18">
+      <c r="BO106">
         <v>6</v>
       </c>
       <c r="BP106">
@@ -8904,7 +9539,7 @@
     </row>
     <row r="107" spans="1:68" ht="12.75" customHeight="1">
       <c r="A107" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C107" t="s">
         <v>67</v>
@@ -8957,13 +9592,19 @@
       <c r="BE107" t="s">
         <v>83</v>
       </c>
+      <c r="BI107" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="BJ107" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="BM107">
         <v>0</v>
       </c>
       <c r="BN107">
         <v>0</v>
       </c>
-      <c r="BO107" s="18">
+      <c r="BO107">
         <v>6</v>
       </c>
       <c r="BP107">
@@ -8972,7 +9613,7 @@
     </row>
     <row r="108" spans="1:68" ht="12.75" customHeight="1">
       <c r="A108" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C108" t="s">
         <v>67</v>
@@ -9025,13 +9666,19 @@
       <c r="BE108" t="s">
         <v>83</v>
       </c>
+      <c r="BI108" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="BJ108" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="BM108">
         <v>0</v>
       </c>
       <c r="BN108">
         <v>0</v>
       </c>
-      <c r="BO108" s="18">
+      <c r="BO108">
         <v>6</v>
       </c>
       <c r="BP108">
@@ -9040,7 +9687,7 @@
     </row>
     <row r="109" spans="1:68" ht="12.75" customHeight="1">
       <c r="A109" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C109" t="s">
         <v>67</v>
@@ -9093,13 +9740,19 @@
       <c r="BE109" t="s">
         <v>83</v>
       </c>
+      <c r="BI109" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="BJ109" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="BM109">
         <v>0</v>
       </c>
       <c r="BN109">
         <v>0</v>
       </c>
-      <c r="BO109" s="18">
+      <c r="BO109">
         <v>6</v>
       </c>
       <c r="BP109">
@@ -9108,7 +9761,7 @@
     </row>
     <row r="110" spans="1:68" ht="12.75" customHeight="1">
       <c r="A110" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C110" t="s">
         <v>67</v>
@@ -9161,13 +9814,19 @@
       <c r="BE110" t="s">
         <v>83</v>
       </c>
+      <c r="BI110" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="BJ110" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="BM110">
         <v>0</v>
       </c>
       <c r="BN110">
         <v>0</v>
       </c>
-      <c r="BO110" s="18">
+      <c r="BO110">
         <v>6</v>
       </c>
       <c r="BP110">
@@ -9176,7 +9835,7 @@
     </row>
     <row r="111" spans="1:68" ht="12.75" customHeight="1">
       <c r="A111" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C111" t="s">
         <v>67</v>
@@ -9229,93 +9888,99 @@
       <c r="BE111" t="s">
         <v>83</v>
       </c>
+      <c r="BI111" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="BJ111" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="BM111">
         <v>0</v>
       </c>
       <c r="BN111">
         <v>0</v>
       </c>
-      <c r="BO111" s="18">
+      <c r="BO111">
         <v>6</v>
       </c>
       <c r="BP111">
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:68" ht="12.75" customHeight="1">
-      <c r="A112" t="s">
+    <row r="112" spans="1:68" s="18" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A112" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="C112" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D112" s="18" t="s">
         <v>262</v>
       </c>
-      <c r="C112" t="s">
-        <v>67</v>
-      </c>
-      <c r="D112" t="s">
+      <c r="E112" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="J112" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="L112" s="18">
+        <v>6</v>
+      </c>
+      <c r="N112" s="18">
+        <v>1</v>
+      </c>
+      <c r="O112" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="T112" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="U112" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK112" s="18">
+        <v>1</v>
+      </c>
+      <c r="AR112" s="18" t="s">
         <v>263</v>
       </c>
-      <c r="E112" t="s">
-        <v>77</v>
-      </c>
-      <c r="J112" t="s">
-        <v>147</v>
-      </c>
-      <c r="L112">
-        <v>6</v>
-      </c>
-      <c r="N112">
-        <v>1</v>
-      </c>
-      <c r="O112" t="s">
-        <v>78</v>
-      </c>
-      <c r="T112" t="s">
-        <v>79</v>
-      </c>
-      <c r="U112" t="s">
-        <v>80</v>
-      </c>
-      <c r="AK112">
-        <v>1</v>
-      </c>
-      <c r="AR112" t="s">
+      <c r="AT112" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="AW112" s="18" t="s">
         <v>264</v>
       </c>
-      <c r="AT112" t="s">
-        <v>264</v>
-      </c>
-      <c r="AW112" t="s">
+      <c r="AX112" s="23" t="s">
         <v>265</v>
       </c>
-      <c r="AX112" s="13" t="s">
+      <c r="BC112" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="BD112" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="BE112" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="BF112" s="18">
+        <v>20</v>
+      </c>
+      <c r="BI112" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="BJ112" s="18" t="s">
         <v>266</v>
       </c>
-      <c r="BC112" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="BD112" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="BE112" t="s">
-        <v>83</v>
-      </c>
-      <c r="BF112">
-        <v>20</v>
-      </c>
-      <c r="BI112" t="s">
-        <v>151</v>
-      </c>
-      <c r="BJ112" t="s">
-        <v>267</v>
-      </c>
-      <c r="BM112">
-        <v>0</v>
-      </c>
-      <c r="BN112">
+      <c r="BM112" s="18">
+        <v>0</v>
+      </c>
+      <c r="BN112" s="18">
         <v>0</v>
       </c>
       <c r="BO112" s="18">
         <v>6</v>
       </c>
-      <c r="BP112">
+      <c r="BP112" s="18">
         <v>3</v>
       </c>
     </row>
@@ -9443,6 +10108,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="c90f9e10-81f0-426e-b8bb-fc89022b3796" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="02625a54-df84-4a3b-b049-0bb7e92cde0d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -9451,7 +10127,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100879B58D3C23DCA4AAEF47596CA4D8E48" ma:contentTypeVersion="13" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="ee8b9d8723b80ccc4cb578ffd4faacc7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="02625a54-df84-4a3b-b049-0bb7e92cde0d" xmlns:ns3="c90f9e10-81f0-426e-b8bb-fc89022b3796" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="64b8ed4db9a6e136c161da669116b9cc" ns2:_="" ns3:_="">
     <xsd:import namespace="02625a54-df84-4a3b-b049-0bb7e92cde0d"/>
@@ -9660,18 +10336,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="c90f9e10-81f0-426e-b8bb-fc89022b3796" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="02625a54-df84-4a3b-b049-0bb7e92cde0d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3B3ABF6-4080-46CB-8A76-0A61A3F40BD1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="02625a54-df84-4a3b-b049-0bb7e92cde0d"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="c90f9e10-81f0-426e-b8bb-fc89022b3796"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C63F3413-8325-4072-95D6-266A70C668BD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -9679,7 +10361,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A223085B-57B4-40DB-BC96-92703C914FDC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9696,21 +10378,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3B3ABF6-4080-46CB-8A76-0A61A3F40BD1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="02625a54-df84-4a3b-b049-0bb7e92cde0d"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="c90f9e10-81f0-426e-b8bb-fc89022b3796"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/src/cloud/backend/apollo.cloud/Graph.Apollo.Cloud.Assessment/Data/Digitale_Kompetenzen.xlsx
+++ b/src/cloud/backend/apollo.cloud/Graph.Apollo.Cloud.Assessment/Data/Digitale_Kompetenzen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IvanaBoscolo\source\repos\APOLLO\src\cloud\backend\apollo.cloud\Graph.Apollo.Cloud.Assessment\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PatricBoscolo\source\gh\APOLLO\src\cloud\backend\apollo.cloud\Graph.Apollo.Cloud.Assessment\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6867C87C-8B24-448E-9F08-C5463FF33A1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E734A041-9728-450E-A7D9-E36B37079BD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9300" yWindow="1875" windowWidth="23820" windowHeight="19830" xr2:uid="{964963E8-EE09-4957-A004-AE51DD5268F6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25416" xr2:uid="{964963E8-EE09-4957-A004-AE51DD5268F6}"/>
   </bookViews>
   <sheets>
     <sheet name="SOK Digitale Kompetenzen M5" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1955" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="213">
   <si>
     <t>ItemID</t>
   </si>
@@ -490,171 +490,6 @@
   </si>
   <si>
     <t>UseCaseId</t>
-  </si>
-  <si>
-    <t>SOU1DKM5A01</t>
-  </si>
-  <si>
-    <t>SOU1DKM5A02</t>
-  </si>
-  <si>
-    <t>SOU1DKM5A03</t>
-  </si>
-  <si>
-    <t>SOU1DKM5A04</t>
-  </si>
-  <si>
-    <t>SOU1DKM5A05</t>
-  </si>
-  <si>
-    <t>SOU1DKM5A06</t>
-  </si>
-  <si>
-    <t>SOU1DKM5A07</t>
-  </si>
-  <si>
-    <t>SOU1DKM5B01</t>
-  </si>
-  <si>
-    <t>SOU1DKM5B02</t>
-  </si>
-  <si>
-    <t>SOU1DKM5B03</t>
-  </si>
-  <si>
-    <t>SOU1DKM5B04</t>
-  </si>
-  <si>
-    <t>SOU1DKM5B05</t>
-  </si>
-  <si>
-    <t>SOU1DKM5B06</t>
-  </si>
-  <si>
-    <t>SOU1DKM5C01</t>
-  </si>
-  <si>
-    <t>SOU1DKM5C02</t>
-  </si>
-  <si>
-    <t>SOU1DKM5C03</t>
-  </si>
-  <si>
-    <t>SOU1DKM5C04</t>
-  </si>
-  <si>
-    <t>SOU1DKM5C05</t>
-  </si>
-  <si>
-    <t>SOU1DKM5C06</t>
-  </si>
-  <si>
-    <t>SOU1DKM5C07</t>
-  </si>
-  <si>
-    <t>SOU1DKM5C08</t>
-  </si>
-  <si>
-    <t>SOU1DKM5D01</t>
-  </si>
-  <si>
-    <t>SOU1DKM5D02</t>
-  </si>
-  <si>
-    <t>SOU1DKM5D03</t>
-  </si>
-  <si>
-    <t>SOU1DKM5D04</t>
-  </si>
-  <si>
-    <t>SOU1DKM5D05</t>
-  </si>
-  <si>
-    <t>SOU1DKM5D06</t>
-  </si>
-  <si>
-    <t>SOU1DKM5D07</t>
-  </si>
-  <si>
-    <t>SOU1DKM5D08</t>
-  </si>
-  <si>
-    <t>SOU1DKM5D09</t>
-  </si>
-  <si>
-    <t>SOU1DKM5D10</t>
-  </si>
-  <si>
-    <t>SOU1DKM5E01</t>
-  </si>
-  <si>
-    <t>SOU1DKM5E02</t>
-  </si>
-  <si>
-    <t>SOU1DKM5E03</t>
-  </si>
-  <si>
-    <t>SOU1DKM5E04</t>
-  </si>
-  <si>
-    <t>SOU1DKM5E05</t>
-  </si>
-  <si>
-    <t>SOU1DKM5E06</t>
-  </si>
-  <si>
-    <t>SOU1DKM5E07</t>
-  </si>
-  <si>
-    <t>SOU1DKM5E08</t>
-  </si>
-  <si>
-    <t>SOU1DKM5E09</t>
-  </si>
-  <si>
-    <t>SOU1DKM5E10</t>
-  </si>
-  <si>
-    <t>SOU1DKM5F01</t>
-  </si>
-  <si>
-    <t>SOU1DKM5F02</t>
-  </si>
-  <si>
-    <t>SOU1DKM5F03</t>
-  </si>
-  <si>
-    <t>SOU1DKM5F04</t>
-  </si>
-  <si>
-    <t>SOU1DKM5F05</t>
-  </si>
-  <si>
-    <t>SOU1DKM5F06</t>
-  </si>
-  <si>
-    <t>SOU1DKM5F07</t>
-  </si>
-  <si>
-    <t>SOU1DKM5F08</t>
-  </si>
-  <si>
-    <t>SOU1DKM5F09</t>
-  </si>
-  <si>
-    <t>SOU1DKM5F10</t>
-  </si>
-  <si>
-    <t>SOU1DKM5F11</t>
-  </si>
-  <si>
-    <t>SOU1DKM5F12</t>
-  </si>
-  <si>
-    <t>SOU1DKM5F13</t>
-  </si>
-  <si>
-    <t>SOU1DKM5F14</t>
   </si>
   <si>
     <t>SOU2DKM5A02</t>
@@ -847,7 +682,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -1138,8 +973,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{96A82516-1A7E-498A-AF83-1E1CB83B81EF}" name="Tabelle5" displayName="Tabelle5" ref="A1:BP112" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1">
-  <autoFilter ref="A1:BP112" xr:uid="{96A82516-1A7E-498A-AF83-1E1CB83B81EF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{96A82516-1A7E-498A-AF83-1E1CB83B81EF}" name="Tabelle5" displayName="Tabelle5" ref="A1:BP57" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1">
+  <autoFilter ref="A1:BP57" xr:uid="{96A82516-1A7E-498A-AF83-1E1CB83B81EF}"/>
   <tableColumns count="68">
     <tableColumn id="1" xr3:uid="{5027A3BA-AE24-48AB-84F1-2B75CE07B771}" name="ItemID"/>
     <tableColumn id="67" xr3:uid="{CBBAA5D6-4174-439A-84DE-FDF2F323CBA9}" name="ReliantOn"/>
@@ -1511,23 +1346,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C4694E0-AE11-4213-9084-7EF5B5E33E57}">
-  <dimension ref="A1:BP112"/>
+  <dimension ref="A1:BP57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BH3" sqref="BH3"/>
+      <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="114.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.42578125" customWidth="1"/>
-    <col min="46" max="46" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="63.28515625" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="114.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.44140625" customWidth="1"/>
+    <col min="46" max="46" width="38.5546875" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="63.33203125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" ht="12.75" customHeight="1" thickBot="1">
+    <row r="1" spans="1:68" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1733,9 +1568,9 @@
         <v>150</v>
       </c>
     </row>
-    <row r="2" spans="1:68" s="18" customFormat="1" ht="12.75" customHeight="1">
+    <row r="2" spans="1:68" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>151</v>
+        <v>205</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>67</v>
@@ -1791,10 +1626,10 @@
         <v>83</v>
       </c>
       <c r="BF2" s="18">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="BI2" s="18" t="s">
-        <v>267</v>
+        <v>212</v>
       </c>
       <c r="BJ2" s="18" t="s">
         <v>148</v>
@@ -1809,12 +1644,12 @@
         <v>6</v>
       </c>
       <c r="BP2" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:68" ht="12.75" customHeight="1">
+    <row r="3" spans="1:68" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C3" t="s">
         <v>67</v>
@@ -1870,7 +1705,7 @@
         <v>83</v>
       </c>
       <c r="BI3" s="18" t="s">
-        <v>267</v>
+        <v>212</v>
       </c>
       <c r="BJ3" s="18" t="s">
         <v>148</v>
@@ -1885,12 +1720,12 @@
         <v>6</v>
       </c>
       <c r="BP3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:68" ht="12.75" customHeight="1">
+    <row r="4" spans="1:68" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C4" t="s">
         <v>67</v>
@@ -1946,7 +1781,7 @@
         <v>83</v>
       </c>
       <c r="BI4" s="18" t="s">
-        <v>267</v>
+        <v>212</v>
       </c>
       <c r="BJ4" s="18" t="s">
         <v>148</v>
@@ -1961,12 +1796,12 @@
         <v>6</v>
       </c>
       <c r="BP4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:68" ht="12.75" customHeight="1">
+    <row r="5" spans="1:68" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C5" t="s">
         <v>67</v>
@@ -2022,7 +1857,7 @@
         <v>83</v>
       </c>
       <c r="BI5" s="18" t="s">
-        <v>267</v>
+        <v>212</v>
       </c>
       <c r="BJ5" s="18" t="s">
         <v>148</v>
@@ -2037,12 +1872,12 @@
         <v>6</v>
       </c>
       <c r="BP5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:68" ht="12.75" customHeight="1">
+    <row r="6" spans="1:68" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C6" t="s">
         <v>67</v>
@@ -2098,7 +1933,7 @@
         <v>83</v>
       </c>
       <c r="BI6" s="18" t="s">
-        <v>267</v>
+        <v>212</v>
       </c>
       <c r="BJ6" s="18" t="s">
         <v>148</v>
@@ -2113,12 +1948,12 @@
         <v>6</v>
       </c>
       <c r="BP6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:68" ht="12.75" customHeight="1">
+    <row r="7" spans="1:68" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C7" t="s">
         <v>67</v>
@@ -2174,7 +2009,7 @@
         <v>83</v>
       </c>
       <c r="BI7" s="18" t="s">
-        <v>267</v>
+        <v>212</v>
       </c>
       <c r="BJ7" s="18" t="s">
         <v>148</v>
@@ -2189,12 +2024,12 @@
         <v>6</v>
       </c>
       <c r="BP7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:68" ht="12.75" customHeight="1">
+    <row r="8" spans="1:68" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C8" t="s">
         <v>67</v>
@@ -2250,7 +2085,7 @@
         <v>83</v>
       </c>
       <c r="BI8" s="18" t="s">
-        <v>267</v>
+        <v>212</v>
       </c>
       <c r="BJ8" s="18" t="s">
         <v>148</v>
@@ -2265,12 +2100,12 @@
         <v>6</v>
       </c>
       <c r="BP8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:68" ht="12.75" customHeight="1">
+    <row r="9" spans="1:68" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C9" t="s">
         <v>67</v>
@@ -2324,7 +2159,7 @@
         <v>83</v>
       </c>
       <c r="BI9" s="18" t="s">
-        <v>267</v>
+        <v>212</v>
       </c>
       <c r="BJ9" s="18" t="s">
         <v>148</v>
@@ -2339,12 +2174,12 @@
         <v>6</v>
       </c>
       <c r="BP9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:68" ht="12.75" customHeight="1">
+    <row r="10" spans="1:68" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C10" t="s">
         <v>67</v>
@@ -2398,7 +2233,7 @@
         <v>83</v>
       </c>
       <c r="BI10" s="18" t="s">
-        <v>267</v>
+        <v>212</v>
       </c>
       <c r="BJ10" s="18" t="s">
         <v>148</v>
@@ -2413,12 +2248,12 @@
         <v>6</v>
       </c>
       <c r="BP10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:68" ht="12.75" customHeight="1">
+    <row r="11" spans="1:68" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C11" t="s">
         <v>67</v>
@@ -2472,7 +2307,7 @@
         <v>83</v>
       </c>
       <c r="BI11" s="18" t="s">
-        <v>267</v>
+        <v>212</v>
       </c>
       <c r="BJ11" s="18" t="s">
         <v>148</v>
@@ -2487,12 +2322,12 @@
         <v>6</v>
       </c>
       <c r="BP11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:68" ht="12.75" customHeight="1">
+    <row r="12" spans="1:68" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C12" t="s">
         <v>67</v>
@@ -2546,7 +2381,7 @@
         <v>83</v>
       </c>
       <c r="BI12" s="18" t="s">
-        <v>267</v>
+        <v>212</v>
       </c>
       <c r="BJ12" s="18" t="s">
         <v>148</v>
@@ -2561,12 +2396,12 @@
         <v>6</v>
       </c>
       <c r="BP12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:68" ht="12.75" customHeight="1">
+    <row r="13" spans="1:68" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C13" t="s">
         <v>67</v>
@@ -2620,7 +2455,7 @@
         <v>83</v>
       </c>
       <c r="BI13" s="18" t="s">
-        <v>267</v>
+        <v>212</v>
       </c>
       <c r="BJ13" s="18" t="s">
         <v>148</v>
@@ -2635,12 +2470,12 @@
         <v>6</v>
       </c>
       <c r="BP13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:68" ht="12.75" customHeight="1">
+    <row r="14" spans="1:68" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C14" t="s">
         <v>67</v>
@@ -2694,7 +2529,7 @@
         <v>83</v>
       </c>
       <c r="BI14" s="18" t="s">
-        <v>267</v>
+        <v>212</v>
       </c>
       <c r="BJ14" s="18" t="s">
         <v>148</v>
@@ -2709,12 +2544,12 @@
         <v>6</v>
       </c>
       <c r="BP14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:68" ht="12.75" customHeight="1">
+    <row r="15" spans="1:68" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C15" t="s">
         <v>67</v>
@@ -2768,7 +2603,7 @@
         <v>83</v>
       </c>
       <c r="BI15" s="18" t="s">
-        <v>267</v>
+        <v>212</v>
       </c>
       <c r="BJ15" s="18" t="s">
         <v>148</v>
@@ -2783,12 +2618,12 @@
         <v>6</v>
       </c>
       <c r="BP15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:68" ht="12.75" customHeight="1">
+    <row r="16" spans="1:68" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C16" t="s">
         <v>67</v>
@@ -2842,7 +2677,7 @@
         <v>83</v>
       </c>
       <c r="BI16" s="18" t="s">
-        <v>267</v>
+        <v>212</v>
       </c>
       <c r="BJ16" s="18" t="s">
         <v>148</v>
@@ -2857,12 +2692,12 @@
         <v>6</v>
       </c>
       <c r="BP16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:68" ht="12.75" customHeight="1">
+    <row r="17" spans="1:68" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C17" t="s">
         <v>67</v>
@@ -2916,7 +2751,7 @@
         <v>83</v>
       </c>
       <c r="BI17" s="18" t="s">
-        <v>267</v>
+        <v>212</v>
       </c>
       <c r="BJ17" s="18" t="s">
         <v>148</v>
@@ -2931,12 +2766,12 @@
         <v>6</v>
       </c>
       <c r="BP17">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:68" ht="12.75" customHeight="1">
+    <row r="18" spans="1:68" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C18" t="s">
         <v>67</v>
@@ -2990,7 +2825,7 @@
         <v>83</v>
       </c>
       <c r="BI18" s="18" t="s">
-        <v>267</v>
+        <v>212</v>
       </c>
       <c r="BJ18" s="18" t="s">
         <v>148</v>
@@ -3005,12 +2840,12 @@
         <v>6</v>
       </c>
       <c r="BP18">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:68" ht="12.75" customHeight="1">
+    <row r="19" spans="1:68" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C19" t="s">
         <v>67</v>
@@ -3064,7 +2899,7 @@
         <v>83</v>
       </c>
       <c r="BI19" s="18" t="s">
-        <v>267</v>
+        <v>212</v>
       </c>
       <c r="BJ19" s="18" t="s">
         <v>148</v>
@@ -3079,12 +2914,12 @@
         <v>6</v>
       </c>
       <c r="BP19">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:68" ht="12.75" customHeight="1">
+    <row r="20" spans="1:68" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C20" t="s">
         <v>67</v>
@@ -3138,7 +2973,7 @@
         <v>83</v>
       </c>
       <c r="BI20" s="18" t="s">
-        <v>267</v>
+        <v>212</v>
       </c>
       <c r="BJ20" s="18" t="s">
         <v>148</v>
@@ -3153,12 +2988,12 @@
         <v>6</v>
       </c>
       <c r="BP20">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:68" ht="12.75" customHeight="1">
+    <row r="21" spans="1:68" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C21" t="s">
         <v>67</v>
@@ -3212,7 +3047,7 @@
         <v>83</v>
       </c>
       <c r="BI21" s="18" t="s">
-        <v>267</v>
+        <v>212</v>
       </c>
       <c r="BJ21" s="18" t="s">
         <v>148</v>
@@ -3227,12 +3062,12 @@
         <v>6</v>
       </c>
       <c r="BP21">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:68" ht="12.75" customHeight="1">
+    <row r="22" spans="1:68" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C22" t="s">
         <v>67</v>
@@ -3286,7 +3121,7 @@
         <v>83</v>
       </c>
       <c r="BI22" s="18" t="s">
-        <v>267</v>
+        <v>212</v>
       </c>
       <c r="BJ22" s="18" t="s">
         <v>148</v>
@@ -3301,12 +3136,12 @@
         <v>6</v>
       </c>
       <c r="BP22">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:68" ht="12.75" customHeight="1">
+    <row r="23" spans="1:68" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C23" t="s">
         <v>67</v>
@@ -3360,7 +3195,7 @@
         <v>83</v>
       </c>
       <c r="BI23" s="18" t="s">
-        <v>267</v>
+        <v>212</v>
       </c>
       <c r="BJ23" s="18" t="s">
         <v>148</v>
@@ -3375,12 +3210,12 @@
         <v>6</v>
       </c>
       <c r="BP23">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:68" ht="12.75" customHeight="1">
+    <row r="24" spans="1:68" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C24" t="s">
         <v>67</v>
@@ -3434,7 +3269,7 @@
         <v>83</v>
       </c>
       <c r="BI24" s="18" t="s">
-        <v>267</v>
+        <v>212</v>
       </c>
       <c r="BJ24" s="18" t="s">
         <v>148</v>
@@ -3449,12 +3284,12 @@
         <v>6</v>
       </c>
       <c r="BP24">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:68" ht="12.75" customHeight="1">
+    <row r="25" spans="1:68" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C25" t="s">
         <v>67</v>
@@ -3508,7 +3343,7 @@
         <v>83</v>
       </c>
       <c r="BI25" s="18" t="s">
-        <v>267</v>
+        <v>212</v>
       </c>
       <c r="BJ25" s="18" t="s">
         <v>148</v>
@@ -3523,12 +3358,12 @@
         <v>6</v>
       </c>
       <c r="BP25">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:68" ht="12.75" customHeight="1">
+    <row r="26" spans="1:68" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C26" t="s">
         <v>67</v>
@@ -3582,7 +3417,7 @@
         <v>83</v>
       </c>
       <c r="BI26" s="18" t="s">
-        <v>267</v>
+        <v>212</v>
       </c>
       <c r="BJ26" s="18" t="s">
         <v>148</v>
@@ -3597,12 +3432,12 @@
         <v>6</v>
       </c>
       <c r="BP26">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:68" ht="12.75" customHeight="1">
+    <row r="27" spans="1:68" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C27" t="s">
         <v>67</v>
@@ -3656,7 +3491,7 @@
         <v>83</v>
       </c>
       <c r="BI27" s="18" t="s">
-        <v>267</v>
+        <v>212</v>
       </c>
       <c r="BJ27" s="18" t="s">
         <v>148</v>
@@ -3671,12 +3506,12 @@
         <v>6</v>
       </c>
       <c r="BP27">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:68" ht="12.75" customHeight="1">
+    <row r="28" spans="1:68" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C28" t="s">
         <v>67</v>
@@ -3730,7 +3565,7 @@
         <v>83</v>
       </c>
       <c r="BI28" s="18" t="s">
-        <v>267</v>
+        <v>212</v>
       </c>
       <c r="BJ28" s="18" t="s">
         <v>148</v>
@@ -3745,12 +3580,12 @@
         <v>6</v>
       </c>
       <c r="BP28">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:68" ht="12.75" customHeight="1">
+    <row r="29" spans="1:68" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C29" t="s">
         <v>67</v>
@@ -3804,7 +3639,7 @@
         <v>83</v>
       </c>
       <c r="BI29" s="18" t="s">
-        <v>267</v>
+        <v>212</v>
       </c>
       <c r="BJ29" s="18" t="s">
         <v>148</v>
@@ -3819,12 +3654,12 @@
         <v>6</v>
       </c>
       <c r="BP29">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:68" ht="12.75" customHeight="1">
+    <row r="30" spans="1:68" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C30" t="s">
         <v>67</v>
@@ -3878,7 +3713,7 @@
         <v>83</v>
       </c>
       <c r="BI30" s="18" t="s">
-        <v>267</v>
+        <v>212</v>
       </c>
       <c r="BJ30" s="18" t="s">
         <v>148</v>
@@ -3893,12 +3728,12 @@
         <v>6</v>
       </c>
       <c r="BP30">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:68" ht="12.75" customHeight="1">
+    <row r="31" spans="1:68" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C31" t="s">
         <v>67</v>
@@ -3952,7 +3787,7 @@
         <v>83</v>
       </c>
       <c r="BI31" s="18" t="s">
-        <v>267</v>
+        <v>212</v>
       </c>
       <c r="BJ31" s="18" t="s">
         <v>148</v>
@@ -3967,12 +3802,12 @@
         <v>6</v>
       </c>
       <c r="BP31">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:68" ht="12.75" customHeight="1">
+    <row r="32" spans="1:68" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C32" t="s">
         <v>67</v>
@@ -4026,7 +3861,7 @@
         <v>83</v>
       </c>
       <c r="BI32" s="18" t="s">
-        <v>267</v>
+        <v>212</v>
       </c>
       <c r="BJ32" s="18" t="s">
         <v>148</v>
@@ -4041,12 +3876,12 @@
         <v>6</v>
       </c>
       <c r="BP32">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:68" ht="12.75" customHeight="1">
+    <row r="33" spans="1:68" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C33" t="s">
         <v>67</v>
@@ -4100,7 +3935,7 @@
         <v>83</v>
       </c>
       <c r="BI33" s="18" t="s">
-        <v>267</v>
+        <v>212</v>
       </c>
       <c r="BJ33" s="18" t="s">
         <v>148</v>
@@ -4115,12 +3950,12 @@
         <v>6</v>
       </c>
       <c r="BP33">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:68" ht="12.75" customHeight="1">
+    <row r="34" spans="1:68" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C34" t="s">
         <v>67</v>
@@ -4174,7 +4009,7 @@
         <v>83</v>
       </c>
       <c r="BI34" s="18" t="s">
-        <v>267</v>
+        <v>212</v>
       </c>
       <c r="BJ34" s="18" t="s">
         <v>148</v>
@@ -4189,12 +4024,12 @@
         <v>6</v>
       </c>
       <c r="BP34">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:68" ht="12.75" customHeight="1">
+    <row r="35" spans="1:68" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C35" t="s">
         <v>67</v>
@@ -4248,7 +4083,7 @@
         <v>83</v>
       </c>
       <c r="BI35" s="18" t="s">
-        <v>267</v>
+        <v>212</v>
       </c>
       <c r="BJ35" s="18" t="s">
         <v>148</v>
@@ -4263,12 +4098,12 @@
         <v>6</v>
       </c>
       <c r="BP35">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:68" ht="12.75" customHeight="1">
+    <row r="36" spans="1:68" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C36" t="s">
         <v>67</v>
@@ -4322,7 +4157,7 @@
         <v>83</v>
       </c>
       <c r="BI36" s="18" t="s">
-        <v>267</v>
+        <v>212</v>
       </c>
       <c r="BJ36" s="18" t="s">
         <v>148</v>
@@ -4337,12 +4172,12 @@
         <v>6</v>
       </c>
       <c r="BP36">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:68" ht="12.75" customHeight="1">
+    <row r="37" spans="1:68" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C37" t="s">
         <v>67</v>
@@ -4396,7 +4231,7 @@
         <v>83</v>
       </c>
       <c r="BI37" s="18" t="s">
-        <v>267</v>
+        <v>212</v>
       </c>
       <c r="BJ37" s="18" t="s">
         <v>148</v>
@@ -4411,12 +4246,12 @@
         <v>6</v>
       </c>
       <c r="BP37">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:68" ht="12.75" customHeight="1">
+    <row r="38" spans="1:68" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C38" t="s">
         <v>67</v>
@@ -4470,7 +4305,7 @@
         <v>83</v>
       </c>
       <c r="BI38" s="18" t="s">
-        <v>267</v>
+        <v>212</v>
       </c>
       <c r="BJ38" s="18" t="s">
         <v>148</v>
@@ -4485,12 +4320,12 @@
         <v>6</v>
       </c>
       <c r="BP38">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:68" ht="12.75" customHeight="1">
+    <row r="39" spans="1:68" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C39" t="s">
         <v>67</v>
@@ -4544,7 +4379,7 @@
         <v>83</v>
       </c>
       <c r="BI39" s="18" t="s">
-        <v>267</v>
+        <v>212</v>
       </c>
       <c r="BJ39" s="18" t="s">
         <v>148</v>
@@ -4559,12 +4394,12 @@
         <v>6</v>
       </c>
       <c r="BP39">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:68" ht="12.75" customHeight="1">
+    <row r="40" spans="1:68" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C40" t="s">
         <v>67</v>
@@ -4618,7 +4453,7 @@
         <v>83</v>
       </c>
       <c r="BI40" s="18" t="s">
-        <v>267</v>
+        <v>212</v>
       </c>
       <c r="BJ40" s="18" t="s">
         <v>148</v>
@@ -4633,12 +4468,12 @@
         <v>6</v>
       </c>
       <c r="BP40">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:68" ht="12.75" customHeight="1">
+    <row r="41" spans="1:68" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C41" t="s">
         <v>67</v>
@@ -4692,7 +4527,7 @@
         <v>83</v>
       </c>
       <c r="BI41" s="18" t="s">
-        <v>267</v>
+        <v>212</v>
       </c>
       <c r="BJ41" s="18" t="s">
         <v>148</v>
@@ -4707,12 +4542,12 @@
         <v>6</v>
       </c>
       <c r="BP41">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:68" ht="12.75" customHeight="1">
+    <row r="42" spans="1:68" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C42" t="s">
         <v>67</v>
@@ -4766,7 +4601,7 @@
         <v>83</v>
       </c>
       <c r="BI42" s="18" t="s">
-        <v>267</v>
+        <v>212</v>
       </c>
       <c r="BJ42" s="18" t="s">
         <v>148</v>
@@ -4781,12 +4616,12 @@
         <v>6</v>
       </c>
       <c r="BP42">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:68" ht="12.75" customHeight="1">
+    <row r="43" spans="1:68" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C43" t="s">
         <v>67</v>
@@ -4840,7 +4675,7 @@
         <v>83</v>
       </c>
       <c r="BI43" s="18" t="s">
-        <v>267</v>
+        <v>212</v>
       </c>
       <c r="BJ43" s="18" t="s">
         <v>148</v>
@@ -4855,12 +4690,12 @@
         <v>6</v>
       </c>
       <c r="BP43">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:68" ht="12.75" customHeight="1">
+    <row r="44" spans="1:68" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C44" t="s">
         <v>67</v>
@@ -4914,7 +4749,7 @@
         <v>83</v>
       </c>
       <c r="BI44" s="18" t="s">
-        <v>267</v>
+        <v>212</v>
       </c>
       <c r="BJ44" s="18" t="s">
         <v>148</v>
@@ -4929,12 +4764,12 @@
         <v>6</v>
       </c>
       <c r="BP44">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:68" ht="12.75" customHeight="1">
+    <row r="45" spans="1:68" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C45" t="s">
         <v>67</v>
@@ -4988,7 +4823,7 @@
         <v>83</v>
       </c>
       <c r="BI45" s="18" t="s">
-        <v>267</v>
+        <v>212</v>
       </c>
       <c r="BJ45" s="18" t="s">
         <v>148</v>
@@ -5003,12 +4838,12 @@
         <v>6</v>
       </c>
       <c r="BP45">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:68" ht="12.75" customHeight="1">
+    <row r="46" spans="1:68" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C46" t="s">
         <v>67</v>
@@ -5062,7 +4897,7 @@
         <v>83</v>
       </c>
       <c r="BI46" s="18" t="s">
-        <v>267</v>
+        <v>212</v>
       </c>
       <c r="BJ46" s="18" t="s">
         <v>148</v>
@@ -5077,12 +4912,12 @@
         <v>6</v>
       </c>
       <c r="BP46">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:68" ht="12.75" customHeight="1">
+    <row r="47" spans="1:68" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C47" t="s">
         <v>67</v>
@@ -5136,7 +4971,7 @@
         <v>83</v>
       </c>
       <c r="BI47" s="18" t="s">
-        <v>267</v>
+        <v>212</v>
       </c>
       <c r="BJ47" s="18" t="s">
         <v>148</v>
@@ -5151,12 +4986,12 @@
         <v>6</v>
       </c>
       <c r="BP47">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:68" ht="12.75" customHeight="1">
+    <row r="48" spans="1:68" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C48" t="s">
         <v>67</v>
@@ -5210,7 +5045,7 @@
         <v>83</v>
       </c>
       <c r="BI48" s="18" t="s">
-        <v>267</v>
+        <v>212</v>
       </c>
       <c r="BJ48" s="18" t="s">
         <v>148</v>
@@ -5225,12 +5060,12 @@
         <v>6</v>
       </c>
       <c r="BP48">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:68" ht="12.75" customHeight="1">
+    <row r="49" spans="1:68" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C49" t="s">
         <v>67</v>
@@ -5284,7 +5119,7 @@
         <v>83</v>
       </c>
       <c r="BI49" s="18" t="s">
-        <v>267</v>
+        <v>212</v>
       </c>
       <c r="BJ49" s="18" t="s">
         <v>148</v>
@@ -5299,12 +5134,12 @@
         <v>6</v>
       </c>
       <c r="BP49">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:68" ht="12.75" customHeight="1">
+    <row r="50" spans="1:68" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C50" t="s">
         <v>67</v>
@@ -5358,7 +5193,7 @@
         <v>83</v>
       </c>
       <c r="BI50" s="18" t="s">
-        <v>267</v>
+        <v>212</v>
       </c>
       <c r="BJ50" s="18" t="s">
         <v>148</v>
@@ -5373,12 +5208,12 @@
         <v>6</v>
       </c>
       <c r="BP50">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:68" ht="12.75" customHeight="1">
+    <row r="51" spans="1:68" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C51" t="s">
         <v>67</v>
@@ -5432,7 +5267,7 @@
         <v>83</v>
       </c>
       <c r="BI51" s="18" t="s">
-        <v>267</v>
+        <v>212</v>
       </c>
       <c r="BJ51" s="18" t="s">
         <v>148</v>
@@ -5447,12 +5282,12 @@
         <v>6</v>
       </c>
       <c r="BP51">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:68" ht="12.75" customHeight="1">
+    <row r="52" spans="1:68" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C52" t="s">
         <v>67</v>
@@ -5506,7 +5341,7 @@
         <v>83</v>
       </c>
       <c r="BI52" s="18" t="s">
-        <v>267</v>
+        <v>212</v>
       </c>
       <c r="BJ52" s="18" t="s">
         <v>148</v>
@@ -5521,12 +5356,12 @@
         <v>6</v>
       </c>
       <c r="BP52">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:68" ht="12.75" customHeight="1">
+    <row r="53" spans="1:68" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C53" t="s">
         <v>67</v>
@@ -5580,7 +5415,7 @@
         <v>83</v>
       </c>
       <c r="BI53" s="18" t="s">
-        <v>267</v>
+        <v>212</v>
       </c>
       <c r="BJ53" s="18" t="s">
         <v>148</v>
@@ -5595,12 +5430,12 @@
         <v>6</v>
       </c>
       <c r="BP53">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:68" ht="12.75" customHeight="1">
+    <row r="54" spans="1:68" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C54" t="s">
         <v>67</v>
@@ -5654,7 +5489,7 @@
         <v>83</v>
       </c>
       <c r="BI54" s="18" t="s">
-        <v>267</v>
+        <v>212</v>
       </c>
       <c r="BJ54" s="18" t="s">
         <v>148</v>
@@ -5669,12 +5504,12 @@
         <v>6</v>
       </c>
       <c r="BP54">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:68" ht="12.75" customHeight="1">
+    <row r="55" spans="1:68" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C55" t="s">
         <v>67</v>
@@ -5728,7 +5563,7 @@
         <v>83</v>
       </c>
       <c r="BI55" s="18" t="s">
-        <v>267</v>
+        <v>212</v>
       </c>
       <c r="BJ55" s="18" t="s">
         <v>148</v>
@@ -5743,12 +5578,12 @@
         <v>6</v>
       </c>
       <c r="BP55">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:68" ht="12.75" customHeight="1">
+    <row r="56" spans="1:68" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C56" t="s">
         <v>67</v>
@@ -5802,7 +5637,7 @@
         <v>83</v>
       </c>
       <c r="BI56" s="18" t="s">
-        <v>267</v>
+        <v>212</v>
       </c>
       <c r="BJ56" s="18" t="s">
         <v>148</v>
@@ -5817,18 +5652,18 @@
         <v>6</v>
       </c>
       <c r="BP56">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:68" s="18" customFormat="1" ht="12.75" customHeight="1">
+    <row r="57" spans="1:68" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="18" t="s">
-        <v>260</v>
+        <v>206</v>
       </c>
       <c r="C57" s="18" t="s">
         <v>67</v>
       </c>
       <c r="D57" s="18" t="s">
-        <v>70</v>
+        <v>207</v>
       </c>
       <c r="E57" s="18" t="s">
         <v>77</v>
@@ -5845,8 +5680,6 @@
       <c r="O57" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="Q57" s="19"/>
-      <c r="R57" s="19"/>
       <c r="T57" s="18" t="s">
         <v>79</v>
       </c>
@@ -5857,16 +5690,16 @@
         <v>1</v>
       </c>
       <c r="AR57" s="18" t="s">
-        <v>69</v>
+        <v>208</v>
       </c>
       <c r="AT57" s="18" t="s">
-        <v>69</v>
+        <v>208</v>
       </c>
       <c r="AW57" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="AX57" s="20" t="s">
-        <v>81</v>
+        <v>209</v>
+      </c>
+      <c r="AX57" s="23" t="s">
+        <v>210</v>
       </c>
       <c r="BC57" s="21" t="s">
         <v>149</v>
@@ -5878,13 +5711,13 @@
         <v>83</v>
       </c>
       <c r="BF57" s="18">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="BI57" s="18" t="s">
-        <v>267</v>
+        <v>212</v>
       </c>
       <c r="BJ57" s="18" t="s">
-        <v>148</v>
+        <v>211</v>
       </c>
       <c r="BM57" s="18">
         <v>0</v>
@@ -5896,4213 +5729,73 @@
         <v>6</v>
       </c>
       <c r="BP57" s="18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:68" ht="12.75" customHeight="1">
-      <c r="A58" t="s">
-        <v>206</v>
-      </c>
-      <c r="C58" t="s">
-        <v>67</v>
-      </c>
-      <c r="D58" t="s">
-        <v>71</v>
-      </c>
-      <c r="E58" t="s">
-        <v>77</v>
-      </c>
-      <c r="J58" t="s">
-        <v>147</v>
-      </c>
-      <c r="L58">
-        <v>6</v>
-      </c>
-      <c r="N58">
-        <v>1</v>
-      </c>
-      <c r="O58" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q58" s="6"/>
-      <c r="R58" s="6"/>
-      <c r="T58" t="s">
-        <v>79</v>
-      </c>
-      <c r="U58" t="s">
-        <v>80</v>
-      </c>
-      <c r="AK58">
-        <v>1</v>
-      </c>
-      <c r="AR58" t="s">
-        <v>69</v>
-      </c>
-      <c r="AT58" t="s">
-        <v>69</v>
-      </c>
-      <c r="AW58" t="s">
-        <v>68</v>
-      </c>
-      <c r="AX58" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="BC58" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="BD58" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="BE58" t="s">
-        <v>83</v>
-      </c>
-      <c r="BI58" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="BJ58" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="BM58">
-        <v>0</v>
-      </c>
-      <c r="BN58">
-        <v>0</v>
-      </c>
-      <c r="BO58">
-        <v>6</v>
-      </c>
-      <c r="BP58">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:68" ht="12.75" customHeight="1">
-      <c r="A59" t="s">
-        <v>207</v>
-      </c>
-      <c r="C59" t="s">
-        <v>67</v>
-      </c>
-      <c r="D59" t="s">
-        <v>72</v>
-      </c>
-      <c r="E59" t="s">
-        <v>77</v>
-      </c>
-      <c r="J59" t="s">
-        <v>147</v>
-      </c>
-      <c r="L59">
-        <v>6</v>
-      </c>
-      <c r="N59">
-        <v>1</v>
-      </c>
-      <c r="O59" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q59" s="6"/>
-      <c r="R59" s="6"/>
-      <c r="T59" t="s">
-        <v>79</v>
-      </c>
-      <c r="U59" t="s">
-        <v>80</v>
-      </c>
-      <c r="AK59">
-        <v>1</v>
-      </c>
-      <c r="AR59" t="s">
-        <v>69</v>
-      </c>
-      <c r="AT59" t="s">
-        <v>69</v>
-      </c>
-      <c r="AW59" t="s">
-        <v>68</v>
-      </c>
-      <c r="AX59" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="BC59" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="BD59" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="BE59" t="s">
-        <v>83</v>
-      </c>
-      <c r="BI59" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="BJ59" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="BM59">
-        <v>0</v>
-      </c>
-      <c r="BN59">
-        <v>0</v>
-      </c>
-      <c r="BO59">
-        <v>6</v>
-      </c>
-      <c r="BP59">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:68" ht="12.75" customHeight="1">
-      <c r="A60" t="s">
-        <v>208</v>
-      </c>
-      <c r="C60" t="s">
-        <v>67</v>
-      </c>
-      <c r="D60" t="s">
-        <v>73</v>
-      </c>
-      <c r="E60" t="s">
-        <v>77</v>
-      </c>
-      <c r="J60" t="s">
-        <v>147</v>
-      </c>
-      <c r="L60">
-        <v>6</v>
-      </c>
-      <c r="N60">
-        <v>1</v>
-      </c>
-      <c r="O60" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q60" s="6"/>
-      <c r="R60" s="6"/>
-      <c r="T60" t="s">
-        <v>79</v>
-      </c>
-      <c r="U60" t="s">
-        <v>80</v>
-      </c>
-      <c r="AK60">
-        <v>1</v>
-      </c>
-      <c r="AR60" t="s">
-        <v>69</v>
-      </c>
-      <c r="AT60" t="s">
-        <v>69</v>
-      </c>
-      <c r="AW60" t="s">
-        <v>68</v>
-      </c>
-      <c r="AX60" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="BC60" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="BD60" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="BE60" t="s">
-        <v>83</v>
-      </c>
-      <c r="BI60" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="BJ60" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="BM60">
-        <v>0</v>
-      </c>
-      <c r="BN60">
-        <v>0</v>
-      </c>
-      <c r="BO60">
-        <v>6</v>
-      </c>
-      <c r="BP60">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:68" ht="12.75" customHeight="1">
-      <c r="A61" t="s">
-        <v>209</v>
-      </c>
-      <c r="C61" t="s">
-        <v>67</v>
-      </c>
-      <c r="D61" t="s">
-        <v>74</v>
-      </c>
-      <c r="E61" t="s">
-        <v>77</v>
-      </c>
-      <c r="J61" t="s">
-        <v>147</v>
-      </c>
-      <c r="L61">
-        <v>6</v>
-      </c>
-      <c r="N61">
-        <v>1</v>
-      </c>
-      <c r="O61" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q61" s="6"/>
-      <c r="R61" s="6"/>
-      <c r="T61" t="s">
-        <v>79</v>
-      </c>
-      <c r="U61" t="s">
-        <v>80</v>
-      </c>
-      <c r="AK61">
-        <v>1</v>
-      </c>
-      <c r="AR61" t="s">
-        <v>69</v>
-      </c>
-      <c r="AT61" t="s">
-        <v>69</v>
-      </c>
-      <c r="AW61" t="s">
-        <v>68</v>
-      </c>
-      <c r="AX61" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="BC61" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="BD61" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="BE61" t="s">
-        <v>83</v>
-      </c>
-      <c r="BI61" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="BJ61" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="BM61">
-        <v>0</v>
-      </c>
-      <c r="BN61">
-        <v>0</v>
-      </c>
-      <c r="BO61">
-        <v>6</v>
-      </c>
-      <c r="BP61">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:68" ht="12.75" customHeight="1">
-      <c r="A62" t="s">
-        <v>210</v>
-      </c>
-      <c r="C62" t="s">
-        <v>67</v>
-      </c>
-      <c r="D62" t="s">
-        <v>75</v>
-      </c>
-      <c r="E62" t="s">
-        <v>77</v>
-      </c>
-      <c r="J62" t="s">
-        <v>147</v>
-      </c>
-      <c r="L62">
-        <v>6</v>
-      </c>
-      <c r="N62">
-        <v>1</v>
-      </c>
-      <c r="O62" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q62" s="6"/>
-      <c r="R62" s="6"/>
-      <c r="T62" t="s">
-        <v>79</v>
-      </c>
-      <c r="U62" t="s">
-        <v>80</v>
-      </c>
-      <c r="AK62">
-        <v>1</v>
-      </c>
-      <c r="AR62" t="s">
-        <v>69</v>
-      </c>
-      <c r="AT62" t="s">
-        <v>69</v>
-      </c>
-      <c r="AW62" t="s">
-        <v>68</v>
-      </c>
-      <c r="AX62" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="BC62" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="BD62" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="BE62" t="s">
-        <v>83</v>
-      </c>
-      <c r="BI62" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="BJ62" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="BM62">
-        <v>0</v>
-      </c>
-      <c r="BN62">
-        <v>0</v>
-      </c>
-      <c r="BO62">
-        <v>6</v>
-      </c>
-      <c r="BP62">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:68" ht="12.75" customHeight="1">
-      <c r="A63" t="s">
-        <v>211</v>
-      </c>
-      <c r="C63" t="s">
-        <v>67</v>
-      </c>
-      <c r="D63" t="s">
-        <v>76</v>
-      </c>
-      <c r="E63" t="s">
-        <v>77</v>
-      </c>
-      <c r="J63" t="s">
-        <v>147</v>
-      </c>
-      <c r="L63">
-        <v>6</v>
-      </c>
-      <c r="N63">
-        <v>1</v>
-      </c>
-      <c r="O63" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q63" s="6"/>
-      <c r="R63" s="6"/>
-      <c r="T63" t="s">
-        <v>79</v>
-      </c>
-      <c r="U63" t="s">
-        <v>80</v>
-      </c>
-      <c r="AK63">
-        <v>1</v>
-      </c>
-      <c r="AR63" t="s">
-        <v>69</v>
-      </c>
-      <c r="AT63" t="s">
-        <v>69</v>
-      </c>
-      <c r="AW63" t="s">
-        <v>68</v>
-      </c>
-      <c r="AX63" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="BC63" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="BD63" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="BE63" t="s">
-        <v>83</v>
-      </c>
-      <c r="BI63" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="BJ63" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="BM63">
-        <v>0</v>
-      </c>
-      <c r="BN63">
-        <v>0</v>
-      </c>
-      <c r="BO63">
-        <v>6</v>
-      </c>
-      <c r="BP63">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:68" ht="12.75" customHeight="1">
-      <c r="A64" t="s">
-        <v>212</v>
-      </c>
-      <c r="C64" t="s">
-        <v>67</v>
-      </c>
-      <c r="D64" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="E64" t="s">
-        <v>77</v>
-      </c>
-      <c r="J64" t="s">
-        <v>147</v>
-      </c>
-      <c r="L64">
-        <v>6</v>
-      </c>
-      <c r="N64">
-        <v>1</v>
-      </c>
-      <c r="O64" t="s">
-        <v>78</v>
-      </c>
-      <c r="T64" t="s">
-        <v>79</v>
-      </c>
-      <c r="U64" t="s">
-        <v>80</v>
-      </c>
-      <c r="AK64">
-        <v>1</v>
-      </c>
-      <c r="AR64" t="s">
-        <v>90</v>
-      </c>
-      <c r="AT64" t="s">
-        <v>90</v>
-      </c>
-      <c r="AW64" t="s">
-        <v>105</v>
-      </c>
-      <c r="AX64" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="BC64" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="BD64" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="BE64" t="s">
-        <v>83</v>
-      </c>
-      <c r="BI64" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="BJ64" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="BM64">
-        <v>0</v>
-      </c>
-      <c r="BN64">
-        <v>0</v>
-      </c>
-      <c r="BO64">
-        <v>6</v>
-      </c>
-      <c r="BP64">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:68" ht="12.75" customHeight="1">
-      <c r="A65" t="s">
-        <v>213</v>
-      </c>
-      <c r="C65" t="s">
-        <v>67</v>
-      </c>
-      <c r="D65" t="s">
-        <v>85</v>
-      </c>
-      <c r="E65" t="s">
-        <v>77</v>
-      </c>
-      <c r="J65" t="s">
-        <v>147</v>
-      </c>
-      <c r="L65">
-        <v>6</v>
-      </c>
-      <c r="N65">
-        <v>1</v>
-      </c>
-      <c r="O65" t="s">
-        <v>78</v>
-      </c>
-      <c r="T65" t="s">
-        <v>79</v>
-      </c>
-      <c r="U65" t="s">
-        <v>80</v>
-      </c>
-      <c r="AK65">
-        <v>1</v>
-      </c>
-      <c r="AR65" t="s">
-        <v>90</v>
-      </c>
-      <c r="AT65" t="s">
-        <v>90</v>
-      </c>
-      <c r="AW65" t="s">
-        <v>105</v>
-      </c>
-      <c r="AX65" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="BC65" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="BD65" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="BE65" t="s">
-        <v>83</v>
-      </c>
-      <c r="BI65" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="BJ65" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="BM65">
-        <v>0</v>
-      </c>
-      <c r="BN65">
-        <v>0</v>
-      </c>
-      <c r="BO65">
-        <v>6</v>
-      </c>
-      <c r="BP65">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:68" ht="12.75" customHeight="1">
-      <c r="A66" t="s">
-        <v>214</v>
-      </c>
-      <c r="C66" t="s">
-        <v>67</v>
-      </c>
-      <c r="D66" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="E66" t="s">
-        <v>77</v>
-      </c>
-      <c r="J66" t="s">
-        <v>147</v>
-      </c>
-      <c r="L66">
-        <v>6</v>
-      </c>
-      <c r="N66">
-        <v>1</v>
-      </c>
-      <c r="O66" t="s">
-        <v>78</v>
-      </c>
-      <c r="T66" t="s">
-        <v>79</v>
-      </c>
-      <c r="U66" t="s">
-        <v>80</v>
-      </c>
-      <c r="AK66">
-        <v>1</v>
-      </c>
-      <c r="AR66" t="s">
-        <v>90</v>
-      </c>
-      <c r="AT66" t="s">
-        <v>90</v>
-      </c>
-      <c r="AW66" t="s">
-        <v>105</v>
-      </c>
-      <c r="AX66" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="BC66" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="BD66" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="BE66" t="s">
-        <v>83</v>
-      </c>
-      <c r="BI66" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="BJ66" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="BM66">
-        <v>0</v>
-      </c>
-      <c r="BN66">
-        <v>0</v>
-      </c>
-      <c r="BO66">
-        <v>6</v>
-      </c>
-      <c r="BP66">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:68" ht="12.75" customHeight="1">
-      <c r="A67" t="s">
-        <v>215</v>
-      </c>
-      <c r="C67" t="s">
-        <v>67</v>
-      </c>
-      <c r="D67" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="E67" t="s">
-        <v>77</v>
-      </c>
-      <c r="J67" t="s">
-        <v>147</v>
-      </c>
-      <c r="L67">
-        <v>6</v>
-      </c>
-      <c r="N67">
-        <v>1</v>
-      </c>
-      <c r="O67" t="s">
-        <v>78</v>
-      </c>
-      <c r="T67" t="s">
-        <v>79</v>
-      </c>
-      <c r="U67" t="s">
-        <v>80</v>
-      </c>
-      <c r="AK67">
-        <v>1</v>
-      </c>
-      <c r="AR67" t="s">
-        <v>90</v>
-      </c>
-      <c r="AT67" t="s">
-        <v>90</v>
-      </c>
-      <c r="AW67" t="s">
-        <v>105</v>
-      </c>
-      <c r="AX67" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="BC67" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="BD67" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="BE67" t="s">
-        <v>83</v>
-      </c>
-      <c r="BI67" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="BJ67" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="BM67">
-        <v>0</v>
-      </c>
-      <c r="BN67">
-        <v>0</v>
-      </c>
-      <c r="BO67">
-        <v>6</v>
-      </c>
-      <c r="BP67">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:68" ht="12.75" customHeight="1">
-      <c r="A68" t="s">
-        <v>216</v>
-      </c>
-      <c r="C68" t="s">
-        <v>67</v>
-      </c>
-      <c r="D68" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="E68" t="s">
-        <v>77</v>
-      </c>
-      <c r="J68" t="s">
-        <v>147</v>
-      </c>
-      <c r="L68">
-        <v>6</v>
-      </c>
-      <c r="N68">
-        <v>1</v>
-      </c>
-      <c r="O68" t="s">
-        <v>78</v>
-      </c>
-      <c r="T68" t="s">
-        <v>79</v>
-      </c>
-      <c r="U68" t="s">
-        <v>80</v>
-      </c>
-      <c r="AK68" s="12">
-        <v>-1</v>
-      </c>
-      <c r="AR68" t="s">
-        <v>90</v>
-      </c>
-      <c r="AT68" t="s">
-        <v>90</v>
-      </c>
-      <c r="AW68" t="s">
-        <v>105</v>
-      </c>
-      <c r="AX68" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="BC68" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="BD68" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="BE68" t="s">
-        <v>83</v>
-      </c>
-      <c r="BI68" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="BJ68" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="BM68">
-        <v>0</v>
-      </c>
-      <c r="BN68">
-        <v>0</v>
-      </c>
-      <c r="BO68">
-        <v>6</v>
-      </c>
-      <c r="BP68">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:68" ht="12.75" customHeight="1">
-      <c r="A69" t="s">
-        <v>217</v>
-      </c>
-      <c r="C69" t="s">
-        <v>67</v>
-      </c>
-      <c r="D69" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="E69" t="s">
-        <v>77</v>
-      </c>
-      <c r="J69" t="s">
-        <v>147</v>
-      </c>
-      <c r="L69">
-        <v>6</v>
-      </c>
-      <c r="N69">
-        <v>1</v>
-      </c>
-      <c r="O69" t="s">
-        <v>78</v>
-      </c>
-      <c r="T69" t="s">
-        <v>79</v>
-      </c>
-      <c r="U69" t="s">
-        <v>80</v>
-      </c>
-      <c r="AK69">
-        <v>1</v>
-      </c>
-      <c r="AR69" t="s">
-        <v>90</v>
-      </c>
-      <c r="AT69" t="s">
-        <v>90</v>
-      </c>
-      <c r="AW69" t="s">
-        <v>105</v>
-      </c>
-      <c r="AX69" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="BC69" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="BD69" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="BE69" t="s">
-        <v>83</v>
-      </c>
-      <c r="BI69" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="BJ69" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="BM69">
-        <v>0</v>
-      </c>
-      <c r="BN69">
-        <v>0</v>
-      </c>
-      <c r="BO69">
-        <v>6</v>
-      </c>
-      <c r="BP69">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:68" ht="12.75" customHeight="1">
-      <c r="A70" t="s">
-        <v>218</v>
-      </c>
-      <c r="C70" t="s">
-        <v>67</v>
-      </c>
-      <c r="D70" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="E70" t="s">
-        <v>77</v>
-      </c>
-      <c r="J70" t="s">
-        <v>147</v>
-      </c>
-      <c r="L70">
-        <v>6</v>
-      </c>
-      <c r="N70">
-        <v>1</v>
-      </c>
-      <c r="O70" t="s">
-        <v>78</v>
-      </c>
-      <c r="T70" t="s">
-        <v>79</v>
-      </c>
-      <c r="U70" t="s">
-        <v>80</v>
-      </c>
-      <c r="AK70">
-        <v>1</v>
-      </c>
-      <c r="AR70" t="s">
-        <v>99</v>
-      </c>
-      <c r="AT70" t="s">
-        <v>99</v>
-      </c>
-      <c r="AW70" t="s">
-        <v>104</v>
-      </c>
-      <c r="AX70" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="BC70" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="BD70" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="BE70" t="s">
-        <v>83</v>
-      </c>
-      <c r="BI70" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="BJ70" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="BM70">
-        <v>0</v>
-      </c>
-      <c r="BN70">
-        <v>0</v>
-      </c>
-      <c r="BO70">
-        <v>6</v>
-      </c>
-      <c r="BP70">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:68" ht="12.75" customHeight="1">
-      <c r="A71" t="s">
-        <v>219</v>
-      </c>
-      <c r="C71" t="s">
-        <v>67</v>
-      </c>
-      <c r="D71" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="E71" t="s">
-        <v>77</v>
-      </c>
-      <c r="J71" t="s">
-        <v>147</v>
-      </c>
-      <c r="L71">
-        <v>6</v>
-      </c>
-      <c r="N71">
-        <v>1</v>
-      </c>
-      <c r="O71" t="s">
-        <v>78</v>
-      </c>
-      <c r="T71" t="s">
-        <v>79</v>
-      </c>
-      <c r="U71" t="s">
-        <v>80</v>
-      </c>
-      <c r="AK71">
-        <v>1</v>
-      </c>
-      <c r="AR71" t="s">
-        <v>99</v>
-      </c>
-      <c r="AT71" t="s">
-        <v>99</v>
-      </c>
-      <c r="AW71" t="s">
-        <v>104</v>
-      </c>
-      <c r="AX71" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="BC71" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="BD71" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="BE71" t="s">
-        <v>83</v>
-      </c>
-      <c r="BI71" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="BJ71" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="BM71">
-        <v>0</v>
-      </c>
-      <c r="BN71">
-        <v>0</v>
-      </c>
-      <c r="BO71">
-        <v>6</v>
-      </c>
-      <c r="BP71">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:68" ht="12.75" customHeight="1">
-      <c r="A72" t="s">
-        <v>220</v>
-      </c>
-      <c r="C72" t="s">
-        <v>67</v>
-      </c>
-      <c r="D72" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="E72" t="s">
-        <v>77</v>
-      </c>
-      <c r="J72" t="s">
-        <v>147</v>
-      </c>
-      <c r="L72">
-        <v>6</v>
-      </c>
-      <c r="N72">
-        <v>1</v>
-      </c>
-      <c r="O72" t="s">
-        <v>78</v>
-      </c>
-      <c r="T72" t="s">
-        <v>79</v>
-      </c>
-      <c r="U72" t="s">
-        <v>80</v>
-      </c>
-      <c r="AK72">
-        <v>1</v>
-      </c>
-      <c r="AR72" t="s">
-        <v>99</v>
-      </c>
-      <c r="AT72" t="s">
-        <v>99</v>
-      </c>
-      <c r="AW72" t="s">
-        <v>104</v>
-      </c>
-      <c r="AX72" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="BC72" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="BD72" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="BE72" t="s">
-        <v>83</v>
-      </c>
-      <c r="BI72" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="BJ72" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="BM72">
-        <v>0</v>
-      </c>
-      <c r="BN72">
-        <v>0</v>
-      </c>
-      <c r="BO72">
-        <v>6</v>
-      </c>
-      <c r="BP72">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:68" ht="12.75" customHeight="1">
-      <c r="A73" t="s">
-        <v>221</v>
-      </c>
-      <c r="C73" t="s">
-        <v>67</v>
-      </c>
-      <c r="D73" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="E73" t="s">
-        <v>77</v>
-      </c>
-      <c r="J73" t="s">
-        <v>147</v>
-      </c>
-      <c r="L73">
-        <v>6</v>
-      </c>
-      <c r="N73">
-        <v>1</v>
-      </c>
-      <c r="O73" t="s">
-        <v>78</v>
-      </c>
-      <c r="T73" t="s">
-        <v>79</v>
-      </c>
-      <c r="U73" t="s">
-        <v>80</v>
-      </c>
-      <c r="AK73">
-        <v>1</v>
-      </c>
-      <c r="AR73" t="s">
-        <v>99</v>
-      </c>
-      <c r="AT73" t="s">
-        <v>99</v>
-      </c>
-      <c r="AW73" t="s">
-        <v>104</v>
-      </c>
-      <c r="AX73" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="BC73" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="BD73" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="BE73" t="s">
-        <v>83</v>
-      </c>
-      <c r="BI73" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="BJ73" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="BM73">
-        <v>0</v>
-      </c>
-      <c r="BN73">
-        <v>0</v>
-      </c>
-      <c r="BO73">
-        <v>6</v>
-      </c>
-      <c r="BP73">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:68" ht="12.75" customHeight="1">
-      <c r="A74" t="s">
-        <v>222</v>
-      </c>
-      <c r="C74" t="s">
-        <v>67</v>
-      </c>
-      <c r="D74" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="E74" t="s">
-        <v>77</v>
-      </c>
-      <c r="J74" t="s">
-        <v>147</v>
-      </c>
-      <c r="L74">
-        <v>6</v>
-      </c>
-      <c r="N74">
-        <v>1</v>
-      </c>
-      <c r="O74" t="s">
-        <v>78</v>
-      </c>
-      <c r="T74" t="s">
-        <v>79</v>
-      </c>
-      <c r="U74" t="s">
-        <v>80</v>
-      </c>
-      <c r="AK74">
-        <v>1</v>
-      </c>
-      <c r="AR74" t="s">
-        <v>99</v>
-      </c>
-      <c r="AT74" t="s">
-        <v>99</v>
-      </c>
-      <c r="AW74" t="s">
-        <v>104</v>
-      </c>
-      <c r="AX74" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="BC74" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="BD74" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="BE74" t="s">
-        <v>83</v>
-      </c>
-      <c r="BI74" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="BJ74" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="BM74">
-        <v>0</v>
-      </c>
-      <c r="BN74">
-        <v>0</v>
-      </c>
-      <c r="BO74">
-        <v>6</v>
-      </c>
-      <c r="BP74">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:68" ht="12.75" customHeight="1">
-      <c r="A75" t="s">
-        <v>223</v>
-      </c>
-      <c r="C75" t="s">
-        <v>67</v>
-      </c>
-      <c r="D75" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E75" t="s">
-        <v>77</v>
-      </c>
-      <c r="J75" t="s">
-        <v>147</v>
-      </c>
-      <c r="L75">
-        <v>6</v>
-      </c>
-      <c r="N75">
-        <v>1</v>
-      </c>
-      <c r="O75" t="s">
-        <v>78</v>
-      </c>
-      <c r="T75" t="s">
-        <v>79</v>
-      </c>
-      <c r="U75" t="s">
-        <v>80</v>
-      </c>
-      <c r="AK75">
-        <v>1</v>
-      </c>
-      <c r="AR75" t="s">
-        <v>99</v>
-      </c>
-      <c r="AT75" t="s">
-        <v>99</v>
-      </c>
-      <c r="AW75" t="s">
-        <v>104</v>
-      </c>
-      <c r="AX75" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="BC75" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="BD75" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="BE75" t="s">
-        <v>83</v>
-      </c>
-      <c r="BI75" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="BJ75" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="BM75">
-        <v>0</v>
-      </c>
-      <c r="BN75">
-        <v>0</v>
-      </c>
-      <c r="BO75">
-        <v>6</v>
-      </c>
-      <c r="BP75">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:68" ht="12.75" customHeight="1">
-      <c r="A76" t="s">
-        <v>224</v>
-      </c>
-      <c r="C76" t="s">
-        <v>67</v>
-      </c>
-      <c r="D76" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E76" t="s">
-        <v>77</v>
-      </c>
-      <c r="J76" t="s">
-        <v>147</v>
-      </c>
-      <c r="L76">
-        <v>6</v>
-      </c>
-      <c r="N76">
-        <v>1</v>
-      </c>
-      <c r="O76" t="s">
-        <v>78</v>
-      </c>
-      <c r="T76" t="s">
-        <v>79</v>
-      </c>
-      <c r="U76" t="s">
-        <v>80</v>
-      </c>
-      <c r="AK76">
-        <v>1</v>
-      </c>
-      <c r="AR76" t="s">
-        <v>99</v>
-      </c>
-      <c r="AT76" t="s">
-        <v>99</v>
-      </c>
-      <c r="AW76" t="s">
-        <v>104</v>
-      </c>
-      <c r="AX76" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="BC76" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="BD76" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="BE76" t="s">
-        <v>83</v>
-      </c>
-      <c r="BI76" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="BJ76" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="BM76">
-        <v>0</v>
-      </c>
-      <c r="BN76">
-        <v>0</v>
-      </c>
-      <c r="BO76">
-        <v>6</v>
-      </c>
-      <c r="BP76">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:68" ht="12.75" customHeight="1">
-      <c r="A77" t="s">
-        <v>225</v>
-      </c>
-      <c r="C77" t="s">
-        <v>67</v>
-      </c>
-      <c r="D77" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="E77" t="s">
-        <v>77</v>
-      </c>
-      <c r="J77" t="s">
-        <v>147</v>
-      </c>
-      <c r="L77">
-        <v>6</v>
-      </c>
-      <c r="N77">
-        <v>1</v>
-      </c>
-      <c r="O77" t="s">
-        <v>78</v>
-      </c>
-      <c r="T77" t="s">
-        <v>79</v>
-      </c>
-      <c r="U77" t="s">
-        <v>80</v>
-      </c>
-      <c r="AK77">
-        <v>1</v>
-      </c>
-      <c r="AR77" t="s">
-        <v>99</v>
-      </c>
-      <c r="AT77" t="s">
-        <v>99</v>
-      </c>
-      <c r="AW77" t="s">
-        <v>104</v>
-      </c>
-      <c r="AX77" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="BC77" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="BD77" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="BE77" t="s">
-        <v>83</v>
-      </c>
-      <c r="BI77" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="BJ77" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="BM77">
-        <v>0</v>
-      </c>
-      <c r="BN77">
-        <v>0</v>
-      </c>
-      <c r="BO77">
-        <v>6</v>
-      </c>
-      <c r="BP77">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:68" ht="12.75" customHeight="1">
-      <c r="A78" t="s">
-        <v>226</v>
-      </c>
-      <c r="C78" t="s">
-        <v>67</v>
-      </c>
-      <c r="D78" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="E78" t="s">
-        <v>77</v>
-      </c>
-      <c r="J78" t="s">
-        <v>147</v>
-      </c>
-      <c r="L78">
-        <v>6</v>
-      </c>
-      <c r="N78">
-        <v>1</v>
-      </c>
-      <c r="O78" t="s">
-        <v>78</v>
-      </c>
-      <c r="T78" t="s">
-        <v>79</v>
-      </c>
-      <c r="U78" t="s">
-        <v>80</v>
-      </c>
-      <c r="AK78">
-        <v>1</v>
-      </c>
-      <c r="AR78" t="s">
-        <v>100</v>
-      </c>
-      <c r="AT78" t="s">
-        <v>100</v>
-      </c>
-      <c r="AW78" t="s">
-        <v>108</v>
-      </c>
-      <c r="AX78" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="BC78" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="BD78" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="BE78" t="s">
-        <v>83</v>
-      </c>
-      <c r="BI78" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="BJ78" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="BM78">
-        <v>0</v>
-      </c>
-      <c r="BN78">
-        <v>0</v>
-      </c>
-      <c r="BO78">
-        <v>6</v>
-      </c>
-      <c r="BP78">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:68" ht="12.75" customHeight="1">
-      <c r="A79" t="s">
-        <v>227</v>
-      </c>
-      <c r="C79" t="s">
-        <v>67</v>
-      </c>
-      <c r="D79" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="E79" t="s">
-        <v>77</v>
-      </c>
-      <c r="J79" t="s">
-        <v>147</v>
-      </c>
-      <c r="L79">
-        <v>6</v>
-      </c>
-      <c r="N79">
-        <v>1</v>
-      </c>
-      <c r="O79" t="s">
-        <v>78</v>
-      </c>
-      <c r="T79" t="s">
-        <v>79</v>
-      </c>
-      <c r="U79" t="s">
-        <v>80</v>
-      </c>
-      <c r="AK79">
-        <v>1</v>
-      </c>
-      <c r="AR79" t="s">
-        <v>100</v>
-      </c>
-      <c r="AT79" t="s">
-        <v>100</v>
-      </c>
-      <c r="AW79" t="s">
-        <v>108</v>
-      </c>
-      <c r="AX79" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="BC79" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="BD79" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="BE79" t="s">
-        <v>83</v>
-      </c>
-      <c r="BI79" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="BJ79" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="BM79">
-        <v>0</v>
-      </c>
-      <c r="BN79">
-        <v>0</v>
-      </c>
-      <c r="BO79">
-        <v>6</v>
-      </c>
-      <c r="BP79">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:68" ht="12.75" customHeight="1">
-      <c r="A80" t="s">
-        <v>228</v>
-      </c>
-      <c r="C80" t="s">
-        <v>67</v>
-      </c>
-      <c r="D80" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="E80" t="s">
-        <v>77</v>
-      </c>
-      <c r="J80" t="s">
-        <v>147</v>
-      </c>
-      <c r="L80">
-        <v>6</v>
-      </c>
-      <c r="N80">
-        <v>1</v>
-      </c>
-      <c r="O80" t="s">
-        <v>78</v>
-      </c>
-      <c r="T80" t="s">
-        <v>79</v>
-      </c>
-      <c r="U80" t="s">
-        <v>80</v>
-      </c>
-      <c r="AK80">
-        <v>1</v>
-      </c>
-      <c r="AR80" t="s">
-        <v>100</v>
-      </c>
-      <c r="AT80" t="s">
-        <v>100</v>
-      </c>
-      <c r="AW80" t="s">
-        <v>108</v>
-      </c>
-      <c r="AX80" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="BC80" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="BD80" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="BE80" t="s">
-        <v>83</v>
-      </c>
-      <c r="BI80" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="BJ80" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="BM80">
-        <v>0</v>
-      </c>
-      <c r="BN80">
-        <v>0</v>
-      </c>
-      <c r="BO80">
-        <v>6</v>
-      </c>
-      <c r="BP80">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:68" ht="12.75" customHeight="1">
-      <c r="A81" t="s">
-        <v>229</v>
-      </c>
-      <c r="C81" t="s">
-        <v>67</v>
-      </c>
-      <c r="D81" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="E81" t="s">
-        <v>77</v>
-      </c>
-      <c r="J81" t="s">
-        <v>147</v>
-      </c>
-      <c r="L81">
-        <v>6</v>
-      </c>
-      <c r="N81">
-        <v>1</v>
-      </c>
-      <c r="O81" t="s">
-        <v>78</v>
-      </c>
-      <c r="T81" t="s">
-        <v>79</v>
-      </c>
-      <c r="U81" t="s">
-        <v>80</v>
-      </c>
-      <c r="AK81">
-        <v>1</v>
-      </c>
-      <c r="AR81" t="s">
-        <v>100</v>
-      </c>
-      <c r="AT81" t="s">
-        <v>100</v>
-      </c>
-      <c r="AW81" t="s">
-        <v>108</v>
-      </c>
-      <c r="AX81" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="BC81" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="BD81" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="BE81" t="s">
-        <v>83</v>
-      </c>
-      <c r="BI81" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="BJ81" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="BM81">
-        <v>0</v>
-      </c>
-      <c r="BN81">
-        <v>0</v>
-      </c>
-      <c r="BO81">
-        <v>6</v>
-      </c>
-      <c r="BP81">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:68" ht="12.75" customHeight="1">
-      <c r="A82" t="s">
-        <v>230</v>
-      </c>
-      <c r="C82" t="s">
-        <v>67</v>
-      </c>
-      <c r="D82" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="E82" t="s">
-        <v>77</v>
-      </c>
-      <c r="J82" t="s">
-        <v>147</v>
-      </c>
-      <c r="L82">
-        <v>6</v>
-      </c>
-      <c r="N82">
-        <v>1</v>
-      </c>
-      <c r="O82" t="s">
-        <v>78</v>
-      </c>
-      <c r="T82" t="s">
-        <v>79</v>
-      </c>
-      <c r="U82" t="s">
-        <v>80</v>
-      </c>
-      <c r="AK82">
-        <v>1</v>
-      </c>
-      <c r="AR82" t="s">
-        <v>100</v>
-      </c>
-      <c r="AT82" t="s">
-        <v>100</v>
-      </c>
-      <c r="AW82" t="s">
-        <v>108</v>
-      </c>
-      <c r="AX82" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="BC82" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="BD82" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="BE82" t="s">
-        <v>83</v>
-      </c>
-      <c r="BI82" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="BJ82" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="BM82">
-        <v>0</v>
-      </c>
-      <c r="BN82">
-        <v>0</v>
-      </c>
-      <c r="BO82">
-        <v>6</v>
-      </c>
-      <c r="BP82">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:68" ht="12.75" customHeight="1">
-      <c r="A83" t="s">
-        <v>231</v>
-      </c>
-      <c r="C83" t="s">
-        <v>67</v>
-      </c>
-      <c r="D83" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="E83" t="s">
-        <v>77</v>
-      </c>
-      <c r="J83" t="s">
-        <v>147</v>
-      </c>
-      <c r="L83">
-        <v>6</v>
-      </c>
-      <c r="N83">
-        <v>1</v>
-      </c>
-      <c r="O83" t="s">
-        <v>78</v>
-      </c>
-      <c r="T83" t="s">
-        <v>79</v>
-      </c>
-      <c r="U83" t="s">
-        <v>80</v>
-      </c>
-      <c r="AK83">
-        <v>1</v>
-      </c>
-      <c r="AR83" t="s">
-        <v>100</v>
-      </c>
-      <c r="AT83" t="s">
-        <v>100</v>
-      </c>
-      <c r="AW83" t="s">
-        <v>108</v>
-      </c>
-      <c r="AX83" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="BC83" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="BD83" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="BE83" t="s">
-        <v>83</v>
-      </c>
-      <c r="BI83" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="BJ83" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="BM83">
-        <v>0</v>
-      </c>
-      <c r="BN83">
-        <v>0</v>
-      </c>
-      <c r="BO83">
-        <v>6</v>
-      </c>
-      <c r="BP83">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:68" ht="12.75" customHeight="1">
-      <c r="A84" t="s">
-        <v>232</v>
-      </c>
-      <c r="C84" t="s">
-        <v>67</v>
-      </c>
-      <c r="D84" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="E84" t="s">
-        <v>77</v>
-      </c>
-      <c r="J84" t="s">
-        <v>147</v>
-      </c>
-      <c r="L84">
-        <v>6</v>
-      </c>
-      <c r="N84">
-        <v>1</v>
-      </c>
-      <c r="O84" t="s">
-        <v>78</v>
-      </c>
-      <c r="T84" t="s">
-        <v>79</v>
-      </c>
-      <c r="U84" t="s">
-        <v>80</v>
-      </c>
-      <c r="AK84">
-        <v>1</v>
-      </c>
-      <c r="AR84" t="s">
-        <v>100</v>
-      </c>
-      <c r="AT84" t="s">
-        <v>100</v>
-      </c>
-      <c r="AW84" t="s">
-        <v>108</v>
-      </c>
-      <c r="AX84" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="BC84" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="BD84" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="BE84" t="s">
-        <v>83</v>
-      </c>
-      <c r="BI84" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="BJ84" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="BM84">
-        <v>0</v>
-      </c>
-      <c r="BN84">
-        <v>0</v>
-      </c>
-      <c r="BO84">
-        <v>6</v>
-      </c>
-      <c r="BP84">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:68" ht="12.75" customHeight="1">
-      <c r="A85" t="s">
-        <v>233</v>
-      </c>
-      <c r="C85" t="s">
-        <v>67</v>
-      </c>
-      <c r="D85" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="E85" t="s">
-        <v>77</v>
-      </c>
-      <c r="J85" t="s">
-        <v>147</v>
-      </c>
-      <c r="L85">
-        <v>6</v>
-      </c>
-      <c r="N85">
-        <v>1</v>
-      </c>
-      <c r="O85" t="s">
-        <v>78</v>
-      </c>
-      <c r="T85" t="s">
-        <v>79</v>
-      </c>
-      <c r="U85" t="s">
-        <v>80</v>
-      </c>
-      <c r="AK85">
-        <v>1</v>
-      </c>
-      <c r="AR85" t="s">
-        <v>100</v>
-      </c>
-      <c r="AT85" t="s">
-        <v>100</v>
-      </c>
-      <c r="AW85" t="s">
-        <v>108</v>
-      </c>
-      <c r="AX85" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="BC85" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="BD85" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="BE85" t="s">
-        <v>83</v>
-      </c>
-      <c r="BI85" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="BJ85" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="BM85">
-        <v>0</v>
-      </c>
-      <c r="BN85">
-        <v>0</v>
-      </c>
-      <c r="BO85">
-        <v>6</v>
-      </c>
-      <c r="BP85">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:68" ht="12.75" customHeight="1">
-      <c r="A86" t="s">
-        <v>234</v>
-      </c>
-      <c r="C86" t="s">
-        <v>67</v>
-      </c>
-      <c r="D86" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="E86" t="s">
-        <v>77</v>
-      </c>
-      <c r="J86" t="s">
-        <v>147</v>
-      </c>
-      <c r="L86">
-        <v>6</v>
-      </c>
-      <c r="N86">
-        <v>1</v>
-      </c>
-      <c r="O86" t="s">
-        <v>78</v>
-      </c>
-      <c r="T86" t="s">
-        <v>79</v>
-      </c>
-      <c r="U86" t="s">
-        <v>80</v>
-      </c>
-      <c r="AK86">
-        <v>1</v>
-      </c>
-      <c r="AR86" t="s">
-        <v>100</v>
-      </c>
-      <c r="AT86" t="s">
-        <v>100</v>
-      </c>
-      <c r="AW86" t="s">
-        <v>108</v>
-      </c>
-      <c r="AX86" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="BC86" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="BD86" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="BE86" t="s">
-        <v>83</v>
-      </c>
-      <c r="BI86" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="BJ86" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="BM86">
-        <v>0</v>
-      </c>
-      <c r="BN86">
-        <v>0</v>
-      </c>
-      <c r="BO86">
-        <v>6</v>
-      </c>
-      <c r="BP86">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:68" ht="12.75" customHeight="1">
-      <c r="A87" t="s">
-        <v>235</v>
-      </c>
-      <c r="C87" t="s">
-        <v>67</v>
-      </c>
-      <c r="D87" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="E87" t="s">
-        <v>77</v>
-      </c>
-      <c r="J87" t="s">
-        <v>147</v>
-      </c>
-      <c r="L87">
-        <v>6</v>
-      </c>
-      <c r="N87">
-        <v>1</v>
-      </c>
-      <c r="O87" t="s">
-        <v>78</v>
-      </c>
-      <c r="T87" t="s">
-        <v>79</v>
-      </c>
-      <c r="U87" t="s">
-        <v>80</v>
-      </c>
-      <c r="AK87">
-        <v>1</v>
-      </c>
-      <c r="AR87" t="s">
-        <v>100</v>
-      </c>
-      <c r="AT87" t="s">
-        <v>100</v>
-      </c>
-      <c r="AW87" t="s">
-        <v>108</v>
-      </c>
-      <c r="AX87" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="BC87" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="BD87" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="BE87" t="s">
-        <v>83</v>
-      </c>
-      <c r="BI87" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="BJ87" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="BM87">
-        <v>0</v>
-      </c>
-      <c r="BN87">
-        <v>0</v>
-      </c>
-      <c r="BO87">
-        <v>6</v>
-      </c>
-      <c r="BP87">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:68" ht="12.75" customHeight="1">
-      <c r="A88" t="s">
-        <v>236</v>
-      </c>
-      <c r="C88" t="s">
-        <v>67</v>
-      </c>
-      <c r="D88" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="E88" t="s">
-        <v>77</v>
-      </c>
-      <c r="J88" t="s">
-        <v>147</v>
-      </c>
-      <c r="L88">
-        <v>6</v>
-      </c>
-      <c r="N88">
-        <v>1</v>
-      </c>
-      <c r="O88" t="s">
-        <v>78</v>
-      </c>
-      <c r="T88" t="s">
-        <v>79</v>
-      </c>
-      <c r="U88" t="s">
-        <v>80</v>
-      </c>
-      <c r="AK88">
-        <v>1</v>
-      </c>
-      <c r="AR88" t="s">
-        <v>102</v>
-      </c>
-      <c r="AT88" t="s">
-        <v>102</v>
-      </c>
-      <c r="AW88" t="s">
-        <v>109</v>
-      </c>
-      <c r="AX88" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="BC88" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="BD88" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="BE88" t="s">
-        <v>83</v>
-      </c>
-      <c r="BI88" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="BJ88" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="BM88">
-        <v>0</v>
-      </c>
-      <c r="BN88">
-        <v>0</v>
-      </c>
-      <c r="BO88">
-        <v>6</v>
-      </c>
-      <c r="BP88">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:68" ht="12.75" customHeight="1">
-      <c r="A89" t="s">
-        <v>237</v>
-      </c>
-      <c r="C89" t="s">
-        <v>67</v>
-      </c>
-      <c r="D89" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="E89" t="s">
-        <v>77</v>
-      </c>
-      <c r="J89" t="s">
-        <v>147</v>
-      </c>
-      <c r="L89">
-        <v>6</v>
-      </c>
-      <c r="N89">
-        <v>1</v>
-      </c>
-      <c r="O89" t="s">
-        <v>78</v>
-      </c>
-      <c r="T89" t="s">
-        <v>79</v>
-      </c>
-      <c r="U89" t="s">
-        <v>80</v>
-      </c>
-      <c r="AK89">
-        <v>1</v>
-      </c>
-      <c r="AR89" t="s">
-        <v>102</v>
-      </c>
-      <c r="AT89" t="s">
-        <v>102</v>
-      </c>
-      <c r="AW89" t="s">
-        <v>109</v>
-      </c>
-      <c r="AX89" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="BC89" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="BD89" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="BE89" t="s">
-        <v>83</v>
-      </c>
-      <c r="BI89" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="BJ89" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="BM89">
-        <v>0</v>
-      </c>
-      <c r="BN89">
-        <v>0</v>
-      </c>
-      <c r="BO89">
-        <v>6</v>
-      </c>
-      <c r="BP89">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:68" ht="12.75" customHeight="1">
-      <c r="A90" t="s">
-        <v>238</v>
-      </c>
-      <c r="C90" t="s">
-        <v>67</v>
-      </c>
-      <c r="D90" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="E90" t="s">
-        <v>77</v>
-      </c>
-      <c r="J90" t="s">
-        <v>147</v>
-      </c>
-      <c r="L90">
-        <v>6</v>
-      </c>
-      <c r="N90">
-        <v>1</v>
-      </c>
-      <c r="O90" t="s">
-        <v>78</v>
-      </c>
-      <c r="T90" t="s">
-        <v>79</v>
-      </c>
-      <c r="U90" t="s">
-        <v>80</v>
-      </c>
-      <c r="AK90" s="12">
-        <v>-1</v>
-      </c>
-      <c r="AR90" t="s">
-        <v>102</v>
-      </c>
-      <c r="AT90" t="s">
-        <v>102</v>
-      </c>
-      <c r="AW90" t="s">
-        <v>109</v>
-      </c>
-      <c r="AX90" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="BC90" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="BD90" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="BE90" t="s">
-        <v>83</v>
-      </c>
-      <c r="BI90" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="BJ90" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="BM90">
-        <v>0</v>
-      </c>
-      <c r="BN90">
-        <v>0</v>
-      </c>
-      <c r="BO90">
-        <v>6</v>
-      </c>
-      <c r="BP90">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:68" ht="12.75" customHeight="1">
-      <c r="A91" t="s">
-        <v>239</v>
-      </c>
-      <c r="C91" t="s">
-        <v>67</v>
-      </c>
-      <c r="D91" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="E91" t="s">
-        <v>77</v>
-      </c>
-      <c r="J91" t="s">
-        <v>147</v>
-      </c>
-      <c r="L91">
-        <v>6</v>
-      </c>
-      <c r="N91">
-        <v>1</v>
-      </c>
-      <c r="O91" t="s">
-        <v>78</v>
-      </c>
-      <c r="T91" t="s">
-        <v>79</v>
-      </c>
-      <c r="U91" t="s">
-        <v>80</v>
-      </c>
-      <c r="AK91">
-        <v>1</v>
-      </c>
-      <c r="AR91" t="s">
-        <v>102</v>
-      </c>
-      <c r="AT91" t="s">
-        <v>102</v>
-      </c>
-      <c r="AW91" t="s">
-        <v>109</v>
-      </c>
-      <c r="AX91" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="BC91" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="BD91" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="BE91" t="s">
-        <v>83</v>
-      </c>
-      <c r="BI91" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="BJ91" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="BM91">
-        <v>0</v>
-      </c>
-      <c r="BN91">
-        <v>0</v>
-      </c>
-      <c r="BO91">
-        <v>6</v>
-      </c>
-      <c r="BP91">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:68" ht="12.75" customHeight="1">
-      <c r="A92" t="s">
-        <v>240</v>
-      </c>
-      <c r="C92" t="s">
-        <v>67</v>
-      </c>
-      <c r="D92" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="E92" t="s">
-        <v>77</v>
-      </c>
-      <c r="J92" t="s">
-        <v>147</v>
-      </c>
-      <c r="L92">
-        <v>6</v>
-      </c>
-      <c r="N92">
-        <v>1</v>
-      </c>
-      <c r="O92" t="s">
-        <v>78</v>
-      </c>
-      <c r="T92" t="s">
-        <v>79</v>
-      </c>
-      <c r="U92" t="s">
-        <v>80</v>
-      </c>
-      <c r="AK92">
-        <v>1</v>
-      </c>
-      <c r="AR92" t="s">
-        <v>102</v>
-      </c>
-      <c r="AT92" t="s">
-        <v>102</v>
-      </c>
-      <c r="AW92" t="s">
-        <v>109</v>
-      </c>
-      <c r="AX92" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="BC92" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="BD92" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="BE92" t="s">
-        <v>83</v>
-      </c>
-      <c r="BI92" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="BJ92" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="BM92">
-        <v>0</v>
-      </c>
-      <c r="BN92">
-        <v>0</v>
-      </c>
-      <c r="BO92">
-        <v>6</v>
-      </c>
-      <c r="BP92">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:68" ht="12.75" customHeight="1">
-      <c r="A93" t="s">
-        <v>241</v>
-      </c>
-      <c r="C93" t="s">
-        <v>67</v>
-      </c>
-      <c r="D93" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="E93" t="s">
-        <v>77</v>
-      </c>
-      <c r="J93" t="s">
-        <v>147</v>
-      </c>
-      <c r="L93">
-        <v>6</v>
-      </c>
-      <c r="N93">
-        <v>1</v>
-      </c>
-      <c r="O93" t="s">
-        <v>78</v>
-      </c>
-      <c r="T93" t="s">
-        <v>79</v>
-      </c>
-      <c r="U93" t="s">
-        <v>80</v>
-      </c>
-      <c r="AK93" s="12">
-        <v>-1</v>
-      </c>
-      <c r="AR93" t="s">
-        <v>102</v>
-      </c>
-      <c r="AT93" t="s">
-        <v>102</v>
-      </c>
-      <c r="AW93" t="s">
-        <v>109</v>
-      </c>
-      <c r="AX93" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="BC93" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="BD93" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="BE93" t="s">
-        <v>83</v>
-      </c>
-      <c r="BI93" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="BJ93" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="BM93">
-        <v>0</v>
-      </c>
-      <c r="BN93">
-        <v>0</v>
-      </c>
-      <c r="BO93">
-        <v>6</v>
-      </c>
-      <c r="BP93">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:68" ht="12.75" customHeight="1">
-      <c r="A94" t="s">
-        <v>242</v>
-      </c>
-      <c r="C94" t="s">
-        <v>67</v>
-      </c>
-      <c r="D94" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="E94" t="s">
-        <v>77</v>
-      </c>
-      <c r="J94" t="s">
-        <v>147</v>
-      </c>
-      <c r="L94">
-        <v>6</v>
-      </c>
-      <c r="N94">
-        <v>1</v>
-      </c>
-      <c r="O94" t="s">
-        <v>78</v>
-      </c>
-      <c r="T94" t="s">
-        <v>79</v>
-      </c>
-      <c r="U94" t="s">
-        <v>80</v>
-      </c>
-      <c r="AK94">
-        <v>1</v>
-      </c>
-      <c r="AR94" t="s">
-        <v>102</v>
-      </c>
-      <c r="AT94" t="s">
-        <v>102</v>
-      </c>
-      <c r="AW94" t="s">
-        <v>109</v>
-      </c>
-      <c r="AX94" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="BC94" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="BD94" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="BE94" t="s">
-        <v>83</v>
-      </c>
-      <c r="BI94" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="BJ94" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="BM94">
-        <v>0</v>
-      </c>
-      <c r="BN94">
-        <v>0</v>
-      </c>
-      <c r="BO94">
-        <v>6</v>
-      </c>
-      <c r="BP94">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:68" ht="12.75" customHeight="1">
-      <c r="A95" t="s">
-        <v>243</v>
-      </c>
-      <c r="C95" t="s">
-        <v>67</v>
-      </c>
-      <c r="D95" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="E95" t="s">
-        <v>77</v>
-      </c>
-      <c r="J95" t="s">
-        <v>147</v>
-      </c>
-      <c r="L95">
-        <v>6</v>
-      </c>
-      <c r="N95">
-        <v>1</v>
-      </c>
-      <c r="O95" t="s">
-        <v>78</v>
-      </c>
-      <c r="T95" t="s">
-        <v>79</v>
-      </c>
-      <c r="U95" t="s">
-        <v>80</v>
-      </c>
-      <c r="AK95" s="12">
-        <v>-1</v>
-      </c>
-      <c r="AR95" t="s">
-        <v>102</v>
-      </c>
-      <c r="AT95" t="s">
-        <v>102</v>
-      </c>
-      <c r="AW95" t="s">
-        <v>109</v>
-      </c>
-      <c r="AX95" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="BC95" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="BD95" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="BE95" t="s">
-        <v>83</v>
-      </c>
-      <c r="BI95" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="BJ95" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="BM95">
-        <v>0</v>
-      </c>
-      <c r="BN95">
-        <v>0</v>
-      </c>
-      <c r="BO95">
-        <v>6</v>
-      </c>
-      <c r="BP95">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:68" ht="12.75" customHeight="1">
-      <c r="A96" t="s">
-        <v>244</v>
-      </c>
-      <c r="C96" t="s">
-        <v>67</v>
-      </c>
-      <c r="D96" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="E96" t="s">
-        <v>77</v>
-      </c>
-      <c r="J96" t="s">
-        <v>147</v>
-      </c>
-      <c r="L96">
-        <v>6</v>
-      </c>
-      <c r="N96">
-        <v>1</v>
-      </c>
-      <c r="O96" t="s">
-        <v>78</v>
-      </c>
-      <c r="T96" t="s">
-        <v>79</v>
-      </c>
-      <c r="U96" t="s">
-        <v>80</v>
-      </c>
-      <c r="AK96">
-        <v>1</v>
-      </c>
-      <c r="AR96" t="s">
-        <v>102</v>
-      </c>
-      <c r="AT96" t="s">
-        <v>102</v>
-      </c>
-      <c r="AW96" t="s">
-        <v>109</v>
-      </c>
-      <c r="AX96" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="BC96" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="BD96" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="BE96" t="s">
-        <v>83</v>
-      </c>
-      <c r="BI96" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="BJ96" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="BM96">
-        <v>0</v>
-      </c>
-      <c r="BN96">
-        <v>0</v>
-      </c>
-      <c r="BO96">
-        <v>6</v>
-      </c>
-      <c r="BP96">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:68" ht="12.75" customHeight="1">
-      <c r="A97" t="s">
-        <v>245</v>
-      </c>
-      <c r="C97" t="s">
-        <v>67</v>
-      </c>
-      <c r="D97" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="E97" t="s">
-        <v>77</v>
-      </c>
-      <c r="J97" t="s">
-        <v>147</v>
-      </c>
-      <c r="L97">
-        <v>6</v>
-      </c>
-      <c r="N97">
-        <v>1</v>
-      </c>
-      <c r="O97" t="s">
-        <v>78</v>
-      </c>
-      <c r="T97" t="s">
-        <v>79</v>
-      </c>
-      <c r="U97" t="s">
-        <v>80</v>
-      </c>
-      <c r="AK97">
-        <v>1</v>
-      </c>
-      <c r="AR97" t="s">
-        <v>102</v>
-      </c>
-      <c r="AT97" t="s">
-        <v>102</v>
-      </c>
-      <c r="AW97" t="s">
-        <v>109</v>
-      </c>
-      <c r="AX97" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="BC97" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="BD97" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="BE97" t="s">
-        <v>83</v>
-      </c>
-      <c r="BI97" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="BJ97" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="BM97">
-        <v>0</v>
-      </c>
-      <c r="BN97">
-        <v>0</v>
-      </c>
-      <c r="BO97">
-        <v>6</v>
-      </c>
-      <c r="BP97">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:68" ht="12.75" customHeight="1">
-      <c r="A98" t="s">
-        <v>246</v>
-      </c>
-      <c r="C98" t="s">
-        <v>67</v>
-      </c>
-      <c r="D98" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="E98" t="s">
-        <v>77</v>
-      </c>
-      <c r="J98" t="s">
-        <v>147</v>
-      </c>
-      <c r="L98">
-        <v>6</v>
-      </c>
-      <c r="N98">
-        <v>1</v>
-      </c>
-      <c r="O98" t="s">
-        <v>78</v>
-      </c>
-      <c r="T98" t="s">
-        <v>79</v>
-      </c>
-      <c r="U98" t="s">
-        <v>80</v>
-      </c>
-      <c r="AK98">
-        <v>1</v>
-      </c>
-      <c r="AR98" t="s">
-        <v>101</v>
-      </c>
-      <c r="AT98" t="s">
-        <v>101</v>
-      </c>
-      <c r="AW98" t="s">
-        <v>112</v>
-      </c>
-      <c r="AX98" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="BC98" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="BD98" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="BE98" t="s">
-        <v>83</v>
-      </c>
-      <c r="BI98" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="BJ98" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="BM98">
-        <v>0</v>
-      </c>
-      <c r="BN98">
-        <v>0</v>
-      </c>
-      <c r="BO98">
-        <v>6</v>
-      </c>
-      <c r="BP98">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:68" ht="12.75" customHeight="1">
-      <c r="A99" t="s">
-        <v>247</v>
-      </c>
-      <c r="C99" t="s">
-        <v>67</v>
-      </c>
-      <c r="D99" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E99" t="s">
-        <v>77</v>
-      </c>
-      <c r="J99" t="s">
-        <v>147</v>
-      </c>
-      <c r="L99">
-        <v>6</v>
-      </c>
-      <c r="N99">
-        <v>1</v>
-      </c>
-      <c r="O99" t="s">
-        <v>78</v>
-      </c>
-      <c r="T99" t="s">
-        <v>79</v>
-      </c>
-      <c r="U99" t="s">
-        <v>80</v>
-      </c>
-      <c r="AK99">
-        <v>1</v>
-      </c>
-      <c r="AR99" t="s">
-        <v>101</v>
-      </c>
-      <c r="AT99" t="s">
-        <v>101</v>
-      </c>
-      <c r="AW99" t="s">
-        <v>112</v>
-      </c>
-      <c r="AX99" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="BC99" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="BD99" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="BE99" t="s">
-        <v>83</v>
-      </c>
-      <c r="BI99" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="BJ99" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="BM99">
-        <v>0</v>
-      </c>
-      <c r="BN99">
-        <v>0</v>
-      </c>
-      <c r="BO99">
-        <v>6</v>
-      </c>
-      <c r="BP99">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:68" ht="12.75" customHeight="1">
-      <c r="A100" t="s">
-        <v>248</v>
-      </c>
-      <c r="C100" t="s">
-        <v>67</v>
-      </c>
-      <c r="D100" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="E100" t="s">
-        <v>77</v>
-      </c>
-      <c r="J100" t="s">
-        <v>147</v>
-      </c>
-      <c r="L100">
-        <v>6</v>
-      </c>
-      <c r="N100">
-        <v>1</v>
-      </c>
-      <c r="O100" t="s">
-        <v>78</v>
-      </c>
-      <c r="T100" t="s">
-        <v>79</v>
-      </c>
-      <c r="U100" t="s">
-        <v>80</v>
-      </c>
-      <c r="AK100">
-        <v>1</v>
-      </c>
-      <c r="AR100" t="s">
-        <v>101</v>
-      </c>
-      <c r="AT100" t="s">
-        <v>101</v>
-      </c>
-      <c r="AW100" t="s">
-        <v>112</v>
-      </c>
-      <c r="AX100" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="BC100" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="BD100" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="BE100" t="s">
-        <v>83</v>
-      </c>
-      <c r="BI100" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="BJ100" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="BM100">
-        <v>0</v>
-      </c>
-      <c r="BN100">
-        <v>0</v>
-      </c>
-      <c r="BO100">
-        <v>6</v>
-      </c>
-      <c r="BP100">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:68" ht="12.75" customHeight="1">
-      <c r="A101" t="s">
-        <v>249</v>
-      </c>
-      <c r="C101" t="s">
-        <v>67</v>
-      </c>
-      <c r="D101" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="E101" t="s">
-        <v>77</v>
-      </c>
-      <c r="J101" t="s">
-        <v>147</v>
-      </c>
-      <c r="L101">
-        <v>6</v>
-      </c>
-      <c r="N101">
-        <v>1</v>
-      </c>
-      <c r="O101" t="s">
-        <v>78</v>
-      </c>
-      <c r="T101" t="s">
-        <v>79</v>
-      </c>
-      <c r="U101" t="s">
-        <v>80</v>
-      </c>
-      <c r="AK101">
-        <v>1</v>
-      </c>
-      <c r="AR101" t="s">
-        <v>101</v>
-      </c>
-      <c r="AT101" t="s">
-        <v>101</v>
-      </c>
-      <c r="AW101" t="s">
-        <v>112</v>
-      </c>
-      <c r="AX101" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="BC101" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="BD101" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="BE101" t="s">
-        <v>83</v>
-      </c>
-      <c r="BI101" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="BJ101" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="BM101">
-        <v>0</v>
-      </c>
-      <c r="BN101">
-        <v>0</v>
-      </c>
-      <c r="BO101">
-        <v>6</v>
-      </c>
-      <c r="BP101">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:68" ht="12.75" customHeight="1">
-      <c r="A102" t="s">
-        <v>250</v>
-      </c>
-      <c r="C102" t="s">
-        <v>67</v>
-      </c>
-      <c r="D102" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="E102" t="s">
-        <v>77</v>
-      </c>
-      <c r="J102" t="s">
-        <v>147</v>
-      </c>
-      <c r="L102">
-        <v>6</v>
-      </c>
-      <c r="N102">
-        <v>1</v>
-      </c>
-      <c r="O102" t="s">
-        <v>78</v>
-      </c>
-      <c r="T102" t="s">
-        <v>79</v>
-      </c>
-      <c r="U102" t="s">
-        <v>80</v>
-      </c>
-      <c r="AK102">
-        <v>1</v>
-      </c>
-      <c r="AR102" t="s">
-        <v>101</v>
-      </c>
-      <c r="AT102" t="s">
-        <v>101</v>
-      </c>
-      <c r="AW102" t="s">
-        <v>112</v>
-      </c>
-      <c r="AX102" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="BC102" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="BD102" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="BE102" t="s">
-        <v>83</v>
-      </c>
-      <c r="BI102" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="BJ102" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="BM102">
-        <v>0</v>
-      </c>
-      <c r="BN102">
-        <v>0</v>
-      </c>
-      <c r="BO102">
-        <v>6</v>
-      </c>
-      <c r="BP102">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:68" ht="12.75" customHeight="1">
-      <c r="A103" t="s">
-        <v>251</v>
-      </c>
-      <c r="C103" t="s">
-        <v>67</v>
-      </c>
-      <c r="D103" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="E103" t="s">
-        <v>77</v>
-      </c>
-      <c r="J103" t="s">
-        <v>147</v>
-      </c>
-      <c r="L103">
-        <v>6</v>
-      </c>
-      <c r="N103">
-        <v>1</v>
-      </c>
-      <c r="O103" t="s">
-        <v>78</v>
-      </c>
-      <c r="T103" t="s">
-        <v>79</v>
-      </c>
-      <c r="U103" t="s">
-        <v>80</v>
-      </c>
-      <c r="AK103">
-        <v>1</v>
-      </c>
-      <c r="AR103" t="s">
-        <v>101</v>
-      </c>
-      <c r="AT103" t="s">
-        <v>101</v>
-      </c>
-      <c r="AW103" t="s">
-        <v>112</v>
-      </c>
-      <c r="AX103" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="BC103" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="BD103" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="BE103" t="s">
-        <v>83</v>
-      </c>
-      <c r="BI103" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="BJ103" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="BM103">
-        <v>0</v>
-      </c>
-      <c r="BN103">
-        <v>0</v>
-      </c>
-      <c r="BO103">
-        <v>6</v>
-      </c>
-      <c r="BP103">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:68" ht="12.75" customHeight="1">
-      <c r="A104" t="s">
-        <v>252</v>
-      </c>
-      <c r="C104" t="s">
-        <v>67</v>
-      </c>
-      <c r="D104" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="E104" t="s">
-        <v>77</v>
-      </c>
-      <c r="J104" t="s">
-        <v>147</v>
-      </c>
-      <c r="L104">
-        <v>6</v>
-      </c>
-      <c r="N104">
-        <v>1</v>
-      </c>
-      <c r="O104" t="s">
-        <v>78</v>
-      </c>
-      <c r="T104" t="s">
-        <v>79</v>
-      </c>
-      <c r="U104" t="s">
-        <v>80</v>
-      </c>
-      <c r="AK104" s="12">
-        <v>-1</v>
-      </c>
-      <c r="AR104" t="s">
-        <v>101</v>
-      </c>
-      <c r="AT104" t="s">
-        <v>101</v>
-      </c>
-      <c r="AW104" t="s">
-        <v>112</v>
-      </c>
-      <c r="AX104" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="BC104" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="BD104" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="BE104" t="s">
-        <v>83</v>
-      </c>
-      <c r="BI104" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="BJ104" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="BM104">
-        <v>0</v>
-      </c>
-      <c r="BN104">
-        <v>0</v>
-      </c>
-      <c r="BO104">
-        <v>6</v>
-      </c>
-      <c r="BP104">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:68" ht="12.75" customHeight="1">
-      <c r="A105" t="s">
-        <v>253</v>
-      </c>
-      <c r="C105" t="s">
-        <v>67</v>
-      </c>
-      <c r="D105" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="E105" t="s">
-        <v>77</v>
-      </c>
-      <c r="J105" t="s">
-        <v>147</v>
-      </c>
-      <c r="L105">
-        <v>6</v>
-      </c>
-      <c r="N105">
-        <v>1</v>
-      </c>
-      <c r="O105" t="s">
-        <v>78</v>
-      </c>
-      <c r="T105" t="s">
-        <v>79</v>
-      </c>
-      <c r="U105" t="s">
-        <v>80</v>
-      </c>
-      <c r="AK105">
-        <v>1</v>
-      </c>
-      <c r="AR105" t="s">
-        <v>101</v>
-      </c>
-      <c r="AT105" t="s">
-        <v>101</v>
-      </c>
-      <c r="AW105" t="s">
-        <v>112</v>
-      </c>
-      <c r="AX105" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="BC105" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="BD105" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="BE105" t="s">
-        <v>83</v>
-      </c>
-      <c r="BI105" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="BJ105" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="BM105">
-        <v>0</v>
-      </c>
-      <c r="BN105">
-        <v>0</v>
-      </c>
-      <c r="BO105">
-        <v>6</v>
-      </c>
-      <c r="BP105">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:68" ht="12.75" customHeight="1">
-      <c r="A106" t="s">
-        <v>254</v>
-      </c>
-      <c r="C106" t="s">
-        <v>67</v>
-      </c>
-      <c r="D106" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="E106" t="s">
-        <v>77</v>
-      </c>
-      <c r="J106" t="s">
-        <v>147</v>
-      </c>
-      <c r="L106">
-        <v>6</v>
-      </c>
-      <c r="N106">
-        <v>1</v>
-      </c>
-      <c r="O106" t="s">
-        <v>78</v>
-      </c>
-      <c r="T106" t="s">
-        <v>79</v>
-      </c>
-      <c r="U106" t="s">
-        <v>80</v>
-      </c>
-      <c r="AK106" s="12">
-        <v>-1</v>
-      </c>
-      <c r="AR106" t="s">
-        <v>101</v>
-      </c>
-      <c r="AT106" t="s">
-        <v>101</v>
-      </c>
-      <c r="AW106" t="s">
-        <v>112</v>
-      </c>
-      <c r="AX106" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="BC106" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="BD106" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="BE106" t="s">
-        <v>83</v>
-      </c>
-      <c r="BI106" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="BJ106" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="BM106">
-        <v>0</v>
-      </c>
-      <c r="BN106">
-        <v>0</v>
-      </c>
-      <c r="BO106">
-        <v>6</v>
-      </c>
-      <c r="BP106">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:68" ht="12.75" customHeight="1">
-      <c r="A107" t="s">
-        <v>255</v>
-      </c>
-      <c r="C107" t="s">
-        <v>67</v>
-      </c>
-      <c r="D107" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="E107" t="s">
-        <v>77</v>
-      </c>
-      <c r="J107" t="s">
-        <v>147</v>
-      </c>
-      <c r="L107">
-        <v>6</v>
-      </c>
-      <c r="N107">
-        <v>1</v>
-      </c>
-      <c r="O107" t="s">
-        <v>78</v>
-      </c>
-      <c r="T107" t="s">
-        <v>79</v>
-      </c>
-      <c r="U107" t="s">
-        <v>80</v>
-      </c>
-      <c r="AK107" s="12">
-        <v>-1</v>
-      </c>
-      <c r="AR107" t="s">
-        <v>101</v>
-      </c>
-      <c r="AT107" t="s">
-        <v>101</v>
-      </c>
-      <c r="AW107" t="s">
-        <v>112</v>
-      </c>
-      <c r="AX107" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="BC107" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="BD107" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="BE107" t="s">
-        <v>83</v>
-      </c>
-      <c r="BI107" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="BJ107" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="BM107">
-        <v>0</v>
-      </c>
-      <c r="BN107">
-        <v>0</v>
-      </c>
-      <c r="BO107">
-        <v>6</v>
-      </c>
-      <c r="BP107">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:68" ht="12.75" customHeight="1">
-      <c r="A108" t="s">
-        <v>256</v>
-      </c>
-      <c r="C108" t="s">
-        <v>67</v>
-      </c>
-      <c r="D108" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="E108" t="s">
-        <v>77</v>
-      </c>
-      <c r="J108" t="s">
-        <v>147</v>
-      </c>
-      <c r="L108">
-        <v>6</v>
-      </c>
-      <c r="N108">
-        <v>1</v>
-      </c>
-      <c r="O108" t="s">
-        <v>78</v>
-      </c>
-      <c r="T108" t="s">
-        <v>79</v>
-      </c>
-      <c r="U108" t="s">
-        <v>80</v>
-      </c>
-      <c r="AK108">
-        <v>1</v>
-      </c>
-      <c r="AR108" t="s">
-        <v>101</v>
-      </c>
-      <c r="AT108" t="s">
-        <v>101</v>
-      </c>
-      <c r="AW108" t="s">
-        <v>112</v>
-      </c>
-      <c r="AX108" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="BC108" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="BD108" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="BE108" t="s">
-        <v>83</v>
-      </c>
-      <c r="BI108" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="BJ108" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="BM108">
-        <v>0</v>
-      </c>
-      <c r="BN108">
-        <v>0</v>
-      </c>
-      <c r="BO108">
-        <v>6</v>
-      </c>
-      <c r="BP108">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:68" ht="12.75" customHeight="1">
-      <c r="A109" t="s">
-        <v>257</v>
-      </c>
-      <c r="C109" t="s">
-        <v>67</v>
-      </c>
-      <c r="D109" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="E109" t="s">
-        <v>77</v>
-      </c>
-      <c r="J109" t="s">
-        <v>147</v>
-      </c>
-      <c r="L109">
-        <v>6</v>
-      </c>
-      <c r="N109">
-        <v>1</v>
-      </c>
-      <c r="O109" t="s">
-        <v>78</v>
-      </c>
-      <c r="T109" t="s">
-        <v>79</v>
-      </c>
-      <c r="U109" t="s">
-        <v>80</v>
-      </c>
-      <c r="AK109">
-        <v>1</v>
-      </c>
-      <c r="AR109" t="s">
-        <v>101</v>
-      </c>
-      <c r="AT109" t="s">
-        <v>101</v>
-      </c>
-      <c r="AW109" t="s">
-        <v>112</v>
-      </c>
-      <c r="AX109" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="BC109" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="BD109" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="BE109" t="s">
-        <v>83</v>
-      </c>
-      <c r="BI109" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="BJ109" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="BM109">
-        <v>0</v>
-      </c>
-      <c r="BN109">
-        <v>0</v>
-      </c>
-      <c r="BO109">
-        <v>6</v>
-      </c>
-      <c r="BP109">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:68" ht="12.75" customHeight="1">
-      <c r="A110" t="s">
-        <v>258</v>
-      </c>
-      <c r="C110" t="s">
-        <v>67</v>
-      </c>
-      <c r="D110" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="E110" t="s">
-        <v>77</v>
-      </c>
-      <c r="J110" t="s">
-        <v>147</v>
-      </c>
-      <c r="L110">
-        <v>6</v>
-      </c>
-      <c r="N110">
-        <v>1</v>
-      </c>
-      <c r="O110" t="s">
-        <v>78</v>
-      </c>
-      <c r="T110" t="s">
-        <v>79</v>
-      </c>
-      <c r="U110" t="s">
-        <v>80</v>
-      </c>
-      <c r="AK110">
-        <v>1</v>
-      </c>
-      <c r="AR110" t="s">
-        <v>101</v>
-      </c>
-      <c r="AT110" t="s">
-        <v>101</v>
-      </c>
-      <c r="AW110" t="s">
-        <v>112</v>
-      </c>
-      <c r="AX110" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="BC110" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="BD110" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="BE110" t="s">
-        <v>83</v>
-      </c>
-      <c r="BI110" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="BJ110" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="BM110">
-        <v>0</v>
-      </c>
-      <c r="BN110">
-        <v>0</v>
-      </c>
-      <c r="BO110">
-        <v>6</v>
-      </c>
-      <c r="BP110">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:68" ht="12.75" customHeight="1">
-      <c r="A111" t="s">
-        <v>259</v>
-      </c>
-      <c r="C111" t="s">
-        <v>67</v>
-      </c>
-      <c r="D111" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="E111" t="s">
-        <v>77</v>
-      </c>
-      <c r="J111" t="s">
-        <v>147</v>
-      </c>
-      <c r="L111">
-        <v>6</v>
-      </c>
-      <c r="N111">
-        <v>1</v>
-      </c>
-      <c r="O111" t="s">
-        <v>78</v>
-      </c>
-      <c r="T111" t="s">
-        <v>79</v>
-      </c>
-      <c r="U111" t="s">
-        <v>80</v>
-      </c>
-      <c r="AK111">
-        <v>1</v>
-      </c>
-      <c r="AR111" t="s">
-        <v>101</v>
-      </c>
-      <c r="AT111" t="s">
-        <v>101</v>
-      </c>
-      <c r="AW111" t="s">
-        <v>112</v>
-      </c>
-      <c r="AX111" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="BC111" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="BD111" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="BE111" t="s">
-        <v>83</v>
-      </c>
-      <c r="BI111" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="BJ111" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="BM111">
-        <v>0</v>
-      </c>
-      <c r="BN111">
-        <v>0</v>
-      </c>
-      <c r="BO111">
-        <v>6</v>
-      </c>
-      <c r="BP111">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:68" s="18" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A112" s="18" t="s">
-        <v>261</v>
-      </c>
-      <c r="C112" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="D112" s="18" t="s">
-        <v>262</v>
-      </c>
-      <c r="E112" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="J112" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="L112" s="18">
-        <v>6</v>
-      </c>
-      <c r="N112" s="18">
-        <v>1</v>
-      </c>
-      <c r="O112" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="T112" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="U112" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="AK112" s="18">
-        <v>1</v>
-      </c>
-      <c r="AR112" s="18" t="s">
-        <v>263</v>
-      </c>
-      <c r="AT112" s="18" t="s">
-        <v>263</v>
-      </c>
-      <c r="AW112" s="18" t="s">
-        <v>264</v>
-      </c>
-      <c r="AX112" s="23" t="s">
-        <v>265</v>
-      </c>
-      <c r="BC112" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="BD112" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="BE112" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="BF112" s="18">
-        <v>20</v>
-      </c>
-      <c r="BI112" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="BJ112" s="18" t="s">
-        <v>266</v>
-      </c>
-      <c r="BM112" s="18">
-        <v>0</v>
-      </c>
-      <c r="BN112" s="18">
-        <v>0</v>
-      </c>
-      <c r="BO112" s="18">
-        <v>6</v>
-      </c>
-      <c r="BP112" s="18">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="AX2" r:id="rId1" xr:uid="{72C01EEE-2E3E-49A2-B9F8-257552134A25}"/>
-    <hyperlink ref="AX3" r:id="rId2" xr:uid="{181AA6C1-D67A-40C8-A270-2B16976CF3A2}"/>
-    <hyperlink ref="AX4" r:id="rId3" xr:uid="{9CC7DB15-85F8-4BB6-A587-DF6AA06E1F3E}"/>
-    <hyperlink ref="AX5" r:id="rId4" xr:uid="{49A6094B-FCA9-4444-A8F7-AADFD1682110}"/>
-    <hyperlink ref="AX6" r:id="rId5" xr:uid="{42C2347B-D3D5-40E6-9061-8DF2CC32DDC1}"/>
-    <hyperlink ref="AX7" r:id="rId6" xr:uid="{1A9EAD27-E04B-416C-A92F-464C8F4A8774}"/>
-    <hyperlink ref="AX8" r:id="rId7" xr:uid="{BD6308C0-4081-426C-A89D-BCDC8BF439DE}"/>
-    <hyperlink ref="AX15" r:id="rId8" xr:uid="{6F66561A-E353-4DC1-807E-0053FD643525}"/>
-    <hyperlink ref="AX16" r:id="rId9" xr:uid="{C560930A-9A7A-4E92-85D7-99BD6349921A}"/>
-    <hyperlink ref="AX17" r:id="rId10" xr:uid="{AA4E2125-3F78-47E3-ABE2-38AE1D6D9B91}"/>
-    <hyperlink ref="AX18" r:id="rId11" xr:uid="{AD1243EF-E07C-4713-B363-B0058448C88B}"/>
-    <hyperlink ref="AX19" r:id="rId12" xr:uid="{4E3D92EC-82FE-4E29-A3E3-B9D5EE3CA24D}"/>
-    <hyperlink ref="AX20" r:id="rId13" xr:uid="{AE53891B-B7F6-49BD-898B-3355229DAC29}"/>
-    <hyperlink ref="AX21" r:id="rId14" xr:uid="{4AF975E7-B140-49F0-A390-720DEA7A5FBC}"/>
-    <hyperlink ref="AX9" r:id="rId15" xr:uid="{FC95A286-5CD4-499C-A471-198512EF7070}"/>
-    <hyperlink ref="AX10" r:id="rId16" xr:uid="{A09ECE05-8835-42A8-B3F4-6AF167490EC0}"/>
-    <hyperlink ref="AX11" r:id="rId17" xr:uid="{44867C69-3FF2-4C93-AF34-68FFF58F5DAA}"/>
-    <hyperlink ref="AX12" r:id="rId18" xr:uid="{B89FBB2B-EA32-4B88-810E-2138375A429D}"/>
-    <hyperlink ref="AX13" r:id="rId19" xr:uid="{312E1C47-7F06-412F-9E6D-F1A8028F184F}"/>
-    <hyperlink ref="AX14" r:id="rId20" xr:uid="{5EB6920C-9B25-4DF8-BDBD-4CE634B8F1A9}"/>
-    <hyperlink ref="AX22" r:id="rId21" xr:uid="{8C7226F9-7A22-4A6F-8182-2E01CC98B453}"/>
-    <hyperlink ref="AX23" r:id="rId22" xr:uid="{8610068A-834C-4E61-8B11-85730A4428E7}"/>
-    <hyperlink ref="AX24" r:id="rId23" xr:uid="{ED3A46DA-7FEC-445C-9019-0584648C83C8}"/>
-    <hyperlink ref="AX25" r:id="rId24" xr:uid="{C425C2B5-84E0-432B-89AB-55C2CCF60F27}"/>
-    <hyperlink ref="AX26" r:id="rId25" xr:uid="{208E1D1B-6F95-4959-AB33-86C77F1569F9}"/>
-    <hyperlink ref="AX27" r:id="rId26" xr:uid="{583D8E4A-F2DD-47CB-AFA2-FEE271218097}"/>
-    <hyperlink ref="AX28" r:id="rId27" xr:uid="{21AFC39C-C09C-41C9-8814-067453A01E34}"/>
-    <hyperlink ref="AX29" r:id="rId28" xr:uid="{232CAB77-BA44-4CF0-A19A-18C1240A21FB}"/>
-    <hyperlink ref="AX30" r:id="rId29" xr:uid="{433BCA22-0F94-4346-9B94-D12CC5D8F51B}"/>
-    <hyperlink ref="AX31" r:id="rId30" xr:uid="{57D96EFB-9487-4561-8805-08AD4B4642A8}"/>
-    <hyperlink ref="AX32" r:id="rId31" xr:uid="{1A7E1213-ADDC-4FEE-9523-B7DDFF760D50}"/>
-    <hyperlink ref="AX42" r:id="rId32" xr:uid="{8ACAB544-C10B-4A51-B92D-ADC689C8E4F1}"/>
-    <hyperlink ref="AX41" r:id="rId33" xr:uid="{42CDDE0C-49E4-4C78-905F-15C01D2706B0}"/>
-    <hyperlink ref="AX40" r:id="rId34" xr:uid="{5D18F0BF-C868-4A15-A5CE-42FBFE6E1319}"/>
-    <hyperlink ref="AX39" r:id="rId35" xr:uid="{25812A1C-F05D-47D5-AB10-6879752D0870}"/>
-    <hyperlink ref="AX38" r:id="rId36" xr:uid="{D53D86F1-0FA2-49F5-9B81-A90321862FFA}"/>
-    <hyperlink ref="AX37" r:id="rId37" xr:uid="{823A9A1C-63E4-4AC0-818A-7F225F211104}"/>
-    <hyperlink ref="AX36" r:id="rId38" xr:uid="{47B57911-4AA1-4FE1-A10B-14CB085C70A3}"/>
-    <hyperlink ref="AX35" r:id="rId39" xr:uid="{12FDFE42-B338-482A-9D5D-CF636AB3FE60}"/>
-    <hyperlink ref="AX34" r:id="rId40" xr:uid="{AC5E7480-5C23-4B1B-A534-FD8039448836}"/>
-    <hyperlink ref="AX33" r:id="rId41" xr:uid="{4A245E08-3425-41DC-9507-DCB3943977D9}"/>
-    <hyperlink ref="AX43" r:id="rId42" xr:uid="{26D86A00-6EE2-4062-B0C6-FDEDE66DB67E}"/>
-    <hyperlink ref="AX44" r:id="rId43" xr:uid="{C4197587-5CB6-447B-B3A8-27653B964664}"/>
-    <hyperlink ref="AX45" r:id="rId44" xr:uid="{F31A51F1-50DA-4456-8763-D18596858D96}"/>
-    <hyperlink ref="AX46" r:id="rId45" xr:uid="{7B73687A-3F6E-4802-B391-222373F3FD1E}"/>
-    <hyperlink ref="AX47" r:id="rId46" xr:uid="{BEF220DC-980D-4DB3-9B7D-C904FDF92DDC}"/>
-    <hyperlink ref="AX48" r:id="rId47" xr:uid="{5790BB33-76C4-4A4A-A72C-23607FAF25CF}"/>
-    <hyperlink ref="AX49" r:id="rId48" xr:uid="{F95261B4-7895-4909-BB2A-B93F09E47FDC}"/>
-    <hyperlink ref="AX50" r:id="rId49" xr:uid="{02FAE3DD-7AB3-4F63-8AD5-57A920A844AC}"/>
-    <hyperlink ref="AX51" r:id="rId50" xr:uid="{659E0F91-9E37-4A36-AB06-06A1E0D1BF5B}"/>
-    <hyperlink ref="AX52" r:id="rId51" xr:uid="{7804886B-49E5-4720-B004-0E26238BFADB}"/>
-    <hyperlink ref="AX53" r:id="rId52" xr:uid="{F1C9F565-E73B-42F4-8C12-5B62A3BCB243}"/>
-    <hyperlink ref="AX54" r:id="rId53" xr:uid="{D7CFC7F8-81DD-4DE4-B6F8-325C3776B3F6}"/>
-    <hyperlink ref="AX55" r:id="rId54" xr:uid="{AA146A81-AAE7-4DC2-B54C-7AB8B1474E88}"/>
-    <hyperlink ref="AX56" r:id="rId55" xr:uid="{99CE3C15-97A2-4E3C-8014-871FAC7F1903}"/>
-    <hyperlink ref="AX57" r:id="rId56" xr:uid="{453706AC-DB17-43D3-8960-9B3FD88EAAB2}"/>
-    <hyperlink ref="AX58" r:id="rId57" xr:uid="{184D0F2B-1BE2-463D-BE08-ACE2441F6D6F}"/>
-    <hyperlink ref="AX59" r:id="rId58" xr:uid="{89327D69-D318-4A84-8C99-A2655EFBA187}"/>
-    <hyperlink ref="AX60" r:id="rId59" xr:uid="{6ECA34D5-1E75-4A36-8137-B0E184E9484E}"/>
-    <hyperlink ref="AX61" r:id="rId60" xr:uid="{1E2F7190-4AFB-4531-B1E3-3861E410D78A}"/>
-    <hyperlink ref="AX62" r:id="rId61" xr:uid="{66B07758-75A7-4EC4-B853-38BAE5A6BE52}"/>
-    <hyperlink ref="AX63" r:id="rId62" xr:uid="{D77404F8-934C-430B-9716-94116DC07474}"/>
-    <hyperlink ref="AX70" r:id="rId63" xr:uid="{F937DA3A-6BAC-4EE6-917B-2BA1001DE13B}"/>
-    <hyperlink ref="AX71" r:id="rId64" xr:uid="{1DBE6427-53DC-4918-8393-8BB88F638A93}"/>
-    <hyperlink ref="AX72" r:id="rId65" xr:uid="{FA1FF51C-9521-4247-A397-5F4F9A46C88E}"/>
-    <hyperlink ref="AX73" r:id="rId66" xr:uid="{BDD691D3-2C4A-43C6-97BE-1C886C35B58D}"/>
-    <hyperlink ref="AX74" r:id="rId67" xr:uid="{9FF543DC-F061-42E3-BAF4-C047A021D09F}"/>
-    <hyperlink ref="AX75" r:id="rId68" xr:uid="{2CB5BF9D-A1A0-4C18-B909-B9BD67C8D3BB}"/>
-    <hyperlink ref="AX76" r:id="rId69" xr:uid="{FCEAD0D8-E177-4020-9C29-0D60CA743F12}"/>
-    <hyperlink ref="AX64" r:id="rId70" xr:uid="{52344361-8CEF-4F79-8AD1-E77D105900AB}"/>
-    <hyperlink ref="AX65" r:id="rId71" xr:uid="{297F689D-D232-4422-A5B8-4FD511546639}"/>
-    <hyperlink ref="AX66" r:id="rId72" xr:uid="{6245A69A-D063-4909-A9B9-7231992CFBDD}"/>
-    <hyperlink ref="AX67" r:id="rId73" xr:uid="{1B216A2A-9B57-4042-B3AC-403FBE6D4B7F}"/>
-    <hyperlink ref="AX68" r:id="rId74" xr:uid="{37658A18-2CD2-4219-A7D0-94E2B50C12D6}"/>
-    <hyperlink ref="AX69" r:id="rId75" xr:uid="{4793EF1F-9C03-4A41-B72B-89D803F1FBB3}"/>
-    <hyperlink ref="AX77" r:id="rId76" xr:uid="{BCCE80C0-BFC7-4A42-A7F5-9F0128013787}"/>
-    <hyperlink ref="AX78" r:id="rId77" xr:uid="{25FE3989-7D94-4428-B96A-521ACBC5E2F4}"/>
-    <hyperlink ref="AX79" r:id="rId78" xr:uid="{F4E8BC9B-9371-401F-9C43-C042633FD154}"/>
-    <hyperlink ref="AX80" r:id="rId79" xr:uid="{2728F49D-4A93-44E8-B76A-C9104F7A6D32}"/>
-    <hyperlink ref="AX81" r:id="rId80" xr:uid="{B235EFF6-532C-492D-AEB7-0B16CFDFEB60}"/>
-    <hyperlink ref="AX82" r:id="rId81" xr:uid="{2B617705-3678-4B61-B634-1221EAE92673}"/>
-    <hyperlink ref="AX83" r:id="rId82" xr:uid="{A228325B-FEDF-4E5F-B4EC-8E0C3169D5B2}"/>
-    <hyperlink ref="AX84" r:id="rId83" xr:uid="{52D3BAEE-2359-4085-BD99-45FD645FEE78}"/>
-    <hyperlink ref="AX85" r:id="rId84" xr:uid="{25C85050-159D-475C-91F6-6342BBBF9CAA}"/>
-    <hyperlink ref="AX86" r:id="rId85" xr:uid="{5574E986-FDBE-427D-A131-7AA4400E8C66}"/>
-    <hyperlink ref="AX87" r:id="rId86" xr:uid="{3687AE73-31C2-4F77-B7DA-5ED016358BFA}"/>
-    <hyperlink ref="AX97" r:id="rId87" xr:uid="{856F4308-0FC2-4A7A-B811-B9491E1F98DE}"/>
-    <hyperlink ref="AX96" r:id="rId88" xr:uid="{962DB8F7-2F91-43CD-95D9-D0451D9BE969}"/>
-    <hyperlink ref="AX95" r:id="rId89" xr:uid="{671BD6FB-DBFC-4E3C-9485-7D73695ED943}"/>
-    <hyperlink ref="AX94" r:id="rId90" xr:uid="{B900E0F9-C33E-44F8-9F1E-6846DBDFD19F}"/>
-    <hyperlink ref="AX93" r:id="rId91" xr:uid="{CF8814F3-DE40-4D30-815C-0ED4BE3A6569}"/>
-    <hyperlink ref="AX92" r:id="rId92" xr:uid="{AE2AD36C-56D7-44F6-A11D-919C969064CF}"/>
-    <hyperlink ref="AX91" r:id="rId93" xr:uid="{B8FA1BD9-69DE-47F4-B80B-5B8A84A66892}"/>
-    <hyperlink ref="AX90" r:id="rId94" xr:uid="{B6AC1FB6-1FA8-4A09-918E-D2485293E66F}"/>
-    <hyperlink ref="AX89" r:id="rId95" xr:uid="{0064DA58-9435-40B7-9F4A-E571D51289F0}"/>
-    <hyperlink ref="AX88" r:id="rId96" xr:uid="{F051E122-8B08-4950-A8C6-41AB54DAE6DD}"/>
-    <hyperlink ref="AX98" r:id="rId97" xr:uid="{B1EB7E1A-3A27-410B-9EC9-FC0215EED525}"/>
-    <hyperlink ref="AX99" r:id="rId98" xr:uid="{0ADB81C6-05D0-4A95-A76E-8BBAE65A286A}"/>
-    <hyperlink ref="AX100" r:id="rId99" xr:uid="{B94CF3D7-90F5-4719-8F5A-132D6DCB76B0}"/>
-    <hyperlink ref="AX101" r:id="rId100" xr:uid="{B900D003-F0E3-4BD9-9280-0E4C72C366C9}"/>
-    <hyperlink ref="AX102" r:id="rId101" xr:uid="{9F4C184F-EF77-4699-98E9-DBF6CC8F5B9E}"/>
-    <hyperlink ref="AX103" r:id="rId102" xr:uid="{3488C605-3B10-4297-89D0-AA747536AF27}"/>
-    <hyperlink ref="AX104" r:id="rId103" xr:uid="{03CDE131-D741-491D-82B7-30A71EFCE45A}"/>
-    <hyperlink ref="AX105" r:id="rId104" xr:uid="{ED4547AB-508E-4CFD-B04D-CD5BCD591B28}"/>
-    <hyperlink ref="AX106" r:id="rId105" xr:uid="{A02A356C-9783-4836-B221-E81098E10B0E}"/>
-    <hyperlink ref="AX107" r:id="rId106" xr:uid="{393B725F-4528-42D2-A4EF-C1BB6D724F7D}"/>
-    <hyperlink ref="AX108" r:id="rId107" xr:uid="{97B3ACDB-AF1E-4DB3-AB77-BB036C01F1E7}"/>
-    <hyperlink ref="AX109" r:id="rId108" xr:uid="{2EC17A10-7C0D-481D-AFF5-066B1A4CEA8F}"/>
-    <hyperlink ref="AX110" r:id="rId109" xr:uid="{D963FEFC-EBCB-4031-9F4E-50AB1E092A87}"/>
-    <hyperlink ref="AX111" r:id="rId110" xr:uid="{32C5B0D7-A634-40C9-96EF-17D9676A6832}"/>
-    <hyperlink ref="AX112" r:id="rId111" xr:uid="{56572350-BD5A-4C14-91AE-4BE2B56C3C11}"/>
+    <hyperlink ref="AX2" r:id="rId1" xr:uid="{453706AC-DB17-43D3-8960-9B3FD88EAAB2}"/>
+    <hyperlink ref="AX3" r:id="rId2" xr:uid="{184D0F2B-1BE2-463D-BE08-ACE2441F6D6F}"/>
+    <hyperlink ref="AX4" r:id="rId3" xr:uid="{89327D69-D318-4A84-8C99-A2655EFBA187}"/>
+    <hyperlink ref="AX5" r:id="rId4" xr:uid="{6ECA34D5-1E75-4A36-8137-B0E184E9484E}"/>
+    <hyperlink ref="AX6" r:id="rId5" xr:uid="{1E2F7190-4AFB-4531-B1E3-3861E410D78A}"/>
+    <hyperlink ref="AX7" r:id="rId6" xr:uid="{66B07758-75A7-4EC4-B853-38BAE5A6BE52}"/>
+    <hyperlink ref="AX8" r:id="rId7" xr:uid="{D77404F8-934C-430B-9716-94116DC07474}"/>
+    <hyperlink ref="AX15" r:id="rId8" xr:uid="{F937DA3A-6BAC-4EE6-917B-2BA1001DE13B}"/>
+    <hyperlink ref="AX16" r:id="rId9" xr:uid="{1DBE6427-53DC-4918-8393-8BB88F638A93}"/>
+    <hyperlink ref="AX17" r:id="rId10" xr:uid="{FA1FF51C-9521-4247-A397-5F4F9A46C88E}"/>
+    <hyperlink ref="AX18" r:id="rId11" xr:uid="{BDD691D3-2C4A-43C6-97BE-1C886C35B58D}"/>
+    <hyperlink ref="AX19" r:id="rId12" xr:uid="{9FF543DC-F061-42E3-BAF4-C047A021D09F}"/>
+    <hyperlink ref="AX20" r:id="rId13" xr:uid="{2CB5BF9D-A1A0-4C18-B909-B9BD67C8D3BB}"/>
+    <hyperlink ref="AX21" r:id="rId14" xr:uid="{FCEAD0D8-E177-4020-9C29-0D60CA743F12}"/>
+    <hyperlink ref="AX9" r:id="rId15" xr:uid="{52344361-8CEF-4F79-8AD1-E77D105900AB}"/>
+    <hyperlink ref="AX10" r:id="rId16" xr:uid="{297F689D-D232-4422-A5B8-4FD511546639}"/>
+    <hyperlink ref="AX11" r:id="rId17" xr:uid="{6245A69A-D063-4909-A9B9-7231992CFBDD}"/>
+    <hyperlink ref="AX12" r:id="rId18" xr:uid="{1B216A2A-9B57-4042-B3AC-403FBE6D4B7F}"/>
+    <hyperlink ref="AX13" r:id="rId19" xr:uid="{37658A18-2CD2-4219-A7D0-94E2B50C12D6}"/>
+    <hyperlink ref="AX14" r:id="rId20" xr:uid="{4793EF1F-9C03-4A41-B72B-89D803F1FBB3}"/>
+    <hyperlink ref="AX22" r:id="rId21" xr:uid="{BCCE80C0-BFC7-4A42-A7F5-9F0128013787}"/>
+    <hyperlink ref="AX23" r:id="rId22" xr:uid="{25FE3989-7D94-4428-B96A-521ACBC5E2F4}"/>
+    <hyperlink ref="AX24" r:id="rId23" xr:uid="{F4E8BC9B-9371-401F-9C43-C042633FD154}"/>
+    <hyperlink ref="AX25" r:id="rId24" xr:uid="{2728F49D-4A93-44E8-B76A-C9104F7A6D32}"/>
+    <hyperlink ref="AX26" r:id="rId25" xr:uid="{B235EFF6-532C-492D-AEB7-0B16CFDFEB60}"/>
+    <hyperlink ref="AX27" r:id="rId26" xr:uid="{2B617705-3678-4B61-B634-1221EAE92673}"/>
+    <hyperlink ref="AX28" r:id="rId27" xr:uid="{A228325B-FEDF-4E5F-B4EC-8E0C3169D5B2}"/>
+    <hyperlink ref="AX29" r:id="rId28" xr:uid="{52D3BAEE-2359-4085-BD99-45FD645FEE78}"/>
+    <hyperlink ref="AX30" r:id="rId29" xr:uid="{25C85050-159D-475C-91F6-6342BBBF9CAA}"/>
+    <hyperlink ref="AX31" r:id="rId30" xr:uid="{5574E986-FDBE-427D-A131-7AA4400E8C66}"/>
+    <hyperlink ref="AX32" r:id="rId31" xr:uid="{3687AE73-31C2-4F77-B7DA-5ED016358BFA}"/>
+    <hyperlink ref="AX42" r:id="rId32" xr:uid="{856F4308-0FC2-4A7A-B811-B9491E1F98DE}"/>
+    <hyperlink ref="AX41" r:id="rId33" xr:uid="{962DB8F7-2F91-43CD-95D9-D0451D9BE969}"/>
+    <hyperlink ref="AX40" r:id="rId34" xr:uid="{671BD6FB-DBFC-4E3C-9485-7D73695ED943}"/>
+    <hyperlink ref="AX39" r:id="rId35" xr:uid="{B900E0F9-C33E-44F8-9F1E-6846DBDFD19F}"/>
+    <hyperlink ref="AX38" r:id="rId36" xr:uid="{CF8814F3-DE40-4D30-815C-0ED4BE3A6569}"/>
+    <hyperlink ref="AX37" r:id="rId37" xr:uid="{AE2AD36C-56D7-44F6-A11D-919C969064CF}"/>
+    <hyperlink ref="AX36" r:id="rId38" xr:uid="{B8FA1BD9-69DE-47F4-B80B-5B8A84A66892}"/>
+    <hyperlink ref="AX35" r:id="rId39" xr:uid="{B6AC1FB6-1FA8-4A09-918E-D2485293E66F}"/>
+    <hyperlink ref="AX34" r:id="rId40" xr:uid="{0064DA58-9435-40B7-9F4A-E571D51289F0}"/>
+    <hyperlink ref="AX33" r:id="rId41" xr:uid="{F051E122-8B08-4950-A8C6-41AB54DAE6DD}"/>
+    <hyperlink ref="AX43" r:id="rId42" xr:uid="{B1EB7E1A-3A27-410B-9EC9-FC0215EED525}"/>
+    <hyperlink ref="AX44" r:id="rId43" xr:uid="{0ADB81C6-05D0-4A95-A76E-8BBAE65A286A}"/>
+    <hyperlink ref="AX45" r:id="rId44" xr:uid="{B94CF3D7-90F5-4719-8F5A-132D6DCB76B0}"/>
+    <hyperlink ref="AX46" r:id="rId45" xr:uid="{B900D003-F0E3-4BD9-9280-0E4C72C366C9}"/>
+    <hyperlink ref="AX47" r:id="rId46" xr:uid="{9F4C184F-EF77-4699-98E9-DBF6CC8F5B9E}"/>
+    <hyperlink ref="AX48" r:id="rId47" xr:uid="{3488C605-3B10-4297-89D0-AA747536AF27}"/>
+    <hyperlink ref="AX49" r:id="rId48" xr:uid="{03CDE131-D741-491D-82B7-30A71EFCE45A}"/>
+    <hyperlink ref="AX50" r:id="rId49" xr:uid="{ED4547AB-508E-4CFD-B04D-CD5BCD591B28}"/>
+    <hyperlink ref="AX51" r:id="rId50" xr:uid="{A02A356C-9783-4836-B221-E81098E10B0E}"/>
+    <hyperlink ref="AX52" r:id="rId51" xr:uid="{393B725F-4528-42D2-A4EF-C1BB6D724F7D}"/>
+    <hyperlink ref="AX53" r:id="rId52" xr:uid="{97B3ACDB-AF1E-4DB3-AB77-BB036C01F1E7}"/>
+    <hyperlink ref="AX54" r:id="rId53" xr:uid="{2EC17A10-7C0D-481D-AFF5-066B1A4CEA8F}"/>
+    <hyperlink ref="AX55" r:id="rId54" xr:uid="{D963FEFC-EBCB-4031-9F4E-50AB1E092A87}"/>
+    <hyperlink ref="AX56" r:id="rId55" xr:uid="{32C5B0D7-A634-40C9-96EF-17D9676A6832}"/>
+    <hyperlink ref="AX57" r:id="rId56" xr:uid="{56572350-BD5A-4C14-91AE-4BE2B56C3C11}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId112"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId57"/>
   <tableParts count="1">
-    <tablePart r:id="rId113"/>
+    <tablePart r:id="rId58"/>
   </tableParts>
 </worksheet>
 </file>
@@ -10119,15 +5812,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100879B58D3C23DCA4AAEF47596CA4D8E48" ma:contentTypeVersion="13" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="ee8b9d8723b80ccc4cb578ffd4faacc7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="02625a54-df84-4a3b-b049-0bb7e92cde0d" xmlns:ns3="c90f9e10-81f0-426e-b8bb-fc89022b3796" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="64b8ed4db9a6e136c161da669116b9cc" ns2:_="" ns3:_="">
     <xsd:import namespace="02625a54-df84-4a3b-b049-0bb7e92cde0d"/>
@@ -10336,6 +6020,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3B3ABF6-4080-46CB-8A76-0A61A3F40BD1}">
   <ds:schemaRefs>
@@ -10354,14 +6047,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C63F3413-8325-4072-95D6-266A70C668BD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A223085B-57B4-40DB-BC96-92703C914FDC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10378,4 +6063,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C63F3413-8325-4072-95D6-266A70C668BD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>